--- a/backEnd/users.xlsx
+++ b/backEnd/users.xlsx
@@ -11,7 +11,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>id</t>
+  </si>
   <si>
     <t>userName</t>
   </si>
@@ -23,6 +26,15 @@
   </si>
   <si>
     <t>standardRank</t>
+  </si>
+  <si>
+    <t>platform</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>ourRank</t>
   </si>
 </sst>
 </file>
@@ -283,7 +295,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="19.75"/>
+    <col customWidth="1" min="1" max="27" width="19.75"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -299,10 +311,18 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -321,6 +341,7 @@
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
     </row>
     <row r="2">
       <c r="A2" s="2"/>
@@ -349,6 +370,7 @@
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" s="2"/>
@@ -377,6 +399,7 @@
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" s="2"/>
@@ -405,6 +428,7 @@
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" s="2"/>
@@ -433,6 +457,7 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" s="2"/>
@@ -461,6 +486,7 @@
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" s="2"/>
@@ -489,6 +515,7 @@
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" s="2"/>
@@ -517,6 +544,7 @@
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" s="2"/>
@@ -545,6 +573,7 @@
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" s="2"/>
@@ -573,6 +602,7 @@
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" s="2"/>
@@ -601,6 +631,7 @@
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" s="2"/>
@@ -629,6 +660,7 @@
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" s="2"/>
@@ -657,6 +689,7 @@
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" s="2"/>
@@ -685,6 +718,7 @@
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
+      <c r="AA14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" s="2"/>
@@ -713,6 +747,7 @@
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
+      <c r="AA15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" s="2"/>
@@ -741,6 +776,7 @@
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
+      <c r="AA16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" s="2"/>
@@ -769,6 +805,7 @@
       <c r="X17" s="2"/>
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
+      <c r="AA17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" s="2"/>
@@ -797,6 +834,7 @@
       <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" s="2"/>
@@ -825,6 +863,7 @@
       <c r="X19" s="2"/>
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" s="2"/>
@@ -853,6 +892,7 @@
       <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" s="2"/>
@@ -881,6 +921,7 @@
       <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" s="2"/>
@@ -909,6 +950,7 @@
       <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
     </row>
     <row r="23">
       <c r="A23" s="2"/>
@@ -937,6 +979,7 @@
       <c r="X23" s="2"/>
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
+      <c r="AA23" s="2"/>
     </row>
     <row r="24">
       <c r="A24" s="2"/>
@@ -965,6 +1008,7 @@
       <c r="X24" s="2"/>
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
+      <c r="AA24" s="2"/>
     </row>
     <row r="25">
       <c r="A25" s="2"/>
@@ -993,6 +1037,7 @@
       <c r="X25" s="2"/>
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
+      <c r="AA25" s="2"/>
     </row>
     <row r="26">
       <c r="A26" s="2"/>
@@ -1021,6 +1066,7 @@
       <c r="X26" s="2"/>
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
+      <c r="AA26" s="2"/>
     </row>
     <row r="27">
       <c r="A27" s="2"/>
@@ -1049,6 +1095,7 @@
       <c r="X27" s="2"/>
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
+      <c r="AA27" s="2"/>
     </row>
     <row r="28">
       <c r="A28" s="2"/>
@@ -1077,6 +1124,7 @@
       <c r="X28" s="2"/>
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
+      <c r="AA28" s="2"/>
     </row>
     <row r="29">
       <c r="A29" s="2"/>
@@ -1105,6 +1153,7 @@
       <c r="X29" s="2"/>
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
+      <c r="AA29" s="2"/>
     </row>
     <row r="30">
       <c r="A30" s="2"/>
@@ -1133,6 +1182,7 @@
       <c r="X30" s="2"/>
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
+      <c r="AA30" s="2"/>
     </row>
     <row r="31">
       <c r="A31" s="2"/>
@@ -1161,6 +1211,7 @@
       <c r="X31" s="2"/>
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
+      <c r="AA31" s="2"/>
     </row>
     <row r="32">
       <c r="A32" s="2"/>
@@ -1189,6 +1240,7 @@
       <c r="X32" s="2"/>
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
+      <c r="AA32" s="2"/>
     </row>
     <row r="33">
       <c r="A33" s="2"/>
@@ -1217,6 +1269,7 @@
       <c r="X33" s="2"/>
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
+      <c r="AA33" s="2"/>
     </row>
     <row r="34">
       <c r="A34" s="2"/>
@@ -1245,6 +1298,7 @@
       <c r="X34" s="2"/>
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
+      <c r="AA34" s="2"/>
     </row>
     <row r="35">
       <c r="A35" s="2"/>
@@ -1273,6 +1327,7 @@
       <c r="X35" s="2"/>
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
+      <c r="AA35" s="2"/>
     </row>
     <row r="36">
       <c r="A36" s="2"/>
@@ -1301,6 +1356,7 @@
       <c r="X36" s="2"/>
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
+      <c r="AA36" s="2"/>
     </row>
     <row r="37">
       <c r="A37" s="2"/>
@@ -1329,6 +1385,7 @@
       <c r="X37" s="2"/>
       <c r="Y37" s="2"/>
       <c r="Z37" s="2"/>
+      <c r="AA37" s="2"/>
     </row>
     <row r="38">
       <c r="A38" s="2"/>
@@ -1357,6 +1414,7 @@
       <c r="X38" s="2"/>
       <c r="Y38" s="2"/>
       <c r="Z38" s="2"/>
+      <c r="AA38" s="2"/>
     </row>
     <row r="39">
       <c r="A39" s="2"/>
@@ -1385,6 +1443,7 @@
       <c r="X39" s="2"/>
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
+      <c r="AA39" s="2"/>
     </row>
     <row r="40">
       <c r="A40" s="2"/>
@@ -1413,6 +1472,7 @@
       <c r="X40" s="2"/>
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
+      <c r="AA40" s="2"/>
     </row>
     <row r="41">
       <c r="A41" s="2"/>
@@ -1441,6 +1501,7 @@
       <c r="X41" s="2"/>
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
+      <c r="AA41" s="2"/>
     </row>
     <row r="42">
       <c r="A42" s="2"/>
@@ -1469,6 +1530,7 @@
       <c r="X42" s="2"/>
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
+      <c r="AA42" s="2"/>
     </row>
     <row r="43">
       <c r="A43" s="2"/>
@@ -1497,6 +1559,7 @@
       <c r="X43" s="2"/>
       <c r="Y43" s="2"/>
       <c r="Z43" s="2"/>
+      <c r="AA43" s="2"/>
     </row>
     <row r="44">
       <c r="A44" s="2"/>
@@ -1525,6 +1588,7 @@
       <c r="X44" s="2"/>
       <c r="Y44" s="2"/>
       <c r="Z44" s="2"/>
+      <c r="AA44" s="2"/>
     </row>
     <row r="45">
       <c r="A45" s="2"/>
@@ -1553,6 +1617,7 @@
       <c r="X45" s="2"/>
       <c r="Y45" s="2"/>
       <c r="Z45" s="2"/>
+      <c r="AA45" s="2"/>
     </row>
     <row r="46">
       <c r="A46" s="2"/>
@@ -1581,6 +1646,7 @@
       <c r="X46" s="2"/>
       <c r="Y46" s="2"/>
       <c r="Z46" s="2"/>
+      <c r="AA46" s="2"/>
     </row>
     <row r="47">
       <c r="A47" s="2"/>
@@ -1609,6 +1675,7 @@
       <c r="X47" s="2"/>
       <c r="Y47" s="2"/>
       <c r="Z47" s="2"/>
+      <c r="AA47" s="2"/>
     </row>
     <row r="48">
       <c r="A48" s="2"/>
@@ -1637,6 +1704,7 @@
       <c r="X48" s="2"/>
       <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
+      <c r="AA48" s="2"/>
     </row>
     <row r="49">
       <c r="A49" s="2"/>
@@ -1665,6 +1733,7 @@
       <c r="X49" s="2"/>
       <c r="Y49" s="2"/>
       <c r="Z49" s="2"/>
+      <c r="AA49" s="2"/>
     </row>
     <row r="50">
       <c r="A50" s="2"/>
@@ -1693,6 +1762,7 @@
       <c r="X50" s="2"/>
       <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
+      <c r="AA50" s="2"/>
     </row>
     <row r="51">
       <c r="A51" s="2"/>
@@ -1721,6 +1791,7 @@
       <c r="X51" s="2"/>
       <c r="Y51" s="2"/>
       <c r="Z51" s="2"/>
+      <c r="AA51" s="2"/>
     </row>
     <row r="52">
       <c r="A52" s="2"/>
@@ -1749,6 +1820,7 @@
       <c r="X52" s="2"/>
       <c r="Y52" s="2"/>
       <c r="Z52" s="2"/>
+      <c r="AA52" s="2"/>
     </row>
     <row r="53">
       <c r="A53" s="2"/>
@@ -1777,6 +1849,7 @@
       <c r="X53" s="2"/>
       <c r="Y53" s="2"/>
       <c r="Z53" s="2"/>
+      <c r="AA53" s="2"/>
     </row>
     <row r="54">
       <c r="A54" s="2"/>
@@ -1805,6 +1878,7 @@
       <c r="X54" s="2"/>
       <c r="Y54" s="2"/>
       <c r="Z54" s="2"/>
+      <c r="AA54" s="2"/>
     </row>
     <row r="55">
       <c r="A55" s="2"/>
@@ -1833,6 +1907,7 @@
       <c r="X55" s="2"/>
       <c r="Y55" s="2"/>
       <c r="Z55" s="2"/>
+      <c r="AA55" s="2"/>
     </row>
     <row r="56">
       <c r="A56" s="2"/>
@@ -1861,6 +1936,7 @@
       <c r="X56" s="2"/>
       <c r="Y56" s="2"/>
       <c r="Z56" s="2"/>
+      <c r="AA56" s="2"/>
     </row>
     <row r="57">
       <c r="A57" s="2"/>
@@ -1889,6 +1965,7 @@
       <c r="X57" s="2"/>
       <c r="Y57" s="2"/>
       <c r="Z57" s="2"/>
+      <c r="AA57" s="2"/>
     </row>
     <row r="58">
       <c r="A58" s="2"/>
@@ -1917,6 +1994,7 @@
       <c r="X58" s="2"/>
       <c r="Y58" s="2"/>
       <c r="Z58" s="2"/>
+      <c r="AA58" s="2"/>
     </row>
     <row r="59">
       <c r="A59" s="2"/>
@@ -1945,6 +2023,7 @@
       <c r="X59" s="2"/>
       <c r="Y59" s="2"/>
       <c r="Z59" s="2"/>
+      <c r="AA59" s="2"/>
     </row>
     <row r="60">
       <c r="A60" s="2"/>
@@ -1973,6 +2052,7 @@
       <c r="X60" s="2"/>
       <c r="Y60" s="2"/>
       <c r="Z60" s="2"/>
+      <c r="AA60" s="2"/>
     </row>
     <row r="61">
       <c r="A61" s="2"/>
@@ -2001,6 +2081,7 @@
       <c r="X61" s="2"/>
       <c r="Y61" s="2"/>
       <c r="Z61" s="2"/>
+      <c r="AA61" s="2"/>
     </row>
     <row r="62">
       <c r="A62" s="2"/>
@@ -2029,6 +2110,7 @@
       <c r="X62" s="2"/>
       <c r="Y62" s="2"/>
       <c r="Z62" s="2"/>
+      <c r="AA62" s="2"/>
     </row>
     <row r="63">
       <c r="A63" s="2"/>
@@ -2057,6 +2139,7 @@
       <c r="X63" s="2"/>
       <c r="Y63" s="2"/>
       <c r="Z63" s="2"/>
+      <c r="AA63" s="2"/>
     </row>
     <row r="64">
       <c r="A64" s="2"/>
@@ -2085,6 +2168,7 @@
       <c r="X64" s="2"/>
       <c r="Y64" s="2"/>
       <c r="Z64" s="2"/>
+      <c r="AA64" s="2"/>
     </row>
     <row r="65">
       <c r="A65" s="2"/>
@@ -2113,6 +2197,7 @@
       <c r="X65" s="2"/>
       <c r="Y65" s="2"/>
       <c r="Z65" s="2"/>
+      <c r="AA65" s="2"/>
     </row>
     <row r="66">
       <c r="A66" s="2"/>
@@ -2141,6 +2226,7 @@
       <c r="X66" s="2"/>
       <c r="Y66" s="2"/>
       <c r="Z66" s="2"/>
+      <c r="AA66" s="2"/>
     </row>
     <row r="67">
       <c r="A67" s="2"/>
@@ -2169,6 +2255,7 @@
       <c r="X67" s="2"/>
       <c r="Y67" s="2"/>
       <c r="Z67" s="2"/>
+      <c r="AA67" s="2"/>
     </row>
     <row r="68">
       <c r="A68" s="2"/>
@@ -2197,6 +2284,7 @@
       <c r="X68" s="2"/>
       <c r="Y68" s="2"/>
       <c r="Z68" s="2"/>
+      <c r="AA68" s="2"/>
     </row>
     <row r="69">
       <c r="A69" s="2"/>
@@ -2225,6 +2313,7 @@
       <c r="X69" s="2"/>
       <c r="Y69" s="2"/>
       <c r="Z69" s="2"/>
+      <c r="AA69" s="2"/>
     </row>
     <row r="70">
       <c r="A70" s="2"/>
@@ -2253,6 +2342,7 @@
       <c r="X70" s="2"/>
       <c r="Y70" s="2"/>
       <c r="Z70" s="2"/>
+      <c r="AA70" s="2"/>
     </row>
     <row r="71">
       <c r="A71" s="2"/>
@@ -2281,6 +2371,7 @@
       <c r="X71" s="2"/>
       <c r="Y71" s="2"/>
       <c r="Z71" s="2"/>
+      <c r="AA71" s="2"/>
     </row>
     <row r="72">
       <c r="A72" s="2"/>
@@ -2309,6 +2400,7 @@
       <c r="X72" s="2"/>
       <c r="Y72" s="2"/>
       <c r="Z72" s="2"/>
+      <c r="AA72" s="2"/>
     </row>
     <row r="73">
       <c r="A73" s="2"/>
@@ -2337,6 +2429,7 @@
       <c r="X73" s="2"/>
       <c r="Y73" s="2"/>
       <c r="Z73" s="2"/>
+      <c r="AA73" s="2"/>
     </row>
     <row r="74">
       <c r="A74" s="2"/>
@@ -2365,6 +2458,7 @@
       <c r="X74" s="2"/>
       <c r="Y74" s="2"/>
       <c r="Z74" s="2"/>
+      <c r="AA74" s="2"/>
     </row>
     <row r="75">
       <c r="A75" s="2"/>
@@ -2393,6 +2487,7 @@
       <c r="X75" s="2"/>
       <c r="Y75" s="2"/>
       <c r="Z75" s="2"/>
+      <c r="AA75" s="2"/>
     </row>
     <row r="76">
       <c r="A76" s="2"/>
@@ -2421,6 +2516,7 @@
       <c r="X76" s="2"/>
       <c r="Y76" s="2"/>
       <c r="Z76" s="2"/>
+      <c r="AA76" s="2"/>
     </row>
     <row r="77">
       <c r="A77" s="2"/>
@@ -2449,6 +2545,7 @@
       <c r="X77" s="2"/>
       <c r="Y77" s="2"/>
       <c r="Z77" s="2"/>
+      <c r="AA77" s="2"/>
     </row>
     <row r="78">
       <c r="A78" s="2"/>
@@ -2477,6 +2574,7 @@
       <c r="X78" s="2"/>
       <c r="Y78" s="2"/>
       <c r="Z78" s="2"/>
+      <c r="AA78" s="2"/>
     </row>
     <row r="79">
       <c r="A79" s="2"/>
@@ -2505,6 +2603,7 @@
       <c r="X79" s="2"/>
       <c r="Y79" s="2"/>
       <c r="Z79" s="2"/>
+      <c r="AA79" s="2"/>
     </row>
     <row r="80">
       <c r="A80" s="2"/>
@@ -2533,6 +2632,7 @@
       <c r="X80" s="2"/>
       <c r="Y80" s="2"/>
       <c r="Z80" s="2"/>
+      <c r="AA80" s="2"/>
     </row>
     <row r="81">
       <c r="A81" s="2"/>
@@ -2561,6 +2661,7 @@
       <c r="X81" s="2"/>
       <c r="Y81" s="2"/>
       <c r="Z81" s="2"/>
+      <c r="AA81" s="2"/>
     </row>
     <row r="82">
       <c r="A82" s="2"/>
@@ -2589,6 +2690,7 @@
       <c r="X82" s="2"/>
       <c r="Y82" s="2"/>
       <c r="Z82" s="2"/>
+      <c r="AA82" s="2"/>
     </row>
     <row r="83">
       <c r="A83" s="2"/>
@@ -2617,6 +2719,7 @@
       <c r="X83" s="2"/>
       <c r="Y83" s="2"/>
       <c r="Z83" s="2"/>
+      <c r="AA83" s="2"/>
     </row>
     <row r="84">
       <c r="A84" s="2"/>
@@ -2645,6 +2748,7 @@
       <c r="X84" s="2"/>
       <c r="Y84" s="2"/>
       <c r="Z84" s="2"/>
+      <c r="AA84" s="2"/>
     </row>
     <row r="85">
       <c r="A85" s="2"/>
@@ -2673,6 +2777,7 @@
       <c r="X85" s="2"/>
       <c r="Y85" s="2"/>
       <c r="Z85" s="2"/>
+      <c r="AA85" s="2"/>
     </row>
     <row r="86">
       <c r="A86" s="2"/>
@@ -2701,6 +2806,7 @@
       <c r="X86" s="2"/>
       <c r="Y86" s="2"/>
       <c r="Z86" s="2"/>
+      <c r="AA86" s="2"/>
     </row>
     <row r="87">
       <c r="A87" s="2"/>
@@ -2729,6 +2835,7 @@
       <c r="X87" s="2"/>
       <c r="Y87" s="2"/>
       <c r="Z87" s="2"/>
+      <c r="AA87" s="2"/>
     </row>
     <row r="88">
       <c r="A88" s="2"/>
@@ -2757,6 +2864,7 @@
       <c r="X88" s="2"/>
       <c r="Y88" s="2"/>
       <c r="Z88" s="2"/>
+      <c r="AA88" s="2"/>
     </row>
     <row r="89">
       <c r="A89" s="2"/>
@@ -2785,6 +2893,7 @@
       <c r="X89" s="2"/>
       <c r="Y89" s="2"/>
       <c r="Z89" s="2"/>
+      <c r="AA89" s="2"/>
     </row>
     <row r="90">
       <c r="A90" s="2"/>
@@ -2813,6 +2922,7 @@
       <c r="X90" s="2"/>
       <c r="Y90" s="2"/>
       <c r="Z90" s="2"/>
+      <c r="AA90" s="2"/>
     </row>
     <row r="91">
       <c r="A91" s="2"/>
@@ -2841,6 +2951,7 @@
       <c r="X91" s="2"/>
       <c r="Y91" s="2"/>
       <c r="Z91" s="2"/>
+      <c r="AA91" s="2"/>
     </row>
     <row r="92">
       <c r="A92" s="2"/>
@@ -2869,6 +2980,7 @@
       <c r="X92" s="2"/>
       <c r="Y92" s="2"/>
       <c r="Z92" s="2"/>
+      <c r="AA92" s="2"/>
     </row>
     <row r="93">
       <c r="A93" s="2"/>
@@ -2897,6 +3009,7 @@
       <c r="X93" s="2"/>
       <c r="Y93" s="2"/>
       <c r="Z93" s="2"/>
+      <c r="AA93" s="2"/>
     </row>
     <row r="94">
       <c r="A94" s="2"/>
@@ -2925,6 +3038,7 @@
       <c r="X94" s="2"/>
       <c r="Y94" s="2"/>
       <c r="Z94" s="2"/>
+      <c r="AA94" s="2"/>
     </row>
     <row r="95">
       <c r="A95" s="2"/>
@@ -2953,6 +3067,7 @@
       <c r="X95" s="2"/>
       <c r="Y95" s="2"/>
       <c r="Z95" s="2"/>
+      <c r="AA95" s="2"/>
     </row>
     <row r="96">
       <c r="A96" s="2"/>
@@ -2981,6 +3096,7 @@
       <c r="X96" s="2"/>
       <c r="Y96" s="2"/>
       <c r="Z96" s="2"/>
+      <c r="AA96" s="2"/>
     </row>
     <row r="97">
       <c r="A97" s="2"/>
@@ -3009,6 +3125,7 @@
       <c r="X97" s="2"/>
       <c r="Y97" s="2"/>
       <c r="Z97" s="2"/>
+      <c r="AA97" s="2"/>
     </row>
     <row r="98">
       <c r="A98" s="2"/>
@@ -3037,6 +3154,7 @@
       <c r="X98" s="2"/>
       <c r="Y98" s="2"/>
       <c r="Z98" s="2"/>
+      <c r="AA98" s="2"/>
     </row>
     <row r="99">
       <c r="A99" s="2"/>
@@ -3065,6 +3183,7 @@
       <c r="X99" s="2"/>
       <c r="Y99" s="2"/>
       <c r="Z99" s="2"/>
+      <c r="AA99" s="2"/>
     </row>
     <row r="100">
       <c r="A100" s="2"/>
@@ -3093,6 +3212,7 @@
       <c r="X100" s="2"/>
       <c r="Y100" s="2"/>
       <c r="Z100" s="2"/>
+      <c r="AA100" s="2"/>
     </row>
     <row r="101">
       <c r="A101" s="2"/>
@@ -3121,6 +3241,7 @@
       <c r="X101" s="2"/>
       <c r="Y101" s="2"/>
       <c r="Z101" s="2"/>
+      <c r="AA101" s="2"/>
     </row>
     <row r="102">
       <c r="A102" s="2"/>
@@ -3149,6 +3270,7 @@
       <c r="X102" s="2"/>
       <c r="Y102" s="2"/>
       <c r="Z102" s="2"/>
+      <c r="AA102" s="2"/>
     </row>
     <row r="103">
       <c r="A103" s="2"/>
@@ -3177,6 +3299,7 @@
       <c r="X103" s="2"/>
       <c r="Y103" s="2"/>
       <c r="Z103" s="2"/>
+      <c r="AA103" s="2"/>
     </row>
     <row r="104">
       <c r="A104" s="2"/>
@@ -3205,6 +3328,7 @@
       <c r="X104" s="2"/>
       <c r="Y104" s="2"/>
       <c r="Z104" s="2"/>
+      <c r="AA104" s="2"/>
     </row>
     <row r="105">
       <c r="A105" s="2"/>
@@ -3233,6 +3357,7 @@
       <c r="X105" s="2"/>
       <c r="Y105" s="2"/>
       <c r="Z105" s="2"/>
+      <c r="AA105" s="2"/>
     </row>
     <row r="106">
       <c r="A106" s="2"/>
@@ -3261,6 +3386,7 @@
       <c r="X106" s="2"/>
       <c r="Y106" s="2"/>
       <c r="Z106" s="2"/>
+      <c r="AA106" s="2"/>
     </row>
     <row r="107">
       <c r="A107" s="2"/>
@@ -3289,6 +3415,7 @@
       <c r="X107" s="2"/>
       <c r="Y107" s="2"/>
       <c r="Z107" s="2"/>
+      <c r="AA107" s="2"/>
     </row>
     <row r="108">
       <c r="A108" s="2"/>
@@ -3317,6 +3444,7 @@
       <c r="X108" s="2"/>
       <c r="Y108" s="2"/>
       <c r="Z108" s="2"/>
+      <c r="AA108" s="2"/>
     </row>
     <row r="109">
       <c r="A109" s="2"/>
@@ -3345,6 +3473,7 @@
       <c r="X109" s="2"/>
       <c r="Y109" s="2"/>
       <c r="Z109" s="2"/>
+      <c r="AA109" s="2"/>
     </row>
     <row r="110">
       <c r="A110" s="2"/>
@@ -3373,6 +3502,7 @@
       <c r="X110" s="2"/>
       <c r="Y110" s="2"/>
       <c r="Z110" s="2"/>
+      <c r="AA110" s="2"/>
     </row>
     <row r="111">
       <c r="A111" s="2"/>
@@ -3401,6 +3531,7 @@
       <c r="X111" s="2"/>
       <c r="Y111" s="2"/>
       <c r="Z111" s="2"/>
+      <c r="AA111" s="2"/>
     </row>
     <row r="112">
       <c r="A112" s="2"/>
@@ -3429,6 +3560,7 @@
       <c r="X112" s="2"/>
       <c r="Y112" s="2"/>
       <c r="Z112" s="2"/>
+      <c r="AA112" s="2"/>
     </row>
     <row r="113">
       <c r="A113" s="2"/>
@@ -3457,6 +3589,7 @@
       <c r="X113" s="2"/>
       <c r="Y113" s="2"/>
       <c r="Z113" s="2"/>
+      <c r="AA113" s="2"/>
     </row>
     <row r="114">
       <c r="A114" s="2"/>
@@ -3485,6 +3618,7 @@
       <c r="X114" s="2"/>
       <c r="Y114" s="2"/>
       <c r="Z114" s="2"/>
+      <c r="AA114" s="2"/>
     </row>
     <row r="115">
       <c r="A115" s="2"/>
@@ -3513,6 +3647,7 @@
       <c r="X115" s="2"/>
       <c r="Y115" s="2"/>
       <c r="Z115" s="2"/>
+      <c r="AA115" s="2"/>
     </row>
     <row r="116">
       <c r="A116" s="2"/>
@@ -3541,6 +3676,7 @@
       <c r="X116" s="2"/>
       <c r="Y116" s="2"/>
       <c r="Z116" s="2"/>
+      <c r="AA116" s="2"/>
     </row>
     <row r="117">
       <c r="A117" s="2"/>
@@ -3569,6 +3705,7 @@
       <c r="X117" s="2"/>
       <c r="Y117" s="2"/>
       <c r="Z117" s="2"/>
+      <c r="AA117" s="2"/>
     </row>
     <row r="118">
       <c r="A118" s="2"/>
@@ -3597,6 +3734,7 @@
       <c r="X118" s="2"/>
       <c r="Y118" s="2"/>
       <c r="Z118" s="2"/>
+      <c r="AA118" s="2"/>
     </row>
     <row r="119">
       <c r="A119" s="2"/>
@@ -3625,6 +3763,7 @@
       <c r="X119" s="2"/>
       <c r="Y119" s="2"/>
       <c r="Z119" s="2"/>
+      <c r="AA119" s="2"/>
     </row>
     <row r="120">
       <c r="A120" s="2"/>
@@ -3653,6 +3792,7 @@
       <c r="X120" s="2"/>
       <c r="Y120" s="2"/>
       <c r="Z120" s="2"/>
+      <c r="AA120" s="2"/>
     </row>
     <row r="121">
       <c r="A121" s="2"/>
@@ -3681,6 +3821,7 @@
       <c r="X121" s="2"/>
       <c r="Y121" s="2"/>
       <c r="Z121" s="2"/>
+      <c r="AA121" s="2"/>
     </row>
     <row r="122">
       <c r="A122" s="2"/>
@@ -3709,6 +3850,7 @@
       <c r="X122" s="2"/>
       <c r="Y122" s="2"/>
       <c r="Z122" s="2"/>
+      <c r="AA122" s="2"/>
     </row>
     <row r="123">
       <c r="A123" s="2"/>
@@ -3737,6 +3879,7 @@
       <c r="X123" s="2"/>
       <c r="Y123" s="2"/>
       <c r="Z123" s="2"/>
+      <c r="AA123" s="2"/>
     </row>
     <row r="124">
       <c r="A124" s="2"/>
@@ -3765,6 +3908,7 @@
       <c r="X124" s="2"/>
       <c r="Y124" s="2"/>
       <c r="Z124" s="2"/>
+      <c r="AA124" s="2"/>
     </row>
     <row r="125">
       <c r="A125" s="2"/>
@@ -3793,6 +3937,7 @@
       <c r="X125" s="2"/>
       <c r="Y125" s="2"/>
       <c r="Z125" s="2"/>
+      <c r="AA125" s="2"/>
     </row>
     <row r="126">
       <c r="A126" s="2"/>
@@ -3821,6 +3966,7 @@
       <c r="X126" s="2"/>
       <c r="Y126" s="2"/>
       <c r="Z126" s="2"/>
+      <c r="AA126" s="2"/>
     </row>
     <row r="127">
       <c r="A127" s="2"/>
@@ -3849,6 +3995,7 @@
       <c r="X127" s="2"/>
       <c r="Y127" s="2"/>
       <c r="Z127" s="2"/>
+      <c r="AA127" s="2"/>
     </row>
     <row r="128">
       <c r="A128" s="2"/>
@@ -3877,6 +4024,7 @@
       <c r="X128" s="2"/>
       <c r="Y128" s="2"/>
       <c r="Z128" s="2"/>
+      <c r="AA128" s="2"/>
     </row>
     <row r="129">
       <c r="A129" s="2"/>
@@ -3905,6 +4053,7 @@
       <c r="X129" s="2"/>
       <c r="Y129" s="2"/>
       <c r="Z129" s="2"/>
+      <c r="AA129" s="2"/>
     </row>
     <row r="130">
       <c r="A130" s="2"/>
@@ -3933,6 +4082,7 @@
       <c r="X130" s="2"/>
       <c r="Y130" s="2"/>
       <c r="Z130" s="2"/>
+      <c r="AA130" s="2"/>
     </row>
     <row r="131">
       <c r="A131" s="2"/>
@@ -3961,6 +4111,7 @@
       <c r="X131" s="2"/>
       <c r="Y131" s="2"/>
       <c r="Z131" s="2"/>
+      <c r="AA131" s="2"/>
     </row>
     <row r="132">
       <c r="A132" s="2"/>
@@ -3989,6 +4140,7 @@
       <c r="X132" s="2"/>
       <c r="Y132" s="2"/>
       <c r="Z132" s="2"/>
+      <c r="AA132" s="2"/>
     </row>
     <row r="133">
       <c r="A133" s="2"/>
@@ -4017,6 +4169,7 @@
       <c r="X133" s="2"/>
       <c r="Y133" s="2"/>
       <c r="Z133" s="2"/>
+      <c r="AA133" s="2"/>
     </row>
     <row r="134">
       <c r="A134" s="2"/>
@@ -4045,6 +4198,7 @@
       <c r="X134" s="2"/>
       <c r="Y134" s="2"/>
       <c r="Z134" s="2"/>
+      <c r="AA134" s="2"/>
     </row>
     <row r="135">
       <c r="A135" s="2"/>
@@ -4073,6 +4227,7 @@
       <c r="X135" s="2"/>
       <c r="Y135" s="2"/>
       <c r="Z135" s="2"/>
+      <c r="AA135" s="2"/>
     </row>
     <row r="136">
       <c r="A136" s="2"/>
@@ -4101,6 +4256,7 @@
       <c r="X136" s="2"/>
       <c r="Y136" s="2"/>
       <c r="Z136" s="2"/>
+      <c r="AA136" s="2"/>
     </row>
     <row r="137">
       <c r="A137" s="2"/>
@@ -4129,6 +4285,7 @@
       <c r="X137" s="2"/>
       <c r="Y137" s="2"/>
       <c r="Z137" s="2"/>
+      <c r="AA137" s="2"/>
     </row>
     <row r="138">
       <c r="A138" s="2"/>
@@ -4157,6 +4314,7 @@
       <c r="X138" s="2"/>
       <c r="Y138" s="2"/>
       <c r="Z138" s="2"/>
+      <c r="AA138" s="2"/>
     </row>
     <row r="139">
       <c r="A139" s="2"/>
@@ -4185,6 +4343,7 @@
       <c r="X139" s="2"/>
       <c r="Y139" s="2"/>
       <c r="Z139" s="2"/>
+      <c r="AA139" s="2"/>
     </row>
     <row r="140">
       <c r="A140" s="2"/>
@@ -4213,6 +4372,7 @@
       <c r="X140" s="2"/>
       <c r="Y140" s="2"/>
       <c r="Z140" s="2"/>
+      <c r="AA140" s="2"/>
     </row>
     <row r="141">
       <c r="A141" s="2"/>
@@ -4241,6 +4401,7 @@
       <c r="X141" s="2"/>
       <c r="Y141" s="2"/>
       <c r="Z141" s="2"/>
+      <c r="AA141" s="2"/>
     </row>
     <row r="142">
       <c r="A142" s="2"/>
@@ -4269,6 +4430,7 @@
       <c r="X142" s="2"/>
       <c r="Y142" s="2"/>
       <c r="Z142" s="2"/>
+      <c r="AA142" s="2"/>
     </row>
     <row r="143">
       <c r="A143" s="2"/>
@@ -4297,6 +4459,7 @@
       <c r="X143" s="2"/>
       <c r="Y143" s="2"/>
       <c r="Z143" s="2"/>
+      <c r="AA143" s="2"/>
     </row>
     <row r="144">
       <c r="A144" s="2"/>
@@ -4325,6 +4488,7 @@
       <c r="X144" s="2"/>
       <c r="Y144" s="2"/>
       <c r="Z144" s="2"/>
+      <c r="AA144" s="2"/>
     </row>
     <row r="145">
       <c r="A145" s="2"/>
@@ -4353,6 +4517,7 @@
       <c r="X145" s="2"/>
       <c r="Y145" s="2"/>
       <c r="Z145" s="2"/>
+      <c r="AA145" s="2"/>
     </row>
     <row r="146">
       <c r="A146" s="2"/>
@@ -4381,6 +4546,7 @@
       <c r="X146" s="2"/>
       <c r="Y146" s="2"/>
       <c r="Z146" s="2"/>
+      <c r="AA146" s="2"/>
     </row>
     <row r="147">
       <c r="A147" s="2"/>
@@ -4409,6 +4575,7 @@
       <c r="X147" s="2"/>
       <c r="Y147" s="2"/>
       <c r="Z147" s="2"/>
+      <c r="AA147" s="2"/>
     </row>
     <row r="148">
       <c r="A148" s="2"/>
@@ -4437,6 +4604,7 @@
       <c r="X148" s="2"/>
       <c r="Y148" s="2"/>
       <c r="Z148" s="2"/>
+      <c r="AA148" s="2"/>
     </row>
     <row r="149">
       <c r="A149" s="2"/>
@@ -4465,6 +4633,7 @@
       <c r="X149" s="2"/>
       <c r="Y149" s="2"/>
       <c r="Z149" s="2"/>
+      <c r="AA149" s="2"/>
     </row>
     <row r="150">
       <c r="A150" s="2"/>
@@ -4493,6 +4662,7 @@
       <c r="X150" s="2"/>
       <c r="Y150" s="2"/>
       <c r="Z150" s="2"/>
+      <c r="AA150" s="2"/>
     </row>
     <row r="151">
       <c r="A151" s="2"/>
@@ -4521,6 +4691,7 @@
       <c r="X151" s="2"/>
       <c r="Y151" s="2"/>
       <c r="Z151" s="2"/>
+      <c r="AA151" s="2"/>
     </row>
     <row r="152">
       <c r="A152" s="2"/>
@@ -4549,6 +4720,7 @@
       <c r="X152" s="2"/>
       <c r="Y152" s="2"/>
       <c r="Z152" s="2"/>
+      <c r="AA152" s="2"/>
     </row>
     <row r="153">
       <c r="A153" s="2"/>
@@ -4577,6 +4749,7 @@
       <c r="X153" s="2"/>
       <c r="Y153" s="2"/>
       <c r="Z153" s="2"/>
+      <c r="AA153" s="2"/>
     </row>
     <row r="154">
       <c r="A154" s="2"/>
@@ -4605,6 +4778,7 @@
       <c r="X154" s="2"/>
       <c r="Y154" s="2"/>
       <c r="Z154" s="2"/>
+      <c r="AA154" s="2"/>
     </row>
     <row r="155">
       <c r="A155" s="2"/>
@@ -4633,6 +4807,7 @@
       <c r="X155" s="2"/>
       <c r="Y155" s="2"/>
       <c r="Z155" s="2"/>
+      <c r="AA155" s="2"/>
     </row>
     <row r="156">
       <c r="A156" s="2"/>
@@ -4661,6 +4836,7 @@
       <c r="X156" s="2"/>
       <c r="Y156" s="2"/>
       <c r="Z156" s="2"/>
+      <c r="AA156" s="2"/>
     </row>
     <row r="157">
       <c r="A157" s="2"/>
@@ -4689,6 +4865,7 @@
       <c r="X157" s="2"/>
       <c r="Y157" s="2"/>
       <c r="Z157" s="2"/>
+      <c r="AA157" s="2"/>
     </row>
     <row r="158">
       <c r="A158" s="2"/>
@@ -4717,6 +4894,7 @@
       <c r="X158" s="2"/>
       <c r="Y158" s="2"/>
       <c r="Z158" s="2"/>
+      <c r="AA158" s="2"/>
     </row>
     <row r="159">
       <c r="A159" s="2"/>
@@ -4745,6 +4923,7 @@
       <c r="X159" s="2"/>
       <c r="Y159" s="2"/>
       <c r="Z159" s="2"/>
+      <c r="AA159" s="2"/>
     </row>
     <row r="160">
       <c r="A160" s="2"/>
@@ -4773,6 +4952,7 @@
       <c r="X160" s="2"/>
       <c r="Y160" s="2"/>
       <c r="Z160" s="2"/>
+      <c r="AA160" s="2"/>
     </row>
     <row r="161">
       <c r="A161" s="2"/>
@@ -4801,6 +4981,7 @@
       <c r="X161" s="2"/>
       <c r="Y161" s="2"/>
       <c r="Z161" s="2"/>
+      <c r="AA161" s="2"/>
     </row>
     <row r="162">
       <c r="A162" s="2"/>
@@ -4829,6 +5010,7 @@
       <c r="X162" s="2"/>
       <c r="Y162" s="2"/>
       <c r="Z162" s="2"/>
+      <c r="AA162" s="2"/>
     </row>
     <row r="163">
       <c r="A163" s="2"/>
@@ -4857,6 +5039,7 @@
       <c r="X163" s="2"/>
       <c r="Y163" s="2"/>
       <c r="Z163" s="2"/>
+      <c r="AA163" s="2"/>
     </row>
     <row r="164">
       <c r="A164" s="2"/>
@@ -4885,6 +5068,7 @@
       <c r="X164" s="2"/>
       <c r="Y164" s="2"/>
       <c r="Z164" s="2"/>
+      <c r="AA164" s="2"/>
     </row>
     <row r="165">
       <c r="A165" s="2"/>
@@ -4913,6 +5097,7 @@
       <c r="X165" s="2"/>
       <c r="Y165" s="2"/>
       <c r="Z165" s="2"/>
+      <c r="AA165" s="2"/>
     </row>
     <row r="166">
       <c r="A166" s="2"/>
@@ -4941,6 +5126,7 @@
       <c r="X166" s="2"/>
       <c r="Y166" s="2"/>
       <c r="Z166" s="2"/>
+      <c r="AA166" s="2"/>
     </row>
     <row r="167">
       <c r="A167" s="2"/>
@@ -4969,6 +5155,7 @@
       <c r="X167" s="2"/>
       <c r="Y167" s="2"/>
       <c r="Z167" s="2"/>
+      <c r="AA167" s="2"/>
     </row>
     <row r="168">
       <c r="A168" s="2"/>
@@ -4997,6 +5184,7 @@
       <c r="X168" s="2"/>
       <c r="Y168" s="2"/>
       <c r="Z168" s="2"/>
+      <c r="AA168" s="2"/>
     </row>
     <row r="169">
       <c r="A169" s="2"/>
@@ -5025,6 +5213,7 @@
       <c r="X169" s="2"/>
       <c r="Y169" s="2"/>
       <c r="Z169" s="2"/>
+      <c r="AA169" s="2"/>
     </row>
     <row r="170">
       <c r="A170" s="2"/>
@@ -5053,6 +5242,7 @@
       <c r="X170" s="2"/>
       <c r="Y170" s="2"/>
       <c r="Z170" s="2"/>
+      <c r="AA170" s="2"/>
     </row>
     <row r="171">
       <c r="A171" s="2"/>
@@ -5081,6 +5271,7 @@
       <c r="X171" s="2"/>
       <c r="Y171" s="2"/>
       <c r="Z171" s="2"/>
+      <c r="AA171" s="2"/>
     </row>
     <row r="172">
       <c r="A172" s="2"/>
@@ -5109,6 +5300,7 @@
       <c r="X172" s="2"/>
       <c r="Y172" s="2"/>
       <c r="Z172" s="2"/>
+      <c r="AA172" s="2"/>
     </row>
     <row r="173">
       <c r="A173" s="2"/>
@@ -5137,6 +5329,7 @@
       <c r="X173" s="2"/>
       <c r="Y173" s="2"/>
       <c r="Z173" s="2"/>
+      <c r="AA173" s="2"/>
     </row>
     <row r="174">
       <c r="A174" s="2"/>
@@ -5165,6 +5358,7 @@
       <c r="X174" s="2"/>
       <c r="Y174" s="2"/>
       <c r="Z174" s="2"/>
+      <c r="AA174" s="2"/>
     </row>
     <row r="175">
       <c r="A175" s="2"/>
@@ -5193,6 +5387,7 @@
       <c r="X175" s="2"/>
       <c r="Y175" s="2"/>
       <c r="Z175" s="2"/>
+      <c r="AA175" s="2"/>
     </row>
     <row r="176">
       <c r="A176" s="2"/>
@@ -5221,6 +5416,7 @@
       <c r="X176" s="2"/>
       <c r="Y176" s="2"/>
       <c r="Z176" s="2"/>
+      <c r="AA176" s="2"/>
     </row>
     <row r="177">
       <c r="A177" s="2"/>
@@ -5249,6 +5445,7 @@
       <c r="X177" s="2"/>
       <c r="Y177" s="2"/>
       <c r="Z177" s="2"/>
+      <c r="AA177" s="2"/>
     </row>
     <row r="178">
       <c r="A178" s="2"/>
@@ -5277,6 +5474,7 @@
       <c r="X178" s="2"/>
       <c r="Y178" s="2"/>
       <c r="Z178" s="2"/>
+      <c r="AA178" s="2"/>
     </row>
     <row r="179">
       <c r="A179" s="2"/>
@@ -5305,6 +5503,7 @@
       <c r="X179" s="2"/>
       <c r="Y179" s="2"/>
       <c r="Z179" s="2"/>
+      <c r="AA179" s="2"/>
     </row>
     <row r="180">
       <c r="A180" s="2"/>
@@ -5333,6 +5532,7 @@
       <c r="X180" s="2"/>
       <c r="Y180" s="2"/>
       <c r="Z180" s="2"/>
+      <c r="AA180" s="2"/>
     </row>
     <row r="181">
       <c r="A181" s="2"/>
@@ -5361,6 +5561,7 @@
       <c r="X181" s="2"/>
       <c r="Y181" s="2"/>
       <c r="Z181" s="2"/>
+      <c r="AA181" s="2"/>
     </row>
     <row r="182">
       <c r="A182" s="2"/>
@@ -5389,6 +5590,7 @@
       <c r="X182" s="2"/>
       <c r="Y182" s="2"/>
       <c r="Z182" s="2"/>
+      <c r="AA182" s="2"/>
     </row>
     <row r="183">
       <c r="A183" s="2"/>
@@ -5417,6 +5619,7 @@
       <c r="X183" s="2"/>
       <c r="Y183" s="2"/>
       <c r="Z183" s="2"/>
+      <c r="AA183" s="2"/>
     </row>
     <row r="184">
       <c r="A184" s="2"/>
@@ -5445,6 +5648,7 @@
       <c r="X184" s="2"/>
       <c r="Y184" s="2"/>
       <c r="Z184" s="2"/>
+      <c r="AA184" s="2"/>
     </row>
     <row r="185">
       <c r="A185" s="2"/>
@@ -5473,6 +5677,7 @@
       <c r="X185" s="2"/>
       <c r="Y185" s="2"/>
       <c r="Z185" s="2"/>
+      <c r="AA185" s="2"/>
     </row>
     <row r="186">
       <c r="A186" s="2"/>
@@ -5501,6 +5706,7 @@
       <c r="X186" s="2"/>
       <c r="Y186" s="2"/>
       <c r="Z186" s="2"/>
+      <c r="AA186" s="2"/>
     </row>
     <row r="187">
       <c r="A187" s="2"/>
@@ -5529,6 +5735,7 @@
       <c r="X187" s="2"/>
       <c r="Y187" s="2"/>
       <c r="Z187" s="2"/>
+      <c r="AA187" s="2"/>
     </row>
     <row r="188">
       <c r="A188" s="2"/>
@@ -5557,6 +5764,7 @@
       <c r="X188" s="2"/>
       <c r="Y188" s="2"/>
       <c r="Z188" s="2"/>
+      <c r="AA188" s="2"/>
     </row>
     <row r="189">
       <c r="A189" s="2"/>
@@ -5585,6 +5793,7 @@
       <c r="X189" s="2"/>
       <c r="Y189" s="2"/>
       <c r="Z189" s="2"/>
+      <c r="AA189" s="2"/>
     </row>
     <row r="190">
       <c r="A190" s="2"/>
@@ -5613,6 +5822,7 @@
       <c r="X190" s="2"/>
       <c r="Y190" s="2"/>
       <c r="Z190" s="2"/>
+      <c r="AA190" s="2"/>
     </row>
     <row r="191">
       <c r="A191" s="2"/>
@@ -5641,6 +5851,7 @@
       <c r="X191" s="2"/>
       <c r="Y191" s="2"/>
       <c r="Z191" s="2"/>
+      <c r="AA191" s="2"/>
     </row>
     <row r="192">
       <c r="A192" s="2"/>
@@ -5669,6 +5880,7 @@
       <c r="X192" s="2"/>
       <c r="Y192" s="2"/>
       <c r="Z192" s="2"/>
+      <c r="AA192" s="2"/>
     </row>
     <row r="193">
       <c r="A193" s="2"/>
@@ -5697,6 +5909,7 @@
       <c r="X193" s="2"/>
       <c r="Y193" s="2"/>
       <c r="Z193" s="2"/>
+      <c r="AA193" s="2"/>
     </row>
     <row r="194">
       <c r="A194" s="2"/>
@@ -5725,6 +5938,7 @@
       <c r="X194" s="2"/>
       <c r="Y194" s="2"/>
       <c r="Z194" s="2"/>
+      <c r="AA194" s="2"/>
     </row>
     <row r="195">
       <c r="A195" s="2"/>
@@ -5753,6 +5967,7 @@
       <c r="X195" s="2"/>
       <c r="Y195" s="2"/>
       <c r="Z195" s="2"/>
+      <c r="AA195" s="2"/>
     </row>
     <row r="196">
       <c r="A196" s="2"/>
@@ -5781,6 +5996,7 @@
       <c r="X196" s="2"/>
       <c r="Y196" s="2"/>
       <c r="Z196" s="2"/>
+      <c r="AA196" s="2"/>
     </row>
     <row r="197">
       <c r="A197" s="2"/>
@@ -5809,6 +6025,7 @@
       <c r="X197" s="2"/>
       <c r="Y197" s="2"/>
       <c r="Z197" s="2"/>
+      <c r="AA197" s="2"/>
     </row>
     <row r="198">
       <c r="A198" s="2"/>
@@ -5837,6 +6054,7 @@
       <c r="X198" s="2"/>
       <c r="Y198" s="2"/>
       <c r="Z198" s="2"/>
+      <c r="AA198" s="2"/>
     </row>
     <row r="199">
       <c r="A199" s="2"/>
@@ -5865,6 +6083,7 @@
       <c r="X199" s="2"/>
       <c r="Y199" s="2"/>
       <c r="Z199" s="2"/>
+      <c r="AA199" s="2"/>
     </row>
     <row r="200">
       <c r="A200" s="2"/>
@@ -5893,6 +6112,7 @@
       <c r="X200" s="2"/>
       <c r="Y200" s="2"/>
       <c r="Z200" s="2"/>
+      <c r="AA200" s="2"/>
     </row>
     <row r="201">
       <c r="A201" s="2"/>
@@ -5921,6 +6141,7 @@
       <c r="X201" s="2"/>
       <c r="Y201" s="2"/>
       <c r="Z201" s="2"/>
+      <c r="AA201" s="2"/>
     </row>
     <row r="202">
       <c r="A202" s="2"/>
@@ -5949,6 +6170,7 @@
       <c r="X202" s="2"/>
       <c r="Y202" s="2"/>
       <c r="Z202" s="2"/>
+      <c r="AA202" s="2"/>
     </row>
     <row r="203">
       <c r="A203" s="2"/>
@@ -5977,6 +6199,7 @@
       <c r="X203" s="2"/>
       <c r="Y203" s="2"/>
       <c r="Z203" s="2"/>
+      <c r="AA203" s="2"/>
     </row>
     <row r="204">
       <c r="A204" s="2"/>
@@ -6005,6 +6228,7 @@
       <c r="X204" s="2"/>
       <c r="Y204" s="2"/>
       <c r="Z204" s="2"/>
+      <c r="AA204" s="2"/>
     </row>
     <row r="205">
       <c r="A205" s="2"/>
@@ -6033,6 +6257,7 @@
       <c r="X205" s="2"/>
       <c r="Y205" s="2"/>
       <c r="Z205" s="2"/>
+      <c r="AA205" s="2"/>
     </row>
     <row r="206">
       <c r="A206" s="2"/>
@@ -6061,6 +6286,7 @@
       <c r="X206" s="2"/>
       <c r="Y206" s="2"/>
       <c r="Z206" s="2"/>
+      <c r="AA206" s="2"/>
     </row>
     <row r="207">
       <c r="A207" s="2"/>
@@ -6089,6 +6315,7 @@
       <c r="X207" s="2"/>
       <c r="Y207" s="2"/>
       <c r="Z207" s="2"/>
+      <c r="AA207" s="2"/>
     </row>
     <row r="208">
       <c r="A208" s="2"/>
@@ -6117,6 +6344,7 @@
       <c r="X208" s="2"/>
       <c r="Y208" s="2"/>
       <c r="Z208" s="2"/>
+      <c r="AA208" s="2"/>
     </row>
     <row r="209">
       <c r="A209" s="2"/>
@@ -6145,6 +6373,7 @@
       <c r="X209" s="2"/>
       <c r="Y209" s="2"/>
       <c r="Z209" s="2"/>
+      <c r="AA209" s="2"/>
     </row>
     <row r="210">
       <c r="A210" s="2"/>
@@ -6173,6 +6402,7 @@
       <c r="X210" s="2"/>
       <c r="Y210" s="2"/>
       <c r="Z210" s="2"/>
+      <c r="AA210" s="2"/>
     </row>
     <row r="211">
       <c r="A211" s="2"/>
@@ -6201,6 +6431,7 @@
       <c r="X211" s="2"/>
       <c r="Y211" s="2"/>
       <c r="Z211" s="2"/>
+      <c r="AA211" s="2"/>
     </row>
     <row r="212">
       <c r="A212" s="2"/>
@@ -6229,6 +6460,7 @@
       <c r="X212" s="2"/>
       <c r="Y212" s="2"/>
       <c r="Z212" s="2"/>
+      <c r="AA212" s="2"/>
     </row>
     <row r="213">
       <c r="A213" s="2"/>
@@ -6257,6 +6489,7 @@
       <c r="X213" s="2"/>
       <c r="Y213" s="2"/>
       <c r="Z213" s="2"/>
+      <c r="AA213" s="2"/>
     </row>
     <row r="214">
       <c r="A214" s="2"/>
@@ -6285,6 +6518,7 @@
       <c r="X214" s="2"/>
       <c r="Y214" s="2"/>
       <c r="Z214" s="2"/>
+      <c r="AA214" s="2"/>
     </row>
     <row r="215">
       <c r="A215" s="2"/>
@@ -6313,6 +6547,7 @@
       <c r="X215" s="2"/>
       <c r="Y215" s="2"/>
       <c r="Z215" s="2"/>
+      <c r="AA215" s="2"/>
     </row>
     <row r="216">
       <c r="A216" s="2"/>
@@ -6341,6 +6576,7 @@
       <c r="X216" s="2"/>
       <c r="Y216" s="2"/>
       <c r="Z216" s="2"/>
+      <c r="AA216" s="2"/>
     </row>
     <row r="217">
       <c r="A217" s="2"/>
@@ -6369,6 +6605,7 @@
       <c r="X217" s="2"/>
       <c r="Y217" s="2"/>
       <c r="Z217" s="2"/>
+      <c r="AA217" s="2"/>
     </row>
     <row r="218">
       <c r="A218" s="2"/>
@@ -6397,6 +6634,7 @@
       <c r="X218" s="2"/>
       <c r="Y218" s="2"/>
       <c r="Z218" s="2"/>
+      <c r="AA218" s="2"/>
     </row>
     <row r="219">
       <c r="A219" s="2"/>
@@ -6425,6 +6663,7 @@
       <c r="X219" s="2"/>
       <c r="Y219" s="2"/>
       <c r="Z219" s="2"/>
+      <c r="AA219" s="2"/>
     </row>
     <row r="220">
       <c r="A220" s="2"/>
@@ -6453,6 +6692,7 @@
       <c r="X220" s="2"/>
       <c r="Y220" s="2"/>
       <c r="Z220" s="2"/>
+      <c r="AA220" s="2"/>
     </row>
     <row r="221">
       <c r="A221" s="2"/>
@@ -6481,6 +6721,7 @@
       <c r="X221" s="2"/>
       <c r="Y221" s="2"/>
       <c r="Z221" s="2"/>
+      <c r="AA221" s="2"/>
     </row>
     <row r="222">
       <c r="A222" s="2"/>
@@ -6509,6 +6750,7 @@
       <c r="X222" s="2"/>
       <c r="Y222" s="2"/>
       <c r="Z222" s="2"/>
+      <c r="AA222" s="2"/>
     </row>
     <row r="223">
       <c r="A223" s="2"/>
@@ -6537,6 +6779,7 @@
       <c r="X223" s="2"/>
       <c r="Y223" s="2"/>
       <c r="Z223" s="2"/>
+      <c r="AA223" s="2"/>
     </row>
     <row r="224">
       <c r="A224" s="2"/>
@@ -6565,6 +6808,7 @@
       <c r="X224" s="2"/>
       <c r="Y224" s="2"/>
       <c r="Z224" s="2"/>
+      <c r="AA224" s="2"/>
     </row>
     <row r="225">
       <c r="A225" s="2"/>
@@ -6593,6 +6837,7 @@
       <c r="X225" s="2"/>
       <c r="Y225" s="2"/>
       <c r="Z225" s="2"/>
+      <c r="AA225" s="2"/>
     </row>
     <row r="226">
       <c r="A226" s="2"/>
@@ -6621,6 +6866,7 @@
       <c r="X226" s="2"/>
       <c r="Y226" s="2"/>
       <c r="Z226" s="2"/>
+      <c r="AA226" s="2"/>
     </row>
     <row r="227">
       <c r="A227" s="2"/>
@@ -6649,6 +6895,7 @@
       <c r="X227" s="2"/>
       <c r="Y227" s="2"/>
       <c r="Z227" s="2"/>
+      <c r="AA227" s="2"/>
     </row>
     <row r="228">
       <c r="A228" s="2"/>
@@ -6677,6 +6924,7 @@
       <c r="X228" s="2"/>
       <c r="Y228" s="2"/>
       <c r="Z228" s="2"/>
+      <c r="AA228" s="2"/>
     </row>
     <row r="229">
       <c r="A229" s="2"/>
@@ -6705,6 +6953,7 @@
       <c r="X229" s="2"/>
       <c r="Y229" s="2"/>
       <c r="Z229" s="2"/>
+      <c r="AA229" s="2"/>
     </row>
     <row r="230">
       <c r="A230" s="2"/>
@@ -6733,6 +6982,7 @@
       <c r="X230" s="2"/>
       <c r="Y230" s="2"/>
       <c r="Z230" s="2"/>
+      <c r="AA230" s="2"/>
     </row>
     <row r="231">
       <c r="A231" s="2"/>
@@ -6761,6 +7011,7 @@
       <c r="X231" s="2"/>
       <c r="Y231" s="2"/>
       <c r="Z231" s="2"/>
+      <c r="AA231" s="2"/>
     </row>
     <row r="232">
       <c r="A232" s="2"/>
@@ -6789,6 +7040,7 @@
       <c r="X232" s="2"/>
       <c r="Y232" s="2"/>
       <c r="Z232" s="2"/>
+      <c r="AA232" s="2"/>
     </row>
     <row r="233">
       <c r="A233" s="2"/>
@@ -6817,6 +7069,7 @@
       <c r="X233" s="2"/>
       <c r="Y233" s="2"/>
       <c r="Z233" s="2"/>
+      <c r="AA233" s="2"/>
     </row>
     <row r="234">
       <c r="A234" s="2"/>
@@ -6845,6 +7098,7 @@
       <c r="X234" s="2"/>
       <c r="Y234" s="2"/>
       <c r="Z234" s="2"/>
+      <c r="AA234" s="2"/>
     </row>
     <row r="235">
       <c r="A235" s="2"/>
@@ -6873,6 +7127,7 @@
       <c r="X235" s="2"/>
       <c r="Y235" s="2"/>
       <c r="Z235" s="2"/>
+      <c r="AA235" s="2"/>
     </row>
     <row r="236">
       <c r="A236" s="2"/>
@@ -6901,6 +7156,7 @@
       <c r="X236" s="2"/>
       <c r="Y236" s="2"/>
       <c r="Z236" s="2"/>
+      <c r="AA236" s="2"/>
     </row>
     <row r="237">
       <c r="A237" s="2"/>
@@ -6929,6 +7185,7 @@
       <c r="X237" s="2"/>
       <c r="Y237" s="2"/>
       <c r="Z237" s="2"/>
+      <c r="AA237" s="2"/>
     </row>
     <row r="238">
       <c r="A238" s="2"/>
@@ -6957,6 +7214,7 @@
       <c r="X238" s="2"/>
       <c r="Y238" s="2"/>
       <c r="Z238" s="2"/>
+      <c r="AA238" s="2"/>
     </row>
     <row r="239">
       <c r="A239" s="2"/>
@@ -6985,6 +7243,7 @@
       <c r="X239" s="2"/>
       <c r="Y239" s="2"/>
       <c r="Z239" s="2"/>
+      <c r="AA239" s="2"/>
     </row>
     <row r="240">
       <c r="A240" s="2"/>
@@ -7013,6 +7272,7 @@
       <c r="X240" s="2"/>
       <c r="Y240" s="2"/>
       <c r="Z240" s="2"/>
+      <c r="AA240" s="2"/>
     </row>
     <row r="241">
       <c r="A241" s="2"/>
@@ -7041,6 +7301,7 @@
       <c r="X241" s="2"/>
       <c r="Y241" s="2"/>
       <c r="Z241" s="2"/>
+      <c r="AA241" s="2"/>
     </row>
     <row r="242">
       <c r="A242" s="2"/>
@@ -7069,6 +7330,7 @@
       <c r="X242" s="2"/>
       <c r="Y242" s="2"/>
       <c r="Z242" s="2"/>
+      <c r="AA242" s="2"/>
     </row>
     <row r="243">
       <c r="A243" s="2"/>
@@ -7097,6 +7359,7 @@
       <c r="X243" s="2"/>
       <c r="Y243" s="2"/>
       <c r="Z243" s="2"/>
+      <c r="AA243" s="2"/>
     </row>
     <row r="244">
       <c r="A244" s="2"/>
@@ -7125,6 +7388,7 @@
       <c r="X244" s="2"/>
       <c r="Y244" s="2"/>
       <c r="Z244" s="2"/>
+      <c r="AA244" s="2"/>
     </row>
     <row r="245">
       <c r="A245" s="2"/>
@@ -7153,6 +7417,7 @@
       <c r="X245" s="2"/>
       <c r="Y245" s="2"/>
       <c r="Z245" s="2"/>
+      <c r="AA245" s="2"/>
     </row>
     <row r="246">
       <c r="A246" s="2"/>
@@ -7181,6 +7446,7 @@
       <c r="X246" s="2"/>
       <c r="Y246" s="2"/>
       <c r="Z246" s="2"/>
+      <c r="AA246" s="2"/>
     </row>
     <row r="247">
       <c r="A247" s="2"/>
@@ -7209,6 +7475,7 @@
       <c r="X247" s="2"/>
       <c r="Y247" s="2"/>
       <c r="Z247" s="2"/>
+      <c r="AA247" s="2"/>
     </row>
     <row r="248">
       <c r="A248" s="2"/>
@@ -7237,6 +7504,7 @@
       <c r="X248" s="2"/>
       <c r="Y248" s="2"/>
       <c r="Z248" s="2"/>
+      <c r="AA248" s="2"/>
     </row>
     <row r="249">
       <c r="A249" s="2"/>
@@ -7265,6 +7533,7 @@
       <c r="X249" s="2"/>
       <c r="Y249" s="2"/>
       <c r="Z249" s="2"/>
+      <c r="AA249" s="2"/>
     </row>
     <row r="250">
       <c r="A250" s="2"/>
@@ -7293,6 +7562,7 @@
       <c r="X250" s="2"/>
       <c r="Y250" s="2"/>
       <c r="Z250" s="2"/>
+      <c r="AA250" s="2"/>
     </row>
     <row r="251">
       <c r="A251" s="2"/>
@@ -7321,6 +7591,7 @@
       <c r="X251" s="2"/>
       <c r="Y251" s="2"/>
       <c r="Z251" s="2"/>
+      <c r="AA251" s="2"/>
     </row>
     <row r="252">
       <c r="A252" s="2"/>
@@ -7349,6 +7620,7 @@
       <c r="X252" s="2"/>
       <c r="Y252" s="2"/>
       <c r="Z252" s="2"/>
+      <c r="AA252" s="2"/>
     </row>
     <row r="253">
       <c r="A253" s="2"/>
@@ -7377,6 +7649,7 @@
       <c r="X253" s="2"/>
       <c r="Y253" s="2"/>
       <c r="Z253" s="2"/>
+      <c r="AA253" s="2"/>
     </row>
     <row r="254">
       <c r="A254" s="2"/>
@@ -7405,6 +7678,7 @@
       <c r="X254" s="2"/>
       <c r="Y254" s="2"/>
       <c r="Z254" s="2"/>
+      <c r="AA254" s="2"/>
     </row>
     <row r="255">
       <c r="A255" s="2"/>
@@ -7433,6 +7707,7 @@
       <c r="X255" s="2"/>
       <c r="Y255" s="2"/>
       <c r="Z255" s="2"/>
+      <c r="AA255" s="2"/>
     </row>
     <row r="256">
       <c r="A256" s="2"/>
@@ -7461,6 +7736,7 @@
       <c r="X256" s="2"/>
       <c r="Y256" s="2"/>
       <c r="Z256" s="2"/>
+      <c r="AA256" s="2"/>
     </row>
     <row r="257">
       <c r="A257" s="2"/>
@@ -7489,6 +7765,7 @@
       <c r="X257" s="2"/>
       <c r="Y257" s="2"/>
       <c r="Z257" s="2"/>
+      <c r="AA257" s="2"/>
     </row>
     <row r="258">
       <c r="A258" s="2"/>
@@ -7517,6 +7794,7 @@
       <c r="X258" s="2"/>
       <c r="Y258" s="2"/>
       <c r="Z258" s="2"/>
+      <c r="AA258" s="2"/>
     </row>
     <row r="259">
       <c r="A259" s="2"/>
@@ -7545,6 +7823,7 @@
       <c r="X259" s="2"/>
       <c r="Y259" s="2"/>
       <c r="Z259" s="2"/>
+      <c r="AA259" s="2"/>
     </row>
     <row r="260">
       <c r="A260" s="2"/>
@@ -7573,6 +7852,7 @@
       <c r="X260" s="2"/>
       <c r="Y260" s="2"/>
       <c r="Z260" s="2"/>
+      <c r="AA260" s="2"/>
     </row>
     <row r="261">
       <c r="A261" s="2"/>
@@ -7601,6 +7881,7 @@
       <c r="X261" s="2"/>
       <c r="Y261" s="2"/>
       <c r="Z261" s="2"/>
+      <c r="AA261" s="2"/>
     </row>
     <row r="262">
       <c r="A262" s="2"/>
@@ -7629,6 +7910,7 @@
       <c r="X262" s="2"/>
       <c r="Y262" s="2"/>
       <c r="Z262" s="2"/>
+      <c r="AA262" s="2"/>
     </row>
     <row r="263">
       <c r="A263" s="2"/>
@@ -7657,6 +7939,7 @@
       <c r="X263" s="2"/>
       <c r="Y263" s="2"/>
       <c r="Z263" s="2"/>
+      <c r="AA263" s="2"/>
     </row>
     <row r="264">
       <c r="A264" s="2"/>
@@ -7685,6 +7968,7 @@
       <c r="X264" s="2"/>
       <c r="Y264" s="2"/>
       <c r="Z264" s="2"/>
+      <c r="AA264" s="2"/>
     </row>
     <row r="265">
       <c r="A265" s="2"/>
@@ -7713,6 +7997,7 @@
       <c r="X265" s="2"/>
       <c r="Y265" s="2"/>
       <c r="Z265" s="2"/>
+      <c r="AA265" s="2"/>
     </row>
     <row r="266">
       <c r="A266" s="2"/>
@@ -7741,6 +8026,7 @@
       <c r="X266" s="2"/>
       <c r="Y266" s="2"/>
       <c r="Z266" s="2"/>
+      <c r="AA266" s="2"/>
     </row>
     <row r="267">
       <c r="A267" s="2"/>
@@ -7769,6 +8055,7 @@
       <c r="X267" s="2"/>
       <c r="Y267" s="2"/>
       <c r="Z267" s="2"/>
+      <c r="AA267" s="2"/>
     </row>
     <row r="268">
       <c r="A268" s="2"/>
@@ -7797,6 +8084,7 @@
       <c r="X268" s="2"/>
       <c r="Y268" s="2"/>
       <c r="Z268" s="2"/>
+      <c r="AA268" s="2"/>
     </row>
     <row r="269">
       <c r="A269" s="2"/>
@@ -7825,6 +8113,7 @@
       <c r="X269" s="2"/>
       <c r="Y269" s="2"/>
       <c r="Z269" s="2"/>
+      <c r="AA269" s="2"/>
     </row>
     <row r="270">
       <c r="A270" s="2"/>
@@ -7853,6 +8142,7 @@
       <c r="X270" s="2"/>
       <c r="Y270" s="2"/>
       <c r="Z270" s="2"/>
+      <c r="AA270" s="2"/>
     </row>
     <row r="271">
       <c r="A271" s="2"/>
@@ -7881,6 +8171,7 @@
       <c r="X271" s="2"/>
       <c r="Y271" s="2"/>
       <c r="Z271" s="2"/>
+      <c r="AA271" s="2"/>
     </row>
     <row r="272">
       <c r="A272" s="2"/>
@@ -7909,6 +8200,7 @@
       <c r="X272" s="2"/>
       <c r="Y272" s="2"/>
       <c r="Z272" s="2"/>
+      <c r="AA272" s="2"/>
     </row>
     <row r="273">
       <c r="A273" s="2"/>
@@ -7937,6 +8229,7 @@
       <c r="X273" s="2"/>
       <c r="Y273" s="2"/>
       <c r="Z273" s="2"/>
+      <c r="AA273" s="2"/>
     </row>
     <row r="274">
       <c r="A274" s="2"/>
@@ -7965,6 +8258,7 @@
       <c r="X274" s="2"/>
       <c r="Y274" s="2"/>
       <c r="Z274" s="2"/>
+      <c r="AA274" s="2"/>
     </row>
     <row r="275">
       <c r="A275" s="2"/>
@@ -7993,6 +8287,7 @@
       <c r="X275" s="2"/>
       <c r="Y275" s="2"/>
       <c r="Z275" s="2"/>
+      <c r="AA275" s="2"/>
     </row>
     <row r="276">
       <c r="A276" s="2"/>
@@ -8021,6 +8316,7 @@
       <c r="X276" s="2"/>
       <c r="Y276" s="2"/>
       <c r="Z276" s="2"/>
+      <c r="AA276" s="2"/>
     </row>
     <row r="277">
       <c r="A277" s="2"/>
@@ -8049,6 +8345,7 @@
       <c r="X277" s="2"/>
       <c r="Y277" s="2"/>
       <c r="Z277" s="2"/>
+      <c r="AA277" s="2"/>
     </row>
     <row r="278">
       <c r="A278" s="2"/>
@@ -8077,6 +8374,7 @@
       <c r="X278" s="2"/>
       <c r="Y278" s="2"/>
       <c r="Z278" s="2"/>
+      <c r="AA278" s="2"/>
     </row>
     <row r="279">
       <c r="A279" s="2"/>
@@ -8105,6 +8403,7 @@
       <c r="X279" s="2"/>
       <c r="Y279" s="2"/>
       <c r="Z279" s="2"/>
+      <c r="AA279" s="2"/>
     </row>
     <row r="280">
       <c r="A280" s="2"/>
@@ -8133,6 +8432,7 @@
       <c r="X280" s="2"/>
       <c r="Y280" s="2"/>
       <c r="Z280" s="2"/>
+      <c r="AA280" s="2"/>
     </row>
     <row r="281">
       <c r="A281" s="2"/>
@@ -8161,6 +8461,7 @@
       <c r="X281" s="2"/>
       <c r="Y281" s="2"/>
       <c r="Z281" s="2"/>
+      <c r="AA281" s="2"/>
     </row>
     <row r="282">
       <c r="A282" s="2"/>
@@ -8189,6 +8490,7 @@
       <c r="X282" s="2"/>
       <c r="Y282" s="2"/>
       <c r="Z282" s="2"/>
+      <c r="AA282" s="2"/>
     </row>
     <row r="283">
       <c r="A283" s="2"/>
@@ -8217,6 +8519,7 @@
       <c r="X283" s="2"/>
       <c r="Y283" s="2"/>
       <c r="Z283" s="2"/>
+      <c r="AA283" s="2"/>
     </row>
     <row r="284">
       <c r="A284" s="2"/>
@@ -8245,6 +8548,7 @@
       <c r="X284" s="2"/>
       <c r="Y284" s="2"/>
       <c r="Z284" s="2"/>
+      <c r="AA284" s="2"/>
     </row>
     <row r="285">
       <c r="A285" s="2"/>
@@ -8273,6 +8577,7 @@
       <c r="X285" s="2"/>
       <c r="Y285" s="2"/>
       <c r="Z285" s="2"/>
+      <c r="AA285" s="2"/>
     </row>
     <row r="286">
       <c r="A286" s="2"/>
@@ -8301,6 +8606,7 @@
       <c r="X286" s="2"/>
       <c r="Y286" s="2"/>
       <c r="Z286" s="2"/>
+      <c r="AA286" s="2"/>
     </row>
     <row r="287">
       <c r="A287" s="2"/>
@@ -8329,6 +8635,7 @@
       <c r="X287" s="2"/>
       <c r="Y287" s="2"/>
       <c r="Z287" s="2"/>
+      <c r="AA287" s="2"/>
     </row>
     <row r="288">
       <c r="A288" s="2"/>
@@ -8357,6 +8664,7 @@
       <c r="X288" s="2"/>
       <c r="Y288" s="2"/>
       <c r="Z288" s="2"/>
+      <c r="AA288" s="2"/>
     </row>
     <row r="289">
       <c r="A289" s="2"/>
@@ -8385,6 +8693,7 @@
       <c r="X289" s="2"/>
       <c r="Y289" s="2"/>
       <c r="Z289" s="2"/>
+      <c r="AA289" s="2"/>
     </row>
     <row r="290">
       <c r="A290" s="2"/>
@@ -8413,6 +8722,7 @@
       <c r="X290" s="2"/>
       <c r="Y290" s="2"/>
       <c r="Z290" s="2"/>
+      <c r="AA290" s="2"/>
     </row>
     <row r="291">
       <c r="A291" s="2"/>
@@ -8441,6 +8751,7 @@
       <c r="X291" s="2"/>
       <c r="Y291" s="2"/>
       <c r="Z291" s="2"/>
+      <c r="AA291" s="2"/>
     </row>
     <row r="292">
       <c r="A292" s="2"/>
@@ -8469,6 +8780,7 @@
       <c r="X292" s="2"/>
       <c r="Y292" s="2"/>
       <c r="Z292" s="2"/>
+      <c r="AA292" s="2"/>
     </row>
     <row r="293">
       <c r="A293" s="2"/>
@@ -8497,6 +8809,7 @@
       <c r="X293" s="2"/>
       <c r="Y293" s="2"/>
       <c r="Z293" s="2"/>
+      <c r="AA293" s="2"/>
     </row>
     <row r="294">
       <c r="A294" s="2"/>
@@ -8525,6 +8838,7 @@
       <c r="X294" s="2"/>
       <c r="Y294" s="2"/>
       <c r="Z294" s="2"/>
+      <c r="AA294" s="2"/>
     </row>
     <row r="295">
       <c r="A295" s="2"/>
@@ -8553,6 +8867,7 @@
       <c r="X295" s="2"/>
       <c r="Y295" s="2"/>
       <c r="Z295" s="2"/>
+      <c r="AA295" s="2"/>
     </row>
     <row r="296">
       <c r="A296" s="2"/>
@@ -8581,6 +8896,7 @@
       <c r="X296" s="2"/>
       <c r="Y296" s="2"/>
       <c r="Z296" s="2"/>
+      <c r="AA296" s="2"/>
     </row>
     <row r="297">
       <c r="A297" s="2"/>
@@ -8609,6 +8925,7 @@
       <c r="X297" s="2"/>
       <c r="Y297" s="2"/>
       <c r="Z297" s="2"/>
+      <c r="AA297" s="2"/>
     </row>
     <row r="298">
       <c r="A298" s="2"/>
@@ -8637,6 +8954,7 @@
       <c r="X298" s="2"/>
       <c r="Y298" s="2"/>
       <c r="Z298" s="2"/>
+      <c r="AA298" s="2"/>
     </row>
     <row r="299">
       <c r="A299" s="2"/>
@@ -8665,6 +8983,7 @@
       <c r="X299" s="2"/>
       <c r="Y299" s="2"/>
       <c r="Z299" s="2"/>
+      <c r="AA299" s="2"/>
     </row>
     <row r="300">
       <c r="A300" s="2"/>
@@ -8693,6 +9012,7 @@
       <c r="X300" s="2"/>
       <c r="Y300" s="2"/>
       <c r="Z300" s="2"/>
+      <c r="AA300" s="2"/>
     </row>
     <row r="301">
       <c r="A301" s="2"/>
@@ -8721,6 +9041,7 @@
       <c r="X301" s="2"/>
       <c r="Y301" s="2"/>
       <c r="Z301" s="2"/>
+      <c r="AA301" s="2"/>
     </row>
     <row r="302">
       <c r="A302" s="2"/>
@@ -8749,6 +9070,7 @@
       <c r="X302" s="2"/>
       <c r="Y302" s="2"/>
       <c r="Z302" s="2"/>
+      <c r="AA302" s="2"/>
     </row>
     <row r="303">
       <c r="A303" s="2"/>
@@ -8777,6 +9099,7 @@
       <c r="X303" s="2"/>
       <c r="Y303" s="2"/>
       <c r="Z303" s="2"/>
+      <c r="AA303" s="2"/>
     </row>
     <row r="304">
       <c r="A304" s="2"/>
@@ -8805,6 +9128,7 @@
       <c r="X304" s="2"/>
       <c r="Y304" s="2"/>
       <c r="Z304" s="2"/>
+      <c r="AA304" s="2"/>
     </row>
     <row r="305">
       <c r="A305" s="2"/>
@@ -8833,6 +9157,7 @@
       <c r="X305" s="2"/>
       <c r="Y305" s="2"/>
       <c r="Z305" s="2"/>
+      <c r="AA305" s="2"/>
     </row>
     <row r="306">
       <c r="A306" s="2"/>
@@ -8861,6 +9186,7 @@
       <c r="X306" s="2"/>
       <c r="Y306" s="2"/>
       <c r="Z306" s="2"/>
+      <c r="AA306" s="2"/>
     </row>
     <row r="307">
       <c r="A307" s="2"/>
@@ -8889,6 +9215,7 @@
       <c r="X307" s="2"/>
       <c r="Y307" s="2"/>
       <c r="Z307" s="2"/>
+      <c r="AA307" s="2"/>
     </row>
     <row r="308">
       <c r="A308" s="2"/>
@@ -8917,6 +9244,7 @@
       <c r="X308" s="2"/>
       <c r="Y308" s="2"/>
       <c r="Z308" s="2"/>
+      <c r="AA308" s="2"/>
     </row>
     <row r="309">
       <c r="A309" s="2"/>
@@ -8945,6 +9273,7 @@
       <c r="X309" s="2"/>
       <c r="Y309" s="2"/>
       <c r="Z309" s="2"/>
+      <c r="AA309" s="2"/>
     </row>
     <row r="310">
       <c r="A310" s="2"/>
@@ -8973,6 +9302,7 @@
       <c r="X310" s="2"/>
       <c r="Y310" s="2"/>
       <c r="Z310" s="2"/>
+      <c r="AA310" s="2"/>
     </row>
     <row r="311">
       <c r="A311" s="2"/>
@@ -9001,6 +9331,7 @@
       <c r="X311" s="2"/>
       <c r="Y311" s="2"/>
       <c r="Z311" s="2"/>
+      <c r="AA311" s="2"/>
     </row>
     <row r="312">
       <c r="A312" s="2"/>
@@ -9029,6 +9360,7 @@
       <c r="X312" s="2"/>
       <c r="Y312" s="2"/>
       <c r="Z312" s="2"/>
+      <c r="AA312" s="2"/>
     </row>
     <row r="313">
       <c r="A313" s="2"/>
@@ -9057,6 +9389,7 @@
       <c r="X313" s="2"/>
       <c r="Y313" s="2"/>
       <c r="Z313" s="2"/>
+      <c r="AA313" s="2"/>
     </row>
     <row r="314">
       <c r="A314" s="2"/>
@@ -9085,6 +9418,7 @@
       <c r="X314" s="2"/>
       <c r="Y314" s="2"/>
       <c r="Z314" s="2"/>
+      <c r="AA314" s="2"/>
     </row>
     <row r="315">
       <c r="A315" s="2"/>
@@ -9113,6 +9447,7 @@
       <c r="X315" s="2"/>
       <c r="Y315" s="2"/>
       <c r="Z315" s="2"/>
+      <c r="AA315" s="2"/>
     </row>
     <row r="316">
       <c r="A316" s="2"/>
@@ -9141,6 +9476,7 @@
       <c r="X316" s="2"/>
       <c r="Y316" s="2"/>
       <c r="Z316" s="2"/>
+      <c r="AA316" s="2"/>
     </row>
     <row r="317">
       <c r="A317" s="2"/>
@@ -9169,6 +9505,7 @@
       <c r="X317" s="2"/>
       <c r="Y317" s="2"/>
       <c r="Z317" s="2"/>
+      <c r="AA317" s="2"/>
     </row>
     <row r="318">
       <c r="A318" s="2"/>
@@ -9197,6 +9534,7 @@
       <c r="X318" s="2"/>
       <c r="Y318" s="2"/>
       <c r="Z318" s="2"/>
+      <c r="AA318" s="2"/>
     </row>
     <row r="319">
       <c r="A319" s="2"/>
@@ -9225,6 +9563,7 @@
       <c r="X319" s="2"/>
       <c r="Y319" s="2"/>
       <c r="Z319" s="2"/>
+      <c r="AA319" s="2"/>
     </row>
     <row r="320">
       <c r="A320" s="2"/>
@@ -9253,6 +9592,7 @@
       <c r="X320" s="2"/>
       <c r="Y320" s="2"/>
       <c r="Z320" s="2"/>
+      <c r="AA320" s="2"/>
     </row>
     <row r="321">
       <c r="A321" s="2"/>
@@ -9281,6 +9621,7 @@
       <c r="X321" s="2"/>
       <c r="Y321" s="2"/>
       <c r="Z321" s="2"/>
+      <c r="AA321" s="2"/>
     </row>
     <row r="322">
       <c r="A322" s="2"/>
@@ -9309,6 +9650,7 @@
       <c r="X322" s="2"/>
       <c r="Y322" s="2"/>
       <c r="Z322" s="2"/>
+      <c r="AA322" s="2"/>
     </row>
     <row r="323">
       <c r="A323" s="2"/>
@@ -9337,6 +9679,7 @@
       <c r="X323" s="2"/>
       <c r="Y323" s="2"/>
       <c r="Z323" s="2"/>
+      <c r="AA323" s="2"/>
     </row>
     <row r="324">
       <c r="A324" s="2"/>
@@ -9365,6 +9708,7 @@
       <c r="X324" s="2"/>
       <c r="Y324" s="2"/>
       <c r="Z324" s="2"/>
+      <c r="AA324" s="2"/>
     </row>
     <row r="325">
       <c r="A325" s="2"/>
@@ -9393,6 +9737,7 @@
       <c r="X325" s="2"/>
       <c r="Y325" s="2"/>
       <c r="Z325" s="2"/>
+      <c r="AA325" s="2"/>
     </row>
     <row r="326">
       <c r="A326" s="2"/>
@@ -9421,6 +9766,7 @@
       <c r="X326" s="2"/>
       <c r="Y326" s="2"/>
       <c r="Z326" s="2"/>
+      <c r="AA326" s="2"/>
     </row>
     <row r="327">
       <c r="A327" s="2"/>
@@ -9449,6 +9795,7 @@
       <c r="X327" s="2"/>
       <c r="Y327" s="2"/>
       <c r="Z327" s="2"/>
+      <c r="AA327" s="2"/>
     </row>
     <row r="328">
       <c r="A328" s="2"/>
@@ -9477,6 +9824,7 @@
       <c r="X328" s="2"/>
       <c r="Y328" s="2"/>
       <c r="Z328" s="2"/>
+      <c r="AA328" s="2"/>
     </row>
     <row r="329">
       <c r="A329" s="2"/>
@@ -9505,6 +9853,7 @@
       <c r="X329" s="2"/>
       <c r="Y329" s="2"/>
       <c r="Z329" s="2"/>
+      <c r="AA329" s="2"/>
     </row>
     <row r="330">
       <c r="A330" s="2"/>
@@ -9533,6 +9882,7 @@
       <c r="X330" s="2"/>
       <c r="Y330" s="2"/>
       <c r="Z330" s="2"/>
+      <c r="AA330" s="2"/>
     </row>
     <row r="331">
       <c r="A331" s="2"/>
@@ -9561,6 +9911,7 @@
       <c r="X331" s="2"/>
       <c r="Y331" s="2"/>
       <c r="Z331" s="2"/>
+      <c r="AA331" s="2"/>
     </row>
     <row r="332">
       <c r="A332" s="2"/>
@@ -9589,6 +9940,7 @@
       <c r="X332" s="2"/>
       <c r="Y332" s="2"/>
       <c r="Z332" s="2"/>
+      <c r="AA332" s="2"/>
     </row>
     <row r="333">
       <c r="A333" s="2"/>
@@ -9617,6 +9969,7 @@
       <c r="X333" s="2"/>
       <c r="Y333" s="2"/>
       <c r="Z333" s="2"/>
+      <c r="AA333" s="2"/>
     </row>
     <row r="334">
       <c r="A334" s="2"/>
@@ -9645,6 +9998,7 @@
       <c r="X334" s="2"/>
       <c r="Y334" s="2"/>
       <c r="Z334" s="2"/>
+      <c r="AA334" s="2"/>
     </row>
     <row r="335">
       <c r="A335" s="2"/>
@@ -9673,6 +10027,7 @@
       <c r="X335" s="2"/>
       <c r="Y335" s="2"/>
       <c r="Z335" s="2"/>
+      <c r="AA335" s="2"/>
     </row>
     <row r="336">
       <c r="A336" s="2"/>
@@ -9701,6 +10056,7 @@
       <c r="X336" s="2"/>
       <c r="Y336" s="2"/>
       <c r="Z336" s="2"/>
+      <c r="AA336" s="2"/>
     </row>
     <row r="337">
       <c r="A337" s="2"/>
@@ -9729,6 +10085,7 @@
       <c r="X337" s="2"/>
       <c r="Y337" s="2"/>
       <c r="Z337" s="2"/>
+      <c r="AA337" s="2"/>
     </row>
     <row r="338">
       <c r="A338" s="2"/>
@@ -9757,6 +10114,7 @@
       <c r="X338" s="2"/>
       <c r="Y338" s="2"/>
       <c r="Z338" s="2"/>
+      <c r="AA338" s="2"/>
     </row>
     <row r="339">
       <c r="A339" s="2"/>
@@ -9785,6 +10143,7 @@
       <c r="X339" s="2"/>
       <c r="Y339" s="2"/>
       <c r="Z339" s="2"/>
+      <c r="AA339" s="2"/>
     </row>
     <row r="340">
       <c r="A340" s="2"/>
@@ -9813,6 +10172,7 @@
       <c r="X340" s="2"/>
       <c r="Y340" s="2"/>
       <c r="Z340" s="2"/>
+      <c r="AA340" s="2"/>
     </row>
     <row r="341">
       <c r="A341" s="2"/>
@@ -9841,6 +10201,7 @@
       <c r="X341" s="2"/>
       <c r="Y341" s="2"/>
       <c r="Z341" s="2"/>
+      <c r="AA341" s="2"/>
     </row>
     <row r="342">
       <c r="A342" s="2"/>
@@ -9869,6 +10230,7 @@
       <c r="X342" s="2"/>
       <c r="Y342" s="2"/>
       <c r="Z342" s="2"/>
+      <c r="AA342" s="2"/>
     </row>
     <row r="343">
       <c r="A343" s="2"/>
@@ -9897,6 +10259,7 @@
       <c r="X343" s="2"/>
       <c r="Y343" s="2"/>
       <c r="Z343" s="2"/>
+      <c r="AA343" s="2"/>
     </row>
     <row r="344">
       <c r="A344" s="2"/>
@@ -9925,6 +10288,7 @@
       <c r="X344" s="2"/>
       <c r="Y344" s="2"/>
       <c r="Z344" s="2"/>
+      <c r="AA344" s="2"/>
     </row>
     <row r="345">
       <c r="A345" s="2"/>
@@ -9953,6 +10317,7 @@
       <c r="X345" s="2"/>
       <c r="Y345" s="2"/>
       <c r="Z345" s="2"/>
+      <c r="AA345" s="2"/>
     </row>
     <row r="346">
       <c r="A346" s="2"/>
@@ -9981,6 +10346,7 @@
       <c r="X346" s="2"/>
       <c r="Y346" s="2"/>
       <c r="Z346" s="2"/>
+      <c r="AA346" s="2"/>
     </row>
     <row r="347">
       <c r="A347" s="2"/>
@@ -10009,6 +10375,7 @@
       <c r="X347" s="2"/>
       <c r="Y347" s="2"/>
       <c r="Z347" s="2"/>
+      <c r="AA347" s="2"/>
     </row>
     <row r="348">
       <c r="A348" s="2"/>
@@ -10037,6 +10404,7 @@
       <c r="X348" s="2"/>
       <c r="Y348" s="2"/>
       <c r="Z348" s="2"/>
+      <c r="AA348" s="2"/>
     </row>
     <row r="349">
       <c r="A349" s="2"/>
@@ -10065,6 +10433,7 @@
       <c r="X349" s="2"/>
       <c r="Y349" s="2"/>
       <c r="Z349" s="2"/>
+      <c r="AA349" s="2"/>
     </row>
     <row r="350">
       <c r="A350" s="2"/>
@@ -10093,6 +10462,7 @@
       <c r="X350" s="2"/>
       <c r="Y350" s="2"/>
       <c r="Z350" s="2"/>
+      <c r="AA350" s="2"/>
     </row>
     <row r="351">
       <c r="A351" s="2"/>
@@ -10121,6 +10491,7 @@
       <c r="X351" s="2"/>
       <c r="Y351" s="2"/>
       <c r="Z351" s="2"/>
+      <c r="AA351" s="2"/>
     </row>
     <row r="352">
       <c r="A352" s="2"/>
@@ -10149,6 +10520,7 @@
       <c r="X352" s="2"/>
       <c r="Y352" s="2"/>
       <c r="Z352" s="2"/>
+      <c r="AA352" s="2"/>
     </row>
     <row r="353">
       <c r="A353" s="2"/>
@@ -10177,6 +10549,7 @@
       <c r="X353" s="2"/>
       <c r="Y353" s="2"/>
       <c r="Z353" s="2"/>
+      <c r="AA353" s="2"/>
     </row>
     <row r="354">
       <c r="A354" s="2"/>
@@ -10205,6 +10578,7 @@
       <c r="X354" s="2"/>
       <c r="Y354" s="2"/>
       <c r="Z354" s="2"/>
+      <c r="AA354" s="2"/>
     </row>
     <row r="355">
       <c r="A355" s="2"/>
@@ -10233,6 +10607,7 @@
       <c r="X355" s="2"/>
       <c r="Y355" s="2"/>
       <c r="Z355" s="2"/>
+      <c r="AA355" s="2"/>
     </row>
     <row r="356">
       <c r="A356" s="2"/>
@@ -10261,6 +10636,7 @@
       <c r="X356" s="2"/>
       <c r="Y356" s="2"/>
       <c r="Z356" s="2"/>
+      <c r="AA356" s="2"/>
     </row>
     <row r="357">
       <c r="A357" s="2"/>
@@ -10289,6 +10665,7 @@
       <c r="X357" s="2"/>
       <c r="Y357" s="2"/>
       <c r="Z357" s="2"/>
+      <c r="AA357" s="2"/>
     </row>
     <row r="358">
       <c r="A358" s="2"/>
@@ -10317,6 +10694,7 @@
       <c r="X358" s="2"/>
       <c r="Y358" s="2"/>
       <c r="Z358" s="2"/>
+      <c r="AA358" s="2"/>
     </row>
     <row r="359">
       <c r="A359" s="2"/>
@@ -10345,6 +10723,7 @@
       <c r="X359" s="2"/>
       <c r="Y359" s="2"/>
       <c r="Z359" s="2"/>
+      <c r="AA359" s="2"/>
     </row>
     <row r="360">
       <c r="A360" s="2"/>
@@ -10373,6 +10752,7 @@
       <c r="X360" s="2"/>
       <c r="Y360" s="2"/>
       <c r="Z360" s="2"/>
+      <c r="AA360" s="2"/>
     </row>
     <row r="361">
       <c r="A361" s="2"/>
@@ -10401,6 +10781,7 @@
       <c r="X361" s="2"/>
       <c r="Y361" s="2"/>
       <c r="Z361" s="2"/>
+      <c r="AA361" s="2"/>
     </row>
     <row r="362">
       <c r="A362" s="2"/>
@@ -10429,6 +10810,7 @@
       <c r="X362" s="2"/>
       <c r="Y362" s="2"/>
       <c r="Z362" s="2"/>
+      <c r="AA362" s="2"/>
     </row>
     <row r="363">
       <c r="A363" s="2"/>
@@ -10457,6 +10839,7 @@
       <c r="X363" s="2"/>
       <c r="Y363" s="2"/>
       <c r="Z363" s="2"/>
+      <c r="AA363" s="2"/>
     </row>
     <row r="364">
       <c r="A364" s="2"/>
@@ -10485,6 +10868,7 @@
       <c r="X364" s="2"/>
       <c r="Y364" s="2"/>
       <c r="Z364" s="2"/>
+      <c r="AA364" s="2"/>
     </row>
     <row r="365">
       <c r="A365" s="2"/>
@@ -10513,6 +10897,7 @@
       <c r="X365" s="2"/>
       <c r="Y365" s="2"/>
       <c r="Z365" s="2"/>
+      <c r="AA365" s="2"/>
     </row>
     <row r="366">
       <c r="A366" s="2"/>
@@ -10541,6 +10926,7 @@
       <c r="X366" s="2"/>
       <c r="Y366" s="2"/>
       <c r="Z366" s="2"/>
+      <c r="AA366" s="2"/>
     </row>
     <row r="367">
       <c r="A367" s="2"/>
@@ -10569,6 +10955,7 @@
       <c r="X367" s="2"/>
       <c r="Y367" s="2"/>
       <c r="Z367" s="2"/>
+      <c r="AA367" s="2"/>
     </row>
     <row r="368">
       <c r="A368" s="2"/>
@@ -10597,6 +10984,7 @@
       <c r="X368" s="2"/>
       <c r="Y368" s="2"/>
       <c r="Z368" s="2"/>
+      <c r="AA368" s="2"/>
     </row>
     <row r="369">
       <c r="A369" s="2"/>
@@ -10625,6 +11013,7 @@
       <c r="X369" s="2"/>
       <c r="Y369" s="2"/>
       <c r="Z369" s="2"/>
+      <c r="AA369" s="2"/>
     </row>
     <row r="370">
       <c r="A370" s="2"/>
@@ -10653,6 +11042,7 @@
       <c r="X370" s="2"/>
       <c r="Y370" s="2"/>
       <c r="Z370" s="2"/>
+      <c r="AA370" s="2"/>
     </row>
     <row r="371">
       <c r="A371" s="2"/>
@@ -10681,6 +11071,7 @@
       <c r="X371" s="2"/>
       <c r="Y371" s="2"/>
       <c r="Z371" s="2"/>
+      <c r="AA371" s="2"/>
     </row>
     <row r="372">
       <c r="A372" s="2"/>
@@ -10709,6 +11100,7 @@
       <c r="X372" s="2"/>
       <c r="Y372" s="2"/>
       <c r="Z372" s="2"/>
+      <c r="AA372" s="2"/>
     </row>
     <row r="373">
       <c r="A373" s="2"/>
@@ -10737,6 +11129,7 @@
       <c r="X373" s="2"/>
       <c r="Y373" s="2"/>
       <c r="Z373" s="2"/>
+      <c r="AA373" s="2"/>
     </row>
     <row r="374">
       <c r="A374" s="2"/>
@@ -10765,6 +11158,7 @@
       <c r="X374" s="2"/>
       <c r="Y374" s="2"/>
       <c r="Z374" s="2"/>
+      <c r="AA374" s="2"/>
     </row>
     <row r="375">
       <c r="A375" s="2"/>
@@ -10793,6 +11187,7 @@
       <c r="X375" s="2"/>
       <c r="Y375" s="2"/>
       <c r="Z375" s="2"/>
+      <c r="AA375" s="2"/>
     </row>
     <row r="376">
       <c r="A376" s="2"/>
@@ -10821,6 +11216,7 @@
       <c r="X376" s="2"/>
       <c r="Y376" s="2"/>
       <c r="Z376" s="2"/>
+      <c r="AA376" s="2"/>
     </row>
     <row r="377">
       <c r="A377" s="2"/>
@@ -10849,6 +11245,7 @@
       <c r="X377" s="2"/>
       <c r="Y377" s="2"/>
       <c r="Z377" s="2"/>
+      <c r="AA377" s="2"/>
     </row>
     <row r="378">
       <c r="A378" s="2"/>
@@ -10877,6 +11274,7 @@
       <c r="X378" s="2"/>
       <c r="Y378" s="2"/>
       <c r="Z378" s="2"/>
+      <c r="AA378" s="2"/>
     </row>
     <row r="379">
       <c r="A379" s="2"/>
@@ -10905,6 +11303,7 @@
       <c r="X379" s="2"/>
       <c r="Y379" s="2"/>
       <c r="Z379" s="2"/>
+      <c r="AA379" s="2"/>
     </row>
     <row r="380">
       <c r="A380" s="2"/>
@@ -10933,6 +11332,7 @@
       <c r="X380" s="2"/>
       <c r="Y380" s="2"/>
       <c r="Z380" s="2"/>
+      <c r="AA380" s="2"/>
     </row>
     <row r="381">
       <c r="A381" s="2"/>
@@ -10961,6 +11361,7 @@
       <c r="X381" s="2"/>
       <c r="Y381" s="2"/>
       <c r="Z381" s="2"/>
+      <c r="AA381" s="2"/>
     </row>
     <row r="382">
       <c r="A382" s="2"/>
@@ -10989,6 +11390,7 @@
       <c r="X382" s="2"/>
       <c r="Y382" s="2"/>
       <c r="Z382" s="2"/>
+      <c r="AA382" s="2"/>
     </row>
     <row r="383">
       <c r="A383" s="2"/>
@@ -11017,6 +11419,7 @@
       <c r="X383" s="2"/>
       <c r="Y383" s="2"/>
       <c r="Z383" s="2"/>
+      <c r="AA383" s="2"/>
     </row>
     <row r="384">
       <c r="A384" s="2"/>
@@ -11045,6 +11448,7 @@
       <c r="X384" s="2"/>
       <c r="Y384" s="2"/>
       <c r="Z384" s="2"/>
+      <c r="AA384" s="2"/>
     </row>
     <row r="385">
       <c r="A385" s="2"/>
@@ -11073,6 +11477,7 @@
       <c r="X385" s="2"/>
       <c r="Y385" s="2"/>
       <c r="Z385" s="2"/>
+      <c r="AA385" s="2"/>
     </row>
     <row r="386">
       <c r="A386" s="2"/>
@@ -11101,6 +11506,7 @@
       <c r="X386" s="2"/>
       <c r="Y386" s="2"/>
       <c r="Z386" s="2"/>
+      <c r="AA386" s="2"/>
     </row>
     <row r="387">
       <c r="A387" s="2"/>
@@ -11129,6 +11535,7 @@
       <c r="X387" s="2"/>
       <c r="Y387" s="2"/>
       <c r="Z387" s="2"/>
+      <c r="AA387" s="2"/>
     </row>
     <row r="388">
       <c r="A388" s="2"/>
@@ -11157,6 +11564,7 @@
       <c r="X388" s="2"/>
       <c r="Y388" s="2"/>
       <c r="Z388" s="2"/>
+      <c r="AA388" s="2"/>
     </row>
     <row r="389">
       <c r="A389" s="2"/>
@@ -11185,6 +11593,7 @@
       <c r="X389" s="2"/>
       <c r="Y389" s="2"/>
       <c r="Z389" s="2"/>
+      <c r="AA389" s="2"/>
     </row>
     <row r="390">
       <c r="A390" s="2"/>
@@ -11213,6 +11622,7 @@
       <c r="X390" s="2"/>
       <c r="Y390" s="2"/>
       <c r="Z390" s="2"/>
+      <c r="AA390" s="2"/>
     </row>
     <row r="391">
       <c r="A391" s="2"/>
@@ -11241,6 +11651,7 @@
       <c r="X391" s="2"/>
       <c r="Y391" s="2"/>
       <c r="Z391" s="2"/>
+      <c r="AA391" s="2"/>
     </row>
     <row r="392">
       <c r="A392" s="2"/>
@@ -11269,6 +11680,7 @@
       <c r="X392" s="2"/>
       <c r="Y392" s="2"/>
       <c r="Z392" s="2"/>
+      <c r="AA392" s="2"/>
     </row>
     <row r="393">
       <c r="A393" s="2"/>
@@ -11297,6 +11709,7 @@
       <c r="X393" s="2"/>
       <c r="Y393" s="2"/>
       <c r="Z393" s="2"/>
+      <c r="AA393" s="2"/>
     </row>
     <row r="394">
       <c r="A394" s="2"/>
@@ -11325,6 +11738,7 @@
       <c r="X394" s="2"/>
       <c r="Y394" s="2"/>
       <c r="Z394" s="2"/>
+      <c r="AA394" s="2"/>
     </row>
     <row r="395">
       <c r="A395" s="2"/>
@@ -11353,6 +11767,7 @@
       <c r="X395" s="2"/>
       <c r="Y395" s="2"/>
       <c r="Z395" s="2"/>
+      <c r="AA395" s="2"/>
     </row>
     <row r="396">
       <c r="A396" s="2"/>
@@ -11381,6 +11796,7 @@
       <c r="X396" s="2"/>
       <c r="Y396" s="2"/>
       <c r="Z396" s="2"/>
+      <c r="AA396" s="2"/>
     </row>
     <row r="397">
       <c r="A397" s="2"/>
@@ -11409,6 +11825,7 @@
       <c r="X397" s="2"/>
       <c r="Y397" s="2"/>
       <c r="Z397" s="2"/>
+      <c r="AA397" s="2"/>
     </row>
     <row r="398">
       <c r="A398" s="2"/>
@@ -11437,6 +11854,7 @@
       <c r="X398" s="2"/>
       <c r="Y398" s="2"/>
       <c r="Z398" s="2"/>
+      <c r="AA398" s="2"/>
     </row>
     <row r="399">
       <c r="A399" s="2"/>
@@ -11465,6 +11883,7 @@
       <c r="X399" s="2"/>
       <c r="Y399" s="2"/>
       <c r="Z399" s="2"/>
+      <c r="AA399" s="2"/>
     </row>
     <row r="400">
       <c r="A400" s="2"/>
@@ -11493,6 +11912,7 @@
       <c r="X400" s="2"/>
       <c r="Y400" s="2"/>
       <c r="Z400" s="2"/>
+      <c r="AA400" s="2"/>
     </row>
     <row r="401">
       <c r="A401" s="2"/>
@@ -11521,6 +11941,7 @@
       <c r="X401" s="2"/>
       <c r="Y401" s="2"/>
       <c r="Z401" s="2"/>
+      <c r="AA401" s="2"/>
     </row>
     <row r="402">
       <c r="A402" s="2"/>
@@ -11549,6 +11970,7 @@
       <c r="X402" s="2"/>
       <c r="Y402" s="2"/>
       <c r="Z402" s="2"/>
+      <c r="AA402" s="2"/>
     </row>
     <row r="403">
       <c r="A403" s="2"/>
@@ -11577,6 +11999,7 @@
       <c r="X403" s="2"/>
       <c r="Y403" s="2"/>
       <c r="Z403" s="2"/>
+      <c r="AA403" s="2"/>
     </row>
     <row r="404">
       <c r="A404" s="2"/>
@@ -11605,6 +12028,7 @@
       <c r="X404" s="2"/>
       <c r="Y404" s="2"/>
       <c r="Z404" s="2"/>
+      <c r="AA404" s="2"/>
     </row>
     <row r="405">
       <c r="A405" s="2"/>
@@ -11633,6 +12057,7 @@
       <c r="X405" s="2"/>
       <c r="Y405" s="2"/>
       <c r="Z405" s="2"/>
+      <c r="AA405" s="2"/>
     </row>
     <row r="406">
       <c r="A406" s="2"/>
@@ -11661,6 +12086,7 @@
       <c r="X406" s="2"/>
       <c r="Y406" s="2"/>
       <c r="Z406" s="2"/>
+      <c r="AA406" s="2"/>
     </row>
     <row r="407">
       <c r="A407" s="2"/>
@@ -11689,6 +12115,7 @@
       <c r="X407" s="2"/>
       <c r="Y407" s="2"/>
       <c r="Z407" s="2"/>
+      <c r="AA407" s="2"/>
     </row>
     <row r="408">
       <c r="A408" s="2"/>
@@ -11717,6 +12144,7 @@
       <c r="X408" s="2"/>
       <c r="Y408" s="2"/>
       <c r="Z408" s="2"/>
+      <c r="AA408" s="2"/>
     </row>
     <row r="409">
       <c r="A409" s="2"/>
@@ -11745,6 +12173,7 @@
       <c r="X409" s="2"/>
       <c r="Y409" s="2"/>
       <c r="Z409" s="2"/>
+      <c r="AA409" s="2"/>
     </row>
     <row r="410">
       <c r="A410" s="2"/>
@@ -11773,6 +12202,7 @@
       <c r="X410" s="2"/>
       <c r="Y410" s="2"/>
       <c r="Z410" s="2"/>
+      <c r="AA410" s="2"/>
     </row>
     <row r="411">
       <c r="A411" s="2"/>
@@ -11801,6 +12231,7 @@
       <c r="X411" s="2"/>
       <c r="Y411" s="2"/>
       <c r="Z411" s="2"/>
+      <c r="AA411" s="2"/>
     </row>
     <row r="412">
       <c r="A412" s="2"/>
@@ -11829,6 +12260,7 @@
       <c r="X412" s="2"/>
       <c r="Y412" s="2"/>
       <c r="Z412" s="2"/>
+      <c r="AA412" s="2"/>
     </row>
     <row r="413">
       <c r="A413" s="2"/>
@@ -11857,6 +12289,7 @@
       <c r="X413" s="2"/>
       <c r="Y413" s="2"/>
       <c r="Z413" s="2"/>
+      <c r="AA413" s="2"/>
     </row>
     <row r="414">
       <c r="A414" s="2"/>
@@ -11885,6 +12318,7 @@
       <c r="X414" s="2"/>
       <c r="Y414" s="2"/>
       <c r="Z414" s="2"/>
+      <c r="AA414" s="2"/>
     </row>
     <row r="415">
       <c r="A415" s="2"/>
@@ -11913,6 +12347,7 @@
       <c r="X415" s="2"/>
       <c r="Y415" s="2"/>
       <c r="Z415" s="2"/>
+      <c r="AA415" s="2"/>
     </row>
     <row r="416">
       <c r="A416" s="2"/>
@@ -11941,6 +12376,7 @@
       <c r="X416" s="2"/>
       <c r="Y416" s="2"/>
       <c r="Z416" s="2"/>
+      <c r="AA416" s="2"/>
     </row>
     <row r="417">
       <c r="A417" s="2"/>
@@ -11969,6 +12405,7 @@
       <c r="X417" s="2"/>
       <c r="Y417" s="2"/>
       <c r="Z417" s="2"/>
+      <c r="AA417" s="2"/>
     </row>
     <row r="418">
       <c r="A418" s="2"/>
@@ -11997,6 +12434,7 @@
       <c r="X418" s="2"/>
       <c r="Y418" s="2"/>
       <c r="Z418" s="2"/>
+      <c r="AA418" s="2"/>
     </row>
     <row r="419">
       <c r="A419" s="2"/>
@@ -12025,6 +12463,7 @@
       <c r="X419" s="2"/>
       <c r="Y419" s="2"/>
       <c r="Z419" s="2"/>
+      <c r="AA419" s="2"/>
     </row>
     <row r="420">
       <c r="A420" s="2"/>
@@ -12053,6 +12492,7 @@
       <c r="X420" s="2"/>
       <c r="Y420" s="2"/>
       <c r="Z420" s="2"/>
+      <c r="AA420" s="2"/>
     </row>
     <row r="421">
       <c r="A421" s="2"/>
@@ -12081,6 +12521,7 @@
       <c r="X421" s="2"/>
       <c r="Y421" s="2"/>
       <c r="Z421" s="2"/>
+      <c r="AA421" s="2"/>
     </row>
     <row r="422">
       <c r="A422" s="2"/>
@@ -12109,6 +12550,7 @@
       <c r="X422" s="2"/>
       <c r="Y422" s="2"/>
       <c r="Z422" s="2"/>
+      <c r="AA422" s="2"/>
     </row>
     <row r="423">
       <c r="A423" s="2"/>
@@ -12137,6 +12579,7 @@
       <c r="X423" s="2"/>
       <c r="Y423" s="2"/>
       <c r="Z423" s="2"/>
+      <c r="AA423" s="2"/>
     </row>
     <row r="424">
       <c r="A424" s="2"/>
@@ -12165,6 +12608,7 @@
       <c r="X424" s="2"/>
       <c r="Y424" s="2"/>
       <c r="Z424" s="2"/>
+      <c r="AA424" s="2"/>
     </row>
     <row r="425">
       <c r="A425" s="2"/>
@@ -12193,6 +12637,7 @@
       <c r="X425" s="2"/>
       <c r="Y425" s="2"/>
       <c r="Z425" s="2"/>
+      <c r="AA425" s="2"/>
     </row>
     <row r="426">
       <c r="A426" s="2"/>
@@ -12221,6 +12666,7 @@
       <c r="X426" s="2"/>
       <c r="Y426" s="2"/>
       <c r="Z426" s="2"/>
+      <c r="AA426" s="2"/>
     </row>
     <row r="427">
       <c r="A427" s="2"/>
@@ -12249,6 +12695,7 @@
       <c r="X427" s="2"/>
       <c r="Y427" s="2"/>
       <c r="Z427" s="2"/>
+      <c r="AA427" s="2"/>
     </row>
     <row r="428">
       <c r="A428" s="2"/>
@@ -12277,6 +12724,7 @@
       <c r="X428" s="2"/>
       <c r="Y428" s="2"/>
       <c r="Z428" s="2"/>
+      <c r="AA428" s="2"/>
     </row>
     <row r="429">
       <c r="A429" s="2"/>
@@ -12305,6 +12753,7 @@
       <c r="X429" s="2"/>
       <c r="Y429" s="2"/>
       <c r="Z429" s="2"/>
+      <c r="AA429" s="2"/>
     </row>
     <row r="430">
       <c r="A430" s="2"/>
@@ -12333,6 +12782,7 @@
       <c r="X430" s="2"/>
       <c r="Y430" s="2"/>
       <c r="Z430" s="2"/>
+      <c r="AA430" s="2"/>
     </row>
     <row r="431">
       <c r="A431" s="2"/>
@@ -12361,6 +12811,7 @@
       <c r="X431" s="2"/>
       <c r="Y431" s="2"/>
       <c r="Z431" s="2"/>
+      <c r="AA431" s="2"/>
     </row>
     <row r="432">
       <c r="A432" s="2"/>
@@ -12389,6 +12840,7 @@
       <c r="X432" s="2"/>
       <c r="Y432" s="2"/>
       <c r="Z432" s="2"/>
+      <c r="AA432" s="2"/>
     </row>
     <row r="433">
       <c r="A433" s="2"/>
@@ -12417,6 +12869,7 @@
       <c r="X433" s="2"/>
       <c r="Y433" s="2"/>
       <c r="Z433" s="2"/>
+      <c r="AA433" s="2"/>
     </row>
     <row r="434">
       <c r="A434" s="2"/>
@@ -12445,6 +12898,7 @@
       <c r="X434" s="2"/>
       <c r="Y434" s="2"/>
       <c r="Z434" s="2"/>
+      <c r="AA434" s="2"/>
     </row>
     <row r="435">
       <c r="A435" s="2"/>
@@ -12473,6 +12927,7 @@
       <c r="X435" s="2"/>
       <c r="Y435" s="2"/>
       <c r="Z435" s="2"/>
+      <c r="AA435" s="2"/>
     </row>
     <row r="436">
       <c r="A436" s="2"/>
@@ -12501,6 +12956,7 @@
       <c r="X436" s="2"/>
       <c r="Y436" s="2"/>
       <c r="Z436" s="2"/>
+      <c r="AA436" s="2"/>
     </row>
     <row r="437">
       <c r="A437" s="2"/>
@@ -12529,6 +12985,7 @@
       <c r="X437" s="2"/>
       <c r="Y437" s="2"/>
       <c r="Z437" s="2"/>
+      <c r="AA437" s="2"/>
     </row>
     <row r="438">
       <c r="A438" s="2"/>
@@ -12557,6 +13014,7 @@
       <c r="X438" s="2"/>
       <c r="Y438" s="2"/>
       <c r="Z438" s="2"/>
+      <c r="AA438" s="2"/>
     </row>
     <row r="439">
       <c r="A439" s="2"/>
@@ -12585,6 +13043,7 @@
       <c r="X439" s="2"/>
       <c r="Y439" s="2"/>
       <c r="Z439" s="2"/>
+      <c r="AA439" s="2"/>
     </row>
     <row r="440">
       <c r="A440" s="2"/>
@@ -12613,6 +13072,7 @@
       <c r="X440" s="2"/>
       <c r="Y440" s="2"/>
       <c r="Z440" s="2"/>
+      <c r="AA440" s="2"/>
     </row>
     <row r="441">
       <c r="A441" s="2"/>
@@ -12641,6 +13101,7 @@
       <c r="X441" s="2"/>
       <c r="Y441" s="2"/>
       <c r="Z441" s="2"/>
+      <c r="AA441" s="2"/>
     </row>
     <row r="442">
       <c r="A442" s="2"/>
@@ -12669,6 +13130,7 @@
       <c r="X442" s="2"/>
       <c r="Y442" s="2"/>
       <c r="Z442" s="2"/>
+      <c r="AA442" s="2"/>
     </row>
     <row r="443">
       <c r="A443" s="2"/>
@@ -12697,6 +13159,7 @@
       <c r="X443" s="2"/>
       <c r="Y443" s="2"/>
       <c r="Z443" s="2"/>
+      <c r="AA443" s="2"/>
     </row>
     <row r="444">
       <c r="A444" s="2"/>
@@ -12725,6 +13188,7 @@
       <c r="X444" s="2"/>
       <c r="Y444" s="2"/>
       <c r="Z444" s="2"/>
+      <c r="AA444" s="2"/>
     </row>
     <row r="445">
       <c r="A445" s="2"/>
@@ -12753,6 +13217,7 @@
       <c r="X445" s="2"/>
       <c r="Y445" s="2"/>
       <c r="Z445" s="2"/>
+      <c r="AA445" s="2"/>
     </row>
     <row r="446">
       <c r="A446" s="2"/>
@@ -12781,6 +13246,7 @@
       <c r="X446" s="2"/>
       <c r="Y446" s="2"/>
       <c r="Z446" s="2"/>
+      <c r="AA446" s="2"/>
     </row>
     <row r="447">
       <c r="A447" s="2"/>
@@ -12809,6 +13275,7 @@
       <c r="X447" s="2"/>
       <c r="Y447" s="2"/>
       <c r="Z447" s="2"/>
+      <c r="AA447" s="2"/>
     </row>
     <row r="448">
       <c r="A448" s="2"/>
@@ -12837,6 +13304,7 @@
       <c r="X448" s="2"/>
       <c r="Y448" s="2"/>
       <c r="Z448" s="2"/>
+      <c r="AA448" s="2"/>
     </row>
     <row r="449">
       <c r="A449" s="2"/>
@@ -12865,6 +13333,7 @@
       <c r="X449" s="2"/>
       <c r="Y449" s="2"/>
       <c r="Z449" s="2"/>
+      <c r="AA449" s="2"/>
     </row>
     <row r="450">
       <c r="A450" s="2"/>
@@ -12893,6 +13362,7 @@
       <c r="X450" s="2"/>
       <c r="Y450" s="2"/>
       <c r="Z450" s="2"/>
+      <c r="AA450" s="2"/>
     </row>
     <row r="451">
       <c r="A451" s="2"/>
@@ -12921,6 +13391,7 @@
       <c r="X451" s="2"/>
       <c r="Y451" s="2"/>
       <c r="Z451" s="2"/>
+      <c r="AA451" s="2"/>
     </row>
     <row r="452">
       <c r="A452" s="2"/>
@@ -12949,6 +13420,7 @@
       <c r="X452" s="2"/>
       <c r="Y452" s="2"/>
       <c r="Z452" s="2"/>
+      <c r="AA452" s="2"/>
     </row>
     <row r="453">
       <c r="A453" s="2"/>
@@ -12977,6 +13449,7 @@
       <c r="X453" s="2"/>
       <c r="Y453" s="2"/>
       <c r="Z453" s="2"/>
+      <c r="AA453" s="2"/>
     </row>
     <row r="454">
       <c r="A454" s="2"/>
@@ -13005,6 +13478,7 @@
       <c r="X454" s="2"/>
       <c r="Y454" s="2"/>
       <c r="Z454" s="2"/>
+      <c r="AA454" s="2"/>
     </row>
     <row r="455">
       <c r="A455" s="2"/>
@@ -13033,6 +13507,7 @@
       <c r="X455" s="2"/>
       <c r="Y455" s="2"/>
       <c r="Z455" s="2"/>
+      <c r="AA455" s="2"/>
     </row>
     <row r="456">
       <c r="A456" s="2"/>
@@ -13061,6 +13536,7 @@
       <c r="X456" s="2"/>
       <c r="Y456" s="2"/>
       <c r="Z456" s="2"/>
+      <c r="AA456" s="2"/>
     </row>
     <row r="457">
       <c r="A457" s="2"/>
@@ -13089,6 +13565,7 @@
       <c r="X457" s="2"/>
       <c r="Y457" s="2"/>
       <c r="Z457" s="2"/>
+      <c r="AA457" s="2"/>
     </row>
     <row r="458">
       <c r="A458" s="2"/>
@@ -13117,6 +13594,7 @@
       <c r="X458" s="2"/>
       <c r="Y458" s="2"/>
       <c r="Z458" s="2"/>
+      <c r="AA458" s="2"/>
     </row>
     <row r="459">
       <c r="A459" s="2"/>
@@ -13145,6 +13623,7 @@
       <c r="X459" s="2"/>
       <c r="Y459" s="2"/>
       <c r="Z459" s="2"/>
+      <c r="AA459" s="2"/>
     </row>
     <row r="460">
       <c r="A460" s="2"/>
@@ -13173,6 +13652,7 @@
       <c r="X460" s="2"/>
       <c r="Y460" s="2"/>
       <c r="Z460" s="2"/>
+      <c r="AA460" s="2"/>
     </row>
     <row r="461">
       <c r="A461" s="2"/>
@@ -13201,6 +13681,7 @@
       <c r="X461" s="2"/>
       <c r="Y461" s="2"/>
       <c r="Z461" s="2"/>
+      <c r="AA461" s="2"/>
     </row>
     <row r="462">
       <c r="A462" s="2"/>
@@ -13229,6 +13710,7 @@
       <c r="X462" s="2"/>
       <c r="Y462" s="2"/>
       <c r="Z462" s="2"/>
+      <c r="AA462" s="2"/>
     </row>
     <row r="463">
       <c r="A463" s="2"/>
@@ -13257,6 +13739,7 @@
       <c r="X463" s="2"/>
       <c r="Y463" s="2"/>
       <c r="Z463" s="2"/>
+      <c r="AA463" s="2"/>
     </row>
     <row r="464">
       <c r="A464" s="2"/>
@@ -13285,6 +13768,7 @@
       <c r="X464" s="2"/>
       <c r="Y464" s="2"/>
       <c r="Z464" s="2"/>
+      <c r="AA464" s="2"/>
     </row>
     <row r="465">
       <c r="A465" s="2"/>
@@ -13313,6 +13797,7 @@
       <c r="X465" s="2"/>
       <c r="Y465" s="2"/>
       <c r="Z465" s="2"/>
+      <c r="AA465" s="2"/>
     </row>
     <row r="466">
       <c r="A466" s="2"/>
@@ -13341,6 +13826,7 @@
       <c r="X466" s="2"/>
       <c r="Y466" s="2"/>
       <c r="Z466" s="2"/>
+      <c r="AA466" s="2"/>
     </row>
     <row r="467">
       <c r="A467" s="2"/>
@@ -13369,6 +13855,7 @@
       <c r="X467" s="2"/>
       <c r="Y467" s="2"/>
       <c r="Z467" s="2"/>
+      <c r="AA467" s="2"/>
     </row>
     <row r="468">
       <c r="A468" s="2"/>
@@ -13397,6 +13884,7 @@
       <c r="X468" s="2"/>
       <c r="Y468" s="2"/>
       <c r="Z468" s="2"/>
+      <c r="AA468" s="2"/>
     </row>
     <row r="469">
       <c r="A469" s="2"/>
@@ -13425,6 +13913,7 @@
       <c r="X469" s="2"/>
       <c r="Y469" s="2"/>
       <c r="Z469" s="2"/>
+      <c r="AA469" s="2"/>
     </row>
     <row r="470">
       <c r="A470" s="2"/>
@@ -13453,6 +13942,7 @@
       <c r="X470" s="2"/>
       <c r="Y470" s="2"/>
       <c r="Z470" s="2"/>
+      <c r="AA470" s="2"/>
     </row>
     <row r="471">
       <c r="A471" s="2"/>
@@ -13481,6 +13971,7 @@
       <c r="X471" s="2"/>
       <c r="Y471" s="2"/>
       <c r="Z471" s="2"/>
+      <c r="AA471" s="2"/>
     </row>
     <row r="472">
       <c r="A472" s="2"/>
@@ -13509,6 +14000,7 @@
       <c r="X472" s="2"/>
       <c r="Y472" s="2"/>
       <c r="Z472" s="2"/>
+      <c r="AA472" s="2"/>
     </row>
     <row r="473">
       <c r="A473" s="2"/>
@@ -13537,6 +14029,7 @@
       <c r="X473" s="2"/>
       <c r="Y473" s="2"/>
       <c r="Z473" s="2"/>
+      <c r="AA473" s="2"/>
     </row>
     <row r="474">
       <c r="A474" s="2"/>
@@ -13565,6 +14058,7 @@
       <c r="X474" s="2"/>
       <c r="Y474" s="2"/>
       <c r="Z474" s="2"/>
+      <c r="AA474" s="2"/>
     </row>
     <row r="475">
       <c r="A475" s="2"/>
@@ -13593,6 +14087,7 @@
       <c r="X475" s="2"/>
       <c r="Y475" s="2"/>
       <c r="Z475" s="2"/>
+      <c r="AA475" s="2"/>
     </row>
     <row r="476">
       <c r="A476" s="2"/>
@@ -13621,6 +14116,7 @@
       <c r="X476" s="2"/>
       <c r="Y476" s="2"/>
       <c r="Z476" s="2"/>
+      <c r="AA476" s="2"/>
     </row>
     <row r="477">
       <c r="A477" s="2"/>
@@ -13649,6 +14145,7 @@
       <c r="X477" s="2"/>
       <c r="Y477" s="2"/>
       <c r="Z477" s="2"/>
+      <c r="AA477" s="2"/>
     </row>
     <row r="478">
       <c r="A478" s="2"/>
@@ -13677,6 +14174,7 @@
       <c r="X478" s="2"/>
       <c r="Y478" s="2"/>
       <c r="Z478" s="2"/>
+      <c r="AA478" s="2"/>
     </row>
     <row r="479">
       <c r="A479" s="2"/>
@@ -13705,6 +14203,7 @@
       <c r="X479" s="2"/>
       <c r="Y479" s="2"/>
       <c r="Z479" s="2"/>
+      <c r="AA479" s="2"/>
     </row>
     <row r="480">
       <c r="A480" s="2"/>
@@ -13733,6 +14232,7 @@
       <c r="X480" s="2"/>
       <c r="Y480" s="2"/>
       <c r="Z480" s="2"/>
+      <c r="AA480" s="2"/>
     </row>
     <row r="481">
       <c r="A481" s="2"/>
@@ -13761,6 +14261,7 @@
       <c r="X481" s="2"/>
       <c r="Y481" s="2"/>
       <c r="Z481" s="2"/>
+      <c r="AA481" s="2"/>
     </row>
     <row r="482">
       <c r="A482" s="2"/>
@@ -13789,6 +14290,7 @@
       <c r="X482" s="2"/>
       <c r="Y482" s="2"/>
       <c r="Z482" s="2"/>
+      <c r="AA482" s="2"/>
     </row>
     <row r="483">
       <c r="A483" s="2"/>
@@ -13817,6 +14319,7 @@
       <c r="X483" s="2"/>
       <c r="Y483" s="2"/>
       <c r="Z483" s="2"/>
+      <c r="AA483" s="2"/>
     </row>
     <row r="484">
       <c r="A484" s="2"/>
@@ -13845,6 +14348,7 @@
       <c r="X484" s="2"/>
       <c r="Y484" s="2"/>
       <c r="Z484" s="2"/>
+      <c r="AA484" s="2"/>
     </row>
     <row r="485">
       <c r="A485" s="2"/>
@@ -13873,6 +14377,7 @@
       <c r="X485" s="2"/>
       <c r="Y485" s="2"/>
       <c r="Z485" s="2"/>
+      <c r="AA485" s="2"/>
     </row>
     <row r="486">
       <c r="A486" s="2"/>
@@ -13901,6 +14406,7 @@
       <c r="X486" s="2"/>
       <c r="Y486" s="2"/>
       <c r="Z486" s="2"/>
+      <c r="AA486" s="2"/>
     </row>
     <row r="487">
       <c r="A487" s="2"/>
@@ -13929,6 +14435,7 @@
       <c r="X487" s="2"/>
       <c r="Y487" s="2"/>
       <c r="Z487" s="2"/>
+      <c r="AA487" s="2"/>
     </row>
     <row r="488">
       <c r="A488" s="2"/>
@@ -13957,6 +14464,7 @@
       <c r="X488" s="2"/>
       <c r="Y488" s="2"/>
       <c r="Z488" s="2"/>
+      <c r="AA488" s="2"/>
     </row>
     <row r="489">
       <c r="A489" s="2"/>
@@ -13985,6 +14493,7 @@
       <c r="X489" s="2"/>
       <c r="Y489" s="2"/>
       <c r="Z489" s="2"/>
+      <c r="AA489" s="2"/>
     </row>
     <row r="490">
       <c r="A490" s="2"/>
@@ -14013,6 +14522,7 @@
       <c r="X490" s="2"/>
       <c r="Y490" s="2"/>
       <c r="Z490" s="2"/>
+      <c r="AA490" s="2"/>
     </row>
     <row r="491">
       <c r="A491" s="2"/>
@@ -14041,6 +14551,7 @@
       <c r="X491" s="2"/>
       <c r="Y491" s="2"/>
       <c r="Z491" s="2"/>
+      <c r="AA491" s="2"/>
     </row>
     <row r="492">
       <c r="A492" s="2"/>
@@ -14069,6 +14580,7 @@
       <c r="X492" s="2"/>
       <c r="Y492" s="2"/>
       <c r="Z492" s="2"/>
+      <c r="AA492" s="2"/>
     </row>
     <row r="493">
       <c r="A493" s="2"/>
@@ -14097,6 +14609,7 @@
       <c r="X493" s="2"/>
       <c r="Y493" s="2"/>
       <c r="Z493" s="2"/>
+      <c r="AA493" s="2"/>
     </row>
     <row r="494">
       <c r="A494" s="2"/>
@@ -14125,6 +14638,7 @@
       <c r="X494" s="2"/>
       <c r="Y494" s="2"/>
       <c r="Z494" s="2"/>
+      <c r="AA494" s="2"/>
     </row>
     <row r="495">
       <c r="A495" s="2"/>
@@ -14153,6 +14667,7 @@
       <c r="X495" s="2"/>
       <c r="Y495" s="2"/>
       <c r="Z495" s="2"/>
+      <c r="AA495" s="2"/>
     </row>
     <row r="496">
       <c r="A496" s="2"/>
@@ -14181,6 +14696,7 @@
       <c r="X496" s="2"/>
       <c r="Y496" s="2"/>
       <c r="Z496" s="2"/>
+      <c r="AA496" s="2"/>
     </row>
     <row r="497">
       <c r="A497" s="2"/>
@@ -14209,6 +14725,7 @@
       <c r="X497" s="2"/>
       <c r="Y497" s="2"/>
       <c r="Z497" s="2"/>
+      <c r="AA497" s="2"/>
     </row>
     <row r="498">
       <c r="A498" s="2"/>
@@ -14237,6 +14754,7 @@
       <c r="X498" s="2"/>
       <c r="Y498" s="2"/>
       <c r="Z498" s="2"/>
+      <c r="AA498" s="2"/>
     </row>
     <row r="499">
       <c r="A499" s="2"/>
@@ -14265,6 +14783,7 @@
       <c r="X499" s="2"/>
       <c r="Y499" s="2"/>
       <c r="Z499" s="2"/>
+      <c r="AA499" s="2"/>
     </row>
     <row r="500">
       <c r="A500" s="2"/>
@@ -14293,6 +14812,7 @@
       <c r="X500" s="2"/>
       <c r="Y500" s="2"/>
       <c r="Z500" s="2"/>
+      <c r="AA500" s="2"/>
     </row>
     <row r="501">
       <c r="A501" s="2"/>
@@ -14321,6 +14841,7 @@
       <c r="X501" s="2"/>
       <c r="Y501" s="2"/>
       <c r="Z501" s="2"/>
+      <c r="AA501" s="2"/>
     </row>
     <row r="502">
       <c r="A502" s="2"/>
@@ -14349,6 +14870,7 @@
       <c r="X502" s="2"/>
       <c r="Y502" s="2"/>
       <c r="Z502" s="2"/>
+      <c r="AA502" s="2"/>
     </row>
     <row r="503">
       <c r="A503" s="2"/>
@@ -14377,6 +14899,7 @@
       <c r="X503" s="2"/>
       <c r="Y503" s="2"/>
       <c r="Z503" s="2"/>
+      <c r="AA503" s="2"/>
     </row>
     <row r="504">
       <c r="A504" s="2"/>
@@ -14405,6 +14928,7 @@
       <c r="X504" s="2"/>
       <c r="Y504" s="2"/>
       <c r="Z504" s="2"/>
+      <c r="AA504" s="2"/>
     </row>
     <row r="505">
       <c r="A505" s="2"/>
@@ -14433,6 +14957,7 @@
       <c r="X505" s="2"/>
       <c r="Y505" s="2"/>
       <c r="Z505" s="2"/>
+      <c r="AA505" s="2"/>
     </row>
     <row r="506">
       <c r="A506" s="2"/>
@@ -14461,6 +14986,7 @@
       <c r="X506" s="2"/>
       <c r="Y506" s="2"/>
       <c r="Z506" s="2"/>
+      <c r="AA506" s="2"/>
     </row>
     <row r="507">
       <c r="A507" s="2"/>
@@ -14489,6 +15015,7 @@
       <c r="X507" s="2"/>
       <c r="Y507" s="2"/>
       <c r="Z507" s="2"/>
+      <c r="AA507" s="2"/>
     </row>
     <row r="508">
       <c r="A508" s="2"/>
@@ -14517,6 +15044,7 @@
       <c r="X508" s="2"/>
       <c r="Y508" s="2"/>
       <c r="Z508" s="2"/>
+      <c r="AA508" s="2"/>
     </row>
     <row r="509">
       <c r="A509" s="2"/>
@@ -14545,6 +15073,7 @@
       <c r="X509" s="2"/>
       <c r="Y509" s="2"/>
       <c r="Z509" s="2"/>
+      <c r="AA509" s="2"/>
     </row>
     <row r="510">
       <c r="A510" s="2"/>
@@ -14573,6 +15102,7 @@
       <c r="X510" s="2"/>
       <c r="Y510" s="2"/>
       <c r="Z510" s="2"/>
+      <c r="AA510" s="2"/>
     </row>
     <row r="511">
       <c r="A511" s="2"/>
@@ -14601,6 +15131,7 @@
       <c r="X511" s="2"/>
       <c r="Y511" s="2"/>
       <c r="Z511" s="2"/>
+      <c r="AA511" s="2"/>
     </row>
     <row r="512">
       <c r="A512" s="2"/>
@@ -14629,6 +15160,7 @@
       <c r="X512" s="2"/>
       <c r="Y512" s="2"/>
       <c r="Z512" s="2"/>
+      <c r="AA512" s="2"/>
     </row>
     <row r="513">
       <c r="A513" s="2"/>
@@ -14657,6 +15189,7 @@
       <c r="X513" s="2"/>
       <c r="Y513" s="2"/>
       <c r="Z513" s="2"/>
+      <c r="AA513" s="2"/>
     </row>
     <row r="514">
       <c r="A514" s="2"/>
@@ -14685,6 +15218,7 @@
       <c r="X514" s="2"/>
       <c r="Y514" s="2"/>
       <c r="Z514" s="2"/>
+      <c r="AA514" s="2"/>
     </row>
     <row r="515">
       <c r="A515" s="2"/>
@@ -14713,6 +15247,7 @@
       <c r="X515" s="2"/>
       <c r="Y515" s="2"/>
       <c r="Z515" s="2"/>
+      <c r="AA515" s="2"/>
     </row>
     <row r="516">
       <c r="A516" s="2"/>
@@ -14741,6 +15276,7 @@
       <c r="X516" s="2"/>
       <c r="Y516" s="2"/>
       <c r="Z516" s="2"/>
+      <c r="AA516" s="2"/>
     </row>
     <row r="517">
       <c r="A517" s="2"/>
@@ -14769,6 +15305,7 @@
       <c r="X517" s="2"/>
       <c r="Y517" s="2"/>
       <c r="Z517" s="2"/>
+      <c r="AA517" s="2"/>
     </row>
     <row r="518">
       <c r="A518" s="2"/>
@@ -14797,6 +15334,7 @@
       <c r="X518" s="2"/>
       <c r="Y518" s="2"/>
       <c r="Z518" s="2"/>
+      <c r="AA518" s="2"/>
     </row>
     <row r="519">
       <c r="A519" s="2"/>
@@ -14825,6 +15363,7 @@
       <c r="X519" s="2"/>
       <c r="Y519" s="2"/>
       <c r="Z519" s="2"/>
+      <c r="AA519" s="2"/>
     </row>
     <row r="520">
       <c r="A520" s="2"/>
@@ -14853,6 +15392,7 @@
       <c r="X520" s="2"/>
       <c r="Y520" s="2"/>
       <c r="Z520" s="2"/>
+      <c r="AA520" s="2"/>
     </row>
     <row r="521">
       <c r="A521" s="2"/>
@@ -14881,6 +15421,7 @@
       <c r="X521" s="2"/>
       <c r="Y521" s="2"/>
       <c r="Z521" s="2"/>
+      <c r="AA521" s="2"/>
     </row>
     <row r="522">
       <c r="A522" s="2"/>
@@ -14909,6 +15450,7 @@
       <c r="X522" s="2"/>
       <c r="Y522" s="2"/>
       <c r="Z522" s="2"/>
+      <c r="AA522" s="2"/>
     </row>
     <row r="523">
       <c r="A523" s="2"/>
@@ -14937,6 +15479,7 @@
       <c r="X523" s="2"/>
       <c r="Y523" s="2"/>
       <c r="Z523" s="2"/>
+      <c r="AA523" s="2"/>
     </row>
     <row r="524">
       <c r="A524" s="2"/>
@@ -14965,6 +15508,7 @@
       <c r="X524" s="2"/>
       <c r="Y524" s="2"/>
       <c r="Z524" s="2"/>
+      <c r="AA524" s="2"/>
     </row>
     <row r="525">
       <c r="A525" s="2"/>
@@ -14993,6 +15537,7 @@
       <c r="X525" s="2"/>
       <c r="Y525" s="2"/>
       <c r="Z525" s="2"/>
+      <c r="AA525" s="2"/>
     </row>
     <row r="526">
       <c r="A526" s="2"/>
@@ -15021,6 +15566,7 @@
       <c r="X526" s="2"/>
       <c r="Y526" s="2"/>
       <c r="Z526" s="2"/>
+      <c r="AA526" s="2"/>
     </row>
     <row r="527">
       <c r="A527" s="2"/>
@@ -15049,6 +15595,7 @@
       <c r="X527" s="2"/>
       <c r="Y527" s="2"/>
       <c r="Z527" s="2"/>
+      <c r="AA527" s="2"/>
     </row>
     <row r="528">
       <c r="A528" s="2"/>
@@ -15077,6 +15624,7 @@
       <c r="X528" s="2"/>
       <c r="Y528" s="2"/>
       <c r="Z528" s="2"/>
+      <c r="AA528" s="2"/>
     </row>
     <row r="529">
       <c r="A529" s="2"/>
@@ -15105,6 +15653,7 @@
       <c r="X529" s="2"/>
       <c r="Y529" s="2"/>
       <c r="Z529" s="2"/>
+      <c r="AA529" s="2"/>
     </row>
     <row r="530">
       <c r="A530" s="2"/>
@@ -15133,6 +15682,7 @@
       <c r="X530" s="2"/>
       <c r="Y530" s="2"/>
       <c r="Z530" s="2"/>
+      <c r="AA530" s="2"/>
     </row>
     <row r="531">
       <c r="A531" s="2"/>
@@ -15161,6 +15711,7 @@
       <c r="X531" s="2"/>
       <c r="Y531" s="2"/>
       <c r="Z531" s="2"/>
+      <c r="AA531" s="2"/>
     </row>
     <row r="532">
       <c r="A532" s="2"/>
@@ -15189,6 +15740,7 @@
       <c r="X532" s="2"/>
       <c r="Y532" s="2"/>
       <c r="Z532" s="2"/>
+      <c r="AA532" s="2"/>
     </row>
     <row r="533">
       <c r="A533" s="2"/>
@@ -15217,6 +15769,7 @@
       <c r="X533" s="2"/>
       <c r="Y533" s="2"/>
       <c r="Z533" s="2"/>
+      <c r="AA533" s="2"/>
     </row>
     <row r="534">
       <c r="A534" s="2"/>
@@ -15245,6 +15798,7 @@
       <c r="X534" s="2"/>
       <c r="Y534" s="2"/>
       <c r="Z534" s="2"/>
+      <c r="AA534" s="2"/>
     </row>
     <row r="535">
       <c r="A535" s="2"/>
@@ -15273,6 +15827,7 @@
       <c r="X535" s="2"/>
       <c r="Y535" s="2"/>
       <c r="Z535" s="2"/>
+      <c r="AA535" s="2"/>
     </row>
     <row r="536">
       <c r="A536" s="2"/>
@@ -15301,6 +15856,7 @@
       <c r="X536" s="2"/>
       <c r="Y536" s="2"/>
       <c r="Z536" s="2"/>
+      <c r="AA536" s="2"/>
     </row>
     <row r="537">
       <c r="A537" s="2"/>
@@ -15329,6 +15885,7 @@
       <c r="X537" s="2"/>
       <c r="Y537" s="2"/>
       <c r="Z537" s="2"/>
+      <c r="AA537" s="2"/>
     </row>
     <row r="538">
       <c r="A538" s="2"/>
@@ -15357,6 +15914,7 @@
       <c r="X538" s="2"/>
       <c r="Y538" s="2"/>
       <c r="Z538" s="2"/>
+      <c r="AA538" s="2"/>
     </row>
     <row r="539">
       <c r="A539" s="2"/>
@@ -15385,6 +15943,7 @@
       <c r="X539" s="2"/>
       <c r="Y539" s="2"/>
       <c r="Z539" s="2"/>
+      <c r="AA539" s="2"/>
     </row>
     <row r="540">
       <c r="A540" s="2"/>
@@ -15413,6 +15972,7 @@
       <c r="X540" s="2"/>
       <c r="Y540" s="2"/>
       <c r="Z540" s="2"/>
+      <c r="AA540" s="2"/>
     </row>
     <row r="541">
       <c r="A541" s="2"/>
@@ -15441,6 +16001,7 @@
       <c r="X541" s="2"/>
       <c r="Y541" s="2"/>
       <c r="Z541" s="2"/>
+      <c r="AA541" s="2"/>
     </row>
     <row r="542">
       <c r="A542" s="2"/>
@@ -15469,6 +16030,7 @@
       <c r="X542" s="2"/>
       <c r="Y542" s="2"/>
       <c r="Z542" s="2"/>
+      <c r="AA542" s="2"/>
     </row>
     <row r="543">
       <c r="A543" s="2"/>
@@ -15497,6 +16059,7 @@
       <c r="X543" s="2"/>
       <c r="Y543" s="2"/>
       <c r="Z543" s="2"/>
+      <c r="AA543" s="2"/>
     </row>
     <row r="544">
       <c r="A544" s="2"/>
@@ -15525,6 +16088,7 @@
       <c r="X544" s="2"/>
       <c r="Y544" s="2"/>
       <c r="Z544" s="2"/>
+      <c r="AA544" s="2"/>
     </row>
     <row r="545">
       <c r="A545" s="2"/>
@@ -15553,6 +16117,7 @@
       <c r="X545" s="2"/>
       <c r="Y545" s="2"/>
       <c r="Z545" s="2"/>
+      <c r="AA545" s="2"/>
     </row>
     <row r="546">
       <c r="A546" s="2"/>
@@ -15581,6 +16146,7 @@
       <c r="X546" s="2"/>
       <c r="Y546" s="2"/>
       <c r="Z546" s="2"/>
+      <c r="AA546" s="2"/>
     </row>
     <row r="547">
       <c r="A547" s="2"/>
@@ -15609,6 +16175,7 @@
       <c r="X547" s="2"/>
       <c r="Y547" s="2"/>
       <c r="Z547" s="2"/>
+      <c r="AA547" s="2"/>
     </row>
     <row r="548">
       <c r="A548" s="2"/>
@@ -15637,6 +16204,7 @@
       <c r="X548" s="2"/>
       <c r="Y548" s="2"/>
       <c r="Z548" s="2"/>
+      <c r="AA548" s="2"/>
     </row>
     <row r="549">
       <c r="A549" s="2"/>
@@ -15665,6 +16233,7 @@
       <c r="X549" s="2"/>
       <c r="Y549" s="2"/>
       <c r="Z549" s="2"/>
+      <c r="AA549" s="2"/>
     </row>
     <row r="550">
       <c r="A550" s="2"/>
@@ -15693,6 +16262,7 @@
       <c r="X550" s="2"/>
       <c r="Y550" s="2"/>
       <c r="Z550" s="2"/>
+      <c r="AA550" s="2"/>
     </row>
     <row r="551">
       <c r="A551" s="2"/>
@@ -15721,6 +16291,7 @@
       <c r="X551" s="2"/>
       <c r="Y551" s="2"/>
       <c r="Z551" s="2"/>
+      <c r="AA551" s="2"/>
     </row>
     <row r="552">
       <c r="A552" s="2"/>
@@ -15749,6 +16320,7 @@
       <c r="X552" s="2"/>
       <c r="Y552" s="2"/>
       <c r="Z552" s="2"/>
+      <c r="AA552" s="2"/>
     </row>
     <row r="553">
       <c r="A553" s="2"/>
@@ -15777,6 +16349,7 @@
       <c r="X553" s="2"/>
       <c r="Y553" s="2"/>
       <c r="Z553" s="2"/>
+      <c r="AA553" s="2"/>
     </row>
     <row r="554">
       <c r="A554" s="2"/>
@@ -15805,6 +16378,7 @@
       <c r="X554" s="2"/>
       <c r="Y554" s="2"/>
       <c r="Z554" s="2"/>
+      <c r="AA554" s="2"/>
     </row>
     <row r="555">
       <c r="A555" s="2"/>
@@ -15833,6 +16407,7 @@
       <c r="X555" s="2"/>
       <c r="Y555" s="2"/>
       <c r="Z555" s="2"/>
+      <c r="AA555" s="2"/>
     </row>
     <row r="556">
       <c r="A556" s="2"/>
@@ -15861,6 +16436,7 @@
       <c r="X556" s="2"/>
       <c r="Y556" s="2"/>
       <c r="Z556" s="2"/>
+      <c r="AA556" s="2"/>
     </row>
     <row r="557">
       <c r="A557" s="2"/>
@@ -15889,6 +16465,7 @@
       <c r="X557" s="2"/>
       <c r="Y557" s="2"/>
       <c r="Z557" s="2"/>
+      <c r="AA557" s="2"/>
     </row>
     <row r="558">
       <c r="A558" s="2"/>
@@ -15917,6 +16494,7 @@
       <c r="X558" s="2"/>
       <c r="Y558" s="2"/>
       <c r="Z558" s="2"/>
+      <c r="AA558" s="2"/>
     </row>
     <row r="559">
       <c r="A559" s="2"/>
@@ -15945,6 +16523,7 @@
       <c r="X559" s="2"/>
       <c r="Y559" s="2"/>
       <c r="Z559" s="2"/>
+      <c r="AA559" s="2"/>
     </row>
     <row r="560">
       <c r="A560" s="2"/>
@@ -15973,6 +16552,7 @@
       <c r="X560" s="2"/>
       <c r="Y560" s="2"/>
       <c r="Z560" s="2"/>
+      <c r="AA560" s="2"/>
     </row>
     <row r="561">
       <c r="A561" s="2"/>
@@ -16001,6 +16581,7 @@
       <c r="X561" s="2"/>
       <c r="Y561" s="2"/>
       <c r="Z561" s="2"/>
+      <c r="AA561" s="2"/>
     </row>
     <row r="562">
       <c r="A562" s="2"/>
@@ -16029,6 +16610,7 @@
       <c r="X562" s="2"/>
       <c r="Y562" s="2"/>
       <c r="Z562" s="2"/>
+      <c r="AA562" s="2"/>
     </row>
     <row r="563">
       <c r="A563" s="2"/>
@@ -16057,6 +16639,7 @@
       <c r="X563" s="2"/>
       <c r="Y563" s="2"/>
       <c r="Z563" s="2"/>
+      <c r="AA563" s="2"/>
     </row>
     <row r="564">
       <c r="A564" s="2"/>
@@ -16085,6 +16668,7 @@
       <c r="X564" s="2"/>
       <c r="Y564" s="2"/>
       <c r="Z564" s="2"/>
+      <c r="AA564" s="2"/>
     </row>
     <row r="565">
       <c r="A565" s="2"/>
@@ -16113,6 +16697,7 @@
       <c r="X565" s="2"/>
       <c r="Y565" s="2"/>
       <c r="Z565" s="2"/>
+      <c r="AA565" s="2"/>
     </row>
     <row r="566">
       <c r="A566" s="2"/>
@@ -16141,6 +16726,7 @@
       <c r="X566" s="2"/>
       <c r="Y566" s="2"/>
       <c r="Z566" s="2"/>
+      <c r="AA566" s="2"/>
     </row>
     <row r="567">
       <c r="A567" s="2"/>
@@ -16169,6 +16755,7 @@
       <c r="X567" s="2"/>
       <c r="Y567" s="2"/>
       <c r="Z567" s="2"/>
+      <c r="AA567" s="2"/>
     </row>
     <row r="568">
       <c r="A568" s="2"/>
@@ -16197,6 +16784,7 @@
       <c r="X568" s="2"/>
       <c r="Y568" s="2"/>
       <c r="Z568" s="2"/>
+      <c r="AA568" s="2"/>
     </row>
     <row r="569">
       <c r="A569" s="2"/>
@@ -16225,6 +16813,7 @@
       <c r="X569" s="2"/>
       <c r="Y569" s="2"/>
       <c r="Z569" s="2"/>
+      <c r="AA569" s="2"/>
     </row>
     <row r="570">
       <c r="A570" s="2"/>
@@ -16253,6 +16842,7 @@
       <c r="X570" s="2"/>
       <c r="Y570" s="2"/>
       <c r="Z570" s="2"/>
+      <c r="AA570" s="2"/>
     </row>
     <row r="571">
       <c r="A571" s="2"/>
@@ -16281,6 +16871,7 @@
       <c r="X571" s="2"/>
       <c r="Y571" s="2"/>
       <c r="Z571" s="2"/>
+      <c r="AA571" s="2"/>
     </row>
     <row r="572">
       <c r="A572" s="2"/>
@@ -16309,6 +16900,7 @@
       <c r="X572" s="2"/>
       <c r="Y572" s="2"/>
       <c r="Z572" s="2"/>
+      <c r="AA572" s="2"/>
     </row>
     <row r="573">
       <c r="A573" s="2"/>
@@ -16337,6 +16929,7 @@
       <c r="X573" s="2"/>
       <c r="Y573" s="2"/>
       <c r="Z573" s="2"/>
+      <c r="AA573" s="2"/>
     </row>
     <row r="574">
       <c r="A574" s="2"/>
@@ -16365,6 +16958,7 @@
       <c r="X574" s="2"/>
       <c r="Y574" s="2"/>
       <c r="Z574" s="2"/>
+      <c r="AA574" s="2"/>
     </row>
     <row r="575">
       <c r="A575" s="2"/>
@@ -16393,6 +16987,7 @@
       <c r="X575" s="2"/>
       <c r="Y575" s="2"/>
       <c r="Z575" s="2"/>
+      <c r="AA575" s="2"/>
     </row>
     <row r="576">
       <c r="A576" s="2"/>
@@ -16421,6 +17016,7 @@
       <c r="X576" s="2"/>
       <c r="Y576" s="2"/>
       <c r="Z576" s="2"/>
+      <c r="AA576" s="2"/>
     </row>
     <row r="577">
       <c r="A577" s="2"/>
@@ -16449,6 +17045,7 @@
       <c r="X577" s="2"/>
       <c r="Y577" s="2"/>
       <c r="Z577" s="2"/>
+      <c r="AA577" s="2"/>
     </row>
     <row r="578">
       <c r="A578" s="2"/>
@@ -16477,6 +17074,7 @@
       <c r="X578" s="2"/>
       <c r="Y578" s="2"/>
       <c r="Z578" s="2"/>
+      <c r="AA578" s="2"/>
     </row>
     <row r="579">
       <c r="A579" s="2"/>
@@ -16505,6 +17103,7 @@
       <c r="X579" s="2"/>
       <c r="Y579" s="2"/>
       <c r="Z579" s="2"/>
+      <c r="AA579" s="2"/>
     </row>
     <row r="580">
       <c r="A580" s="2"/>
@@ -16533,6 +17132,7 @@
       <c r="X580" s="2"/>
       <c r="Y580" s="2"/>
       <c r="Z580" s="2"/>
+      <c r="AA580" s="2"/>
     </row>
     <row r="581">
       <c r="A581" s="2"/>
@@ -16561,6 +17161,7 @@
       <c r="X581" s="2"/>
       <c r="Y581" s="2"/>
       <c r="Z581" s="2"/>
+      <c r="AA581" s="2"/>
     </row>
     <row r="582">
       <c r="A582" s="2"/>
@@ -16589,6 +17190,7 @@
       <c r="X582" s="2"/>
       <c r="Y582" s="2"/>
       <c r="Z582" s="2"/>
+      <c r="AA582" s="2"/>
     </row>
     <row r="583">
       <c r="A583" s="2"/>
@@ -16617,6 +17219,7 @@
       <c r="X583" s="2"/>
       <c r="Y583" s="2"/>
       <c r="Z583" s="2"/>
+      <c r="AA583" s="2"/>
     </row>
     <row r="584">
       <c r="A584" s="2"/>
@@ -16645,6 +17248,7 @@
       <c r="X584" s="2"/>
       <c r="Y584" s="2"/>
       <c r="Z584" s="2"/>
+      <c r="AA584" s="2"/>
     </row>
     <row r="585">
       <c r="A585" s="2"/>
@@ -16673,6 +17277,7 @@
       <c r="X585" s="2"/>
       <c r="Y585" s="2"/>
       <c r="Z585" s="2"/>
+      <c r="AA585" s="2"/>
     </row>
     <row r="586">
       <c r="A586" s="2"/>
@@ -16701,6 +17306,7 @@
       <c r="X586" s="2"/>
       <c r="Y586" s="2"/>
       <c r="Z586" s="2"/>
+      <c r="AA586" s="2"/>
     </row>
     <row r="587">
       <c r="A587" s="2"/>
@@ -16729,6 +17335,7 @@
       <c r="X587" s="2"/>
       <c r="Y587" s="2"/>
       <c r="Z587" s="2"/>
+      <c r="AA587" s="2"/>
     </row>
     <row r="588">
       <c r="A588" s="2"/>
@@ -16757,6 +17364,7 @@
       <c r="X588" s="2"/>
       <c r="Y588" s="2"/>
       <c r="Z588" s="2"/>
+      <c r="AA588" s="2"/>
     </row>
     <row r="589">
       <c r="A589" s="2"/>
@@ -16785,6 +17393,7 @@
       <c r="X589" s="2"/>
       <c r="Y589" s="2"/>
       <c r="Z589" s="2"/>
+      <c r="AA589" s="2"/>
     </row>
     <row r="590">
       <c r="A590" s="2"/>
@@ -16813,6 +17422,7 @@
       <c r="X590" s="2"/>
       <c r="Y590" s="2"/>
       <c r="Z590" s="2"/>
+      <c r="AA590" s="2"/>
     </row>
     <row r="591">
       <c r="A591" s="2"/>
@@ -16841,6 +17451,7 @@
       <c r="X591" s="2"/>
       <c r="Y591" s="2"/>
       <c r="Z591" s="2"/>
+      <c r="AA591" s="2"/>
     </row>
     <row r="592">
       <c r="A592" s="2"/>
@@ -16869,6 +17480,7 @@
       <c r="X592" s="2"/>
       <c r="Y592" s="2"/>
       <c r="Z592" s="2"/>
+      <c r="AA592" s="2"/>
     </row>
     <row r="593">
       <c r="A593" s="2"/>
@@ -16897,6 +17509,7 @@
       <c r="X593" s="2"/>
       <c r="Y593" s="2"/>
       <c r="Z593" s="2"/>
+      <c r="AA593" s="2"/>
     </row>
     <row r="594">
       <c r="A594" s="2"/>
@@ -16925,6 +17538,7 @@
       <c r="X594" s="2"/>
       <c r="Y594" s="2"/>
       <c r="Z594" s="2"/>
+      <c r="AA594" s="2"/>
     </row>
     <row r="595">
       <c r="A595" s="2"/>
@@ -16953,6 +17567,7 @@
       <c r="X595" s="2"/>
       <c r="Y595" s="2"/>
       <c r="Z595" s="2"/>
+      <c r="AA595" s="2"/>
     </row>
     <row r="596">
       <c r="A596" s="2"/>
@@ -16981,6 +17596,7 @@
       <c r="X596" s="2"/>
       <c r="Y596" s="2"/>
       <c r="Z596" s="2"/>
+      <c r="AA596" s="2"/>
     </row>
     <row r="597">
       <c r="A597" s="2"/>
@@ -17009,6 +17625,7 @@
       <c r="X597" s="2"/>
       <c r="Y597" s="2"/>
       <c r="Z597" s="2"/>
+      <c r="AA597" s="2"/>
     </row>
     <row r="598">
       <c r="A598" s="2"/>
@@ -17037,6 +17654,7 @@
       <c r="X598" s="2"/>
       <c r="Y598" s="2"/>
       <c r="Z598" s="2"/>
+      <c r="AA598" s="2"/>
     </row>
     <row r="599">
       <c r="A599" s="2"/>
@@ -17065,6 +17683,7 @@
       <c r="X599" s="2"/>
       <c r="Y599" s="2"/>
       <c r="Z599" s="2"/>
+      <c r="AA599" s="2"/>
     </row>
     <row r="600">
       <c r="A600" s="2"/>
@@ -17093,6 +17712,7 @@
       <c r="X600" s="2"/>
       <c r="Y600" s="2"/>
       <c r="Z600" s="2"/>
+      <c r="AA600" s="2"/>
     </row>
     <row r="601">
       <c r="A601" s="2"/>
@@ -17121,6 +17741,7 @@
       <c r="X601" s="2"/>
       <c r="Y601" s="2"/>
       <c r="Z601" s="2"/>
+      <c r="AA601" s="2"/>
     </row>
     <row r="602">
       <c r="A602" s="2"/>
@@ -17149,6 +17770,7 @@
       <c r="X602" s="2"/>
       <c r="Y602" s="2"/>
       <c r="Z602" s="2"/>
+      <c r="AA602" s="2"/>
     </row>
     <row r="603">
       <c r="A603" s="2"/>
@@ -17177,6 +17799,7 @@
       <c r="X603" s="2"/>
       <c r="Y603" s="2"/>
       <c r="Z603" s="2"/>
+      <c r="AA603" s="2"/>
     </row>
     <row r="604">
       <c r="A604" s="2"/>
@@ -17205,6 +17828,7 @@
       <c r="X604" s="2"/>
       <c r="Y604" s="2"/>
       <c r="Z604" s="2"/>
+      <c r="AA604" s="2"/>
     </row>
     <row r="605">
       <c r="A605" s="2"/>
@@ -17233,6 +17857,7 @@
       <c r="X605" s="2"/>
       <c r="Y605" s="2"/>
       <c r="Z605" s="2"/>
+      <c r="AA605" s="2"/>
     </row>
     <row r="606">
       <c r="A606" s="2"/>
@@ -17261,6 +17886,7 @@
       <c r="X606" s="2"/>
       <c r="Y606" s="2"/>
       <c r="Z606" s="2"/>
+      <c r="AA606" s="2"/>
     </row>
     <row r="607">
       <c r="A607" s="2"/>
@@ -17289,6 +17915,7 @@
       <c r="X607" s="2"/>
       <c r="Y607" s="2"/>
       <c r="Z607" s="2"/>
+      <c r="AA607" s="2"/>
     </row>
     <row r="608">
       <c r="A608" s="2"/>
@@ -17317,6 +17944,7 @@
       <c r="X608" s="2"/>
       <c r="Y608" s="2"/>
       <c r="Z608" s="2"/>
+      <c r="AA608" s="2"/>
     </row>
     <row r="609">
       <c r="A609" s="2"/>
@@ -17345,6 +17973,7 @@
       <c r="X609" s="2"/>
       <c r="Y609" s="2"/>
       <c r="Z609" s="2"/>
+      <c r="AA609" s="2"/>
     </row>
     <row r="610">
       <c r="A610" s="2"/>
@@ -17373,6 +18002,7 @@
       <c r="X610" s="2"/>
       <c r="Y610" s="2"/>
       <c r="Z610" s="2"/>
+      <c r="AA610" s="2"/>
     </row>
     <row r="611">
       <c r="A611" s="2"/>
@@ -17401,6 +18031,7 @@
       <c r="X611" s="2"/>
       <c r="Y611" s="2"/>
       <c r="Z611" s="2"/>
+      <c r="AA611" s="2"/>
     </row>
     <row r="612">
       <c r="A612" s="2"/>
@@ -17429,6 +18060,7 @@
       <c r="X612" s="2"/>
       <c r="Y612" s="2"/>
       <c r="Z612" s="2"/>
+      <c r="AA612" s="2"/>
     </row>
     <row r="613">
       <c r="A613" s="2"/>
@@ -17457,6 +18089,7 @@
       <c r="X613" s="2"/>
       <c r="Y613" s="2"/>
       <c r="Z613" s="2"/>
+      <c r="AA613" s="2"/>
     </row>
     <row r="614">
       <c r="A614" s="2"/>
@@ -17485,6 +18118,7 @@
       <c r="X614" s="2"/>
       <c r="Y614" s="2"/>
       <c r="Z614" s="2"/>
+      <c r="AA614" s="2"/>
     </row>
     <row r="615">
       <c r="A615" s="2"/>
@@ -17513,6 +18147,7 @@
       <c r="X615" s="2"/>
       <c r="Y615" s="2"/>
       <c r="Z615" s="2"/>
+      <c r="AA615" s="2"/>
     </row>
     <row r="616">
       <c r="A616" s="2"/>
@@ -17541,6 +18176,7 @@
       <c r="X616" s="2"/>
       <c r="Y616" s="2"/>
       <c r="Z616" s="2"/>
+      <c r="AA616" s="2"/>
     </row>
     <row r="617">
       <c r="A617" s="2"/>
@@ -17569,6 +18205,7 @@
       <c r="X617" s="2"/>
       <c r="Y617" s="2"/>
       <c r="Z617" s="2"/>
+      <c r="AA617" s="2"/>
     </row>
     <row r="618">
       <c r="A618" s="2"/>
@@ -17597,6 +18234,7 @@
       <c r="X618" s="2"/>
       <c r="Y618" s="2"/>
       <c r="Z618" s="2"/>
+      <c r="AA618" s="2"/>
     </row>
     <row r="619">
       <c r="A619" s="2"/>
@@ -17625,6 +18263,7 @@
       <c r="X619" s="2"/>
       <c r="Y619" s="2"/>
       <c r="Z619" s="2"/>
+      <c r="AA619" s="2"/>
     </row>
     <row r="620">
       <c r="A620" s="2"/>
@@ -17653,6 +18292,7 @@
       <c r="X620" s="2"/>
       <c r="Y620" s="2"/>
       <c r="Z620" s="2"/>
+      <c r="AA620" s="2"/>
     </row>
     <row r="621">
       <c r="A621" s="2"/>
@@ -17681,6 +18321,7 @@
       <c r="X621" s="2"/>
       <c r="Y621" s="2"/>
       <c r="Z621" s="2"/>
+      <c r="AA621" s="2"/>
     </row>
     <row r="622">
       <c r="A622" s="2"/>
@@ -17709,6 +18350,7 @@
       <c r="X622" s="2"/>
       <c r="Y622" s="2"/>
       <c r="Z622" s="2"/>
+      <c r="AA622" s="2"/>
     </row>
     <row r="623">
       <c r="A623" s="2"/>
@@ -17737,6 +18379,7 @@
       <c r="X623" s="2"/>
       <c r="Y623" s="2"/>
       <c r="Z623" s="2"/>
+      <c r="AA623" s="2"/>
     </row>
     <row r="624">
       <c r="A624" s="2"/>
@@ -17765,6 +18408,7 @@
       <c r="X624" s="2"/>
       <c r="Y624" s="2"/>
       <c r="Z624" s="2"/>
+      <c r="AA624" s="2"/>
     </row>
     <row r="625">
       <c r="A625" s="2"/>
@@ -17793,6 +18437,7 @@
       <c r="X625" s="2"/>
       <c r="Y625" s="2"/>
       <c r="Z625" s="2"/>
+      <c r="AA625" s="2"/>
     </row>
     <row r="626">
       <c r="A626" s="2"/>
@@ -17821,6 +18466,7 @@
       <c r="X626" s="2"/>
       <c r="Y626" s="2"/>
       <c r="Z626" s="2"/>
+      <c r="AA626" s="2"/>
     </row>
     <row r="627">
       <c r="A627" s="2"/>
@@ -17849,6 +18495,7 @@
       <c r="X627" s="2"/>
       <c r="Y627" s="2"/>
       <c r="Z627" s="2"/>
+      <c r="AA627" s="2"/>
     </row>
     <row r="628">
       <c r="A628" s="2"/>
@@ -17877,6 +18524,7 @@
       <c r="X628" s="2"/>
       <c r="Y628" s="2"/>
       <c r="Z628" s="2"/>
+      <c r="AA628" s="2"/>
     </row>
     <row r="629">
       <c r="A629" s="2"/>
@@ -17905,6 +18553,7 @@
       <c r="X629" s="2"/>
       <c r="Y629" s="2"/>
       <c r="Z629" s="2"/>
+      <c r="AA629" s="2"/>
     </row>
     <row r="630">
       <c r="A630" s="2"/>
@@ -17933,6 +18582,7 @@
       <c r="X630" s="2"/>
       <c r="Y630" s="2"/>
       <c r="Z630" s="2"/>
+      <c r="AA630" s="2"/>
     </row>
     <row r="631">
       <c r="A631" s="2"/>
@@ -17961,6 +18611,7 @@
       <c r="X631" s="2"/>
       <c r="Y631" s="2"/>
       <c r="Z631" s="2"/>
+      <c r="AA631" s="2"/>
     </row>
     <row r="632">
       <c r="A632" s="2"/>
@@ -17989,6 +18640,7 @@
       <c r="X632" s="2"/>
       <c r="Y632" s="2"/>
       <c r="Z632" s="2"/>
+      <c r="AA632" s="2"/>
     </row>
     <row r="633">
       <c r="A633" s="2"/>
@@ -18017,6 +18669,7 @@
       <c r="X633" s="2"/>
       <c r="Y633" s="2"/>
       <c r="Z633" s="2"/>
+      <c r="AA633" s="2"/>
     </row>
     <row r="634">
       <c r="A634" s="2"/>
@@ -18045,6 +18698,7 @@
       <c r="X634" s="2"/>
       <c r="Y634" s="2"/>
       <c r="Z634" s="2"/>
+      <c r="AA634" s="2"/>
     </row>
     <row r="635">
       <c r="A635" s="2"/>
@@ -18073,6 +18727,7 @@
       <c r="X635" s="2"/>
       <c r="Y635" s="2"/>
       <c r="Z635" s="2"/>
+      <c r="AA635" s="2"/>
     </row>
     <row r="636">
       <c r="A636" s="2"/>
@@ -18101,6 +18756,7 @@
       <c r="X636" s="2"/>
       <c r="Y636" s="2"/>
       <c r="Z636" s="2"/>
+      <c r="AA636" s="2"/>
     </row>
     <row r="637">
       <c r="A637" s="2"/>
@@ -18129,6 +18785,7 @@
       <c r="X637" s="2"/>
       <c r="Y637" s="2"/>
       <c r="Z637" s="2"/>
+      <c r="AA637" s="2"/>
     </row>
     <row r="638">
       <c r="A638" s="2"/>
@@ -18157,6 +18814,7 @@
       <c r="X638" s="2"/>
       <c r="Y638" s="2"/>
       <c r="Z638" s="2"/>
+      <c r="AA638" s="2"/>
     </row>
     <row r="639">
       <c r="A639" s="2"/>
@@ -18185,6 +18843,7 @@
       <c r="X639" s="2"/>
       <c r="Y639" s="2"/>
       <c r="Z639" s="2"/>
+      <c r="AA639" s="2"/>
     </row>
     <row r="640">
       <c r="A640" s="2"/>
@@ -18213,6 +18872,7 @@
       <c r="X640" s="2"/>
       <c r="Y640" s="2"/>
       <c r="Z640" s="2"/>
+      <c r="AA640" s="2"/>
     </row>
     <row r="641">
       <c r="A641" s="2"/>
@@ -18241,6 +18901,7 @@
       <c r="X641" s="2"/>
       <c r="Y641" s="2"/>
       <c r="Z641" s="2"/>
+      <c r="AA641" s="2"/>
     </row>
     <row r="642">
       <c r="A642" s="2"/>
@@ -18269,6 +18930,7 @@
       <c r="X642" s="2"/>
       <c r="Y642" s="2"/>
       <c r="Z642" s="2"/>
+      <c r="AA642" s="2"/>
     </row>
     <row r="643">
       <c r="A643" s="2"/>
@@ -18297,6 +18959,7 @@
       <c r="X643" s="2"/>
       <c r="Y643" s="2"/>
       <c r="Z643" s="2"/>
+      <c r="AA643" s="2"/>
     </row>
     <row r="644">
       <c r="A644" s="2"/>
@@ -18325,6 +18988,7 @@
       <c r="X644" s="2"/>
       <c r="Y644" s="2"/>
       <c r="Z644" s="2"/>
+      <c r="AA644" s="2"/>
     </row>
     <row r="645">
       <c r="A645" s="2"/>
@@ -18353,6 +19017,7 @@
       <c r="X645" s="2"/>
       <c r="Y645" s="2"/>
       <c r="Z645" s="2"/>
+      <c r="AA645" s="2"/>
     </row>
     <row r="646">
       <c r="A646" s="2"/>
@@ -18381,6 +19046,7 @@
       <c r="X646" s="2"/>
       <c r="Y646" s="2"/>
       <c r="Z646" s="2"/>
+      <c r="AA646" s="2"/>
     </row>
     <row r="647">
       <c r="A647" s="2"/>
@@ -18409,6 +19075,7 @@
       <c r="X647" s="2"/>
       <c r="Y647" s="2"/>
       <c r="Z647" s="2"/>
+      <c r="AA647" s="2"/>
     </row>
     <row r="648">
       <c r="A648" s="2"/>
@@ -18437,6 +19104,7 @@
       <c r="X648" s="2"/>
       <c r="Y648" s="2"/>
       <c r="Z648" s="2"/>
+      <c r="AA648" s="2"/>
     </row>
     <row r="649">
       <c r="A649" s="2"/>
@@ -18465,6 +19133,7 @@
       <c r="X649" s="2"/>
       <c r="Y649" s="2"/>
       <c r="Z649" s="2"/>
+      <c r="AA649" s="2"/>
     </row>
     <row r="650">
       <c r="A650" s="2"/>
@@ -18493,6 +19162,7 @@
       <c r="X650" s="2"/>
       <c r="Y650" s="2"/>
       <c r="Z650" s="2"/>
+      <c r="AA650" s="2"/>
     </row>
     <row r="651">
       <c r="A651" s="2"/>
@@ -18521,6 +19191,7 @@
       <c r="X651" s="2"/>
       <c r="Y651" s="2"/>
       <c r="Z651" s="2"/>
+      <c r="AA651" s="2"/>
     </row>
     <row r="652">
       <c r="A652" s="2"/>
@@ -18549,6 +19220,7 @@
       <c r="X652" s="2"/>
       <c r="Y652" s="2"/>
       <c r="Z652" s="2"/>
+      <c r="AA652" s="2"/>
     </row>
     <row r="653">
       <c r="A653" s="2"/>
@@ -18577,6 +19249,7 @@
       <c r="X653" s="2"/>
       <c r="Y653" s="2"/>
       <c r="Z653" s="2"/>
+      <c r="AA653" s="2"/>
     </row>
     <row r="654">
       <c r="A654" s="2"/>
@@ -18605,6 +19278,7 @@
       <c r="X654" s="2"/>
       <c r="Y654" s="2"/>
       <c r="Z654" s="2"/>
+      <c r="AA654" s="2"/>
     </row>
     <row r="655">
       <c r="A655" s="2"/>
@@ -18633,6 +19307,7 @@
       <c r="X655" s="2"/>
       <c r="Y655" s="2"/>
       <c r="Z655" s="2"/>
+      <c r="AA655" s="2"/>
     </row>
     <row r="656">
       <c r="A656" s="2"/>
@@ -18661,6 +19336,7 @@
       <c r="X656" s="2"/>
       <c r="Y656" s="2"/>
       <c r="Z656" s="2"/>
+      <c r="AA656" s="2"/>
     </row>
     <row r="657">
       <c r="A657" s="2"/>
@@ -18689,6 +19365,7 @@
       <c r="X657" s="2"/>
       <c r="Y657" s="2"/>
       <c r="Z657" s="2"/>
+      <c r="AA657" s="2"/>
     </row>
     <row r="658">
       <c r="A658" s="2"/>
@@ -18717,6 +19394,7 @@
       <c r="X658" s="2"/>
       <c r="Y658" s="2"/>
       <c r="Z658" s="2"/>
+      <c r="AA658" s="2"/>
     </row>
     <row r="659">
       <c r="A659" s="2"/>
@@ -18745,6 +19423,7 @@
       <c r="X659" s="2"/>
       <c r="Y659" s="2"/>
       <c r="Z659" s="2"/>
+      <c r="AA659" s="2"/>
     </row>
     <row r="660">
       <c r="A660" s="2"/>
@@ -18773,6 +19452,7 @@
       <c r="X660" s="2"/>
       <c r="Y660" s="2"/>
       <c r="Z660" s="2"/>
+      <c r="AA660" s="2"/>
     </row>
     <row r="661">
       <c r="A661" s="2"/>
@@ -18801,6 +19481,7 @@
       <c r="X661" s="2"/>
       <c r="Y661" s="2"/>
       <c r="Z661" s="2"/>
+      <c r="AA661" s="2"/>
     </row>
     <row r="662">
       <c r="A662" s="2"/>
@@ -18829,6 +19510,7 @@
       <c r="X662" s="2"/>
       <c r="Y662" s="2"/>
       <c r="Z662" s="2"/>
+      <c r="AA662" s="2"/>
     </row>
     <row r="663">
       <c r="A663" s="2"/>
@@ -18857,6 +19539,7 @@
       <c r="X663" s="2"/>
       <c r="Y663" s="2"/>
       <c r="Z663" s="2"/>
+      <c r="AA663" s="2"/>
     </row>
     <row r="664">
       <c r="A664" s="2"/>
@@ -18885,6 +19568,7 @@
       <c r="X664" s="2"/>
       <c r="Y664" s="2"/>
       <c r="Z664" s="2"/>
+      <c r="AA664" s="2"/>
     </row>
     <row r="665">
       <c r="A665" s="2"/>
@@ -18913,6 +19597,7 @@
       <c r="X665" s="2"/>
       <c r="Y665" s="2"/>
       <c r="Z665" s="2"/>
+      <c r="AA665" s="2"/>
     </row>
     <row r="666">
       <c r="A666" s="2"/>
@@ -18941,6 +19626,7 @@
       <c r="X666" s="2"/>
       <c r="Y666" s="2"/>
       <c r="Z666" s="2"/>
+      <c r="AA666" s="2"/>
     </row>
     <row r="667">
       <c r="A667" s="2"/>
@@ -18969,6 +19655,7 @@
       <c r="X667" s="2"/>
       <c r="Y667" s="2"/>
       <c r="Z667" s="2"/>
+      <c r="AA667" s="2"/>
     </row>
     <row r="668">
       <c r="A668" s="2"/>
@@ -18997,6 +19684,7 @@
       <c r="X668" s="2"/>
       <c r="Y668" s="2"/>
       <c r="Z668" s="2"/>
+      <c r="AA668" s="2"/>
     </row>
     <row r="669">
       <c r="A669" s="2"/>
@@ -19025,6 +19713,7 @@
       <c r="X669" s="2"/>
       <c r="Y669" s="2"/>
       <c r="Z669" s="2"/>
+      <c r="AA669" s="2"/>
     </row>
     <row r="670">
       <c r="A670" s="2"/>
@@ -19053,6 +19742,7 @@
       <c r="X670" s="2"/>
       <c r="Y670" s="2"/>
       <c r="Z670" s="2"/>
+      <c r="AA670" s="2"/>
     </row>
     <row r="671">
       <c r="A671" s="2"/>
@@ -19081,6 +19771,7 @@
       <c r="X671" s="2"/>
       <c r="Y671" s="2"/>
       <c r="Z671" s="2"/>
+      <c r="AA671" s="2"/>
     </row>
     <row r="672">
       <c r="A672" s="2"/>
@@ -19109,6 +19800,7 @@
       <c r="X672" s="2"/>
       <c r="Y672" s="2"/>
       <c r="Z672" s="2"/>
+      <c r="AA672" s="2"/>
     </row>
     <row r="673">
       <c r="A673" s="2"/>
@@ -19137,6 +19829,7 @@
       <c r="X673" s="2"/>
       <c r="Y673" s="2"/>
       <c r="Z673" s="2"/>
+      <c r="AA673" s="2"/>
     </row>
     <row r="674">
       <c r="A674" s="2"/>
@@ -19165,6 +19858,7 @@
       <c r="X674" s="2"/>
       <c r="Y674" s="2"/>
       <c r="Z674" s="2"/>
+      <c r="AA674" s="2"/>
     </row>
     <row r="675">
       <c r="A675" s="2"/>
@@ -19193,6 +19887,7 @@
       <c r="X675" s="2"/>
       <c r="Y675" s="2"/>
       <c r="Z675" s="2"/>
+      <c r="AA675" s="2"/>
     </row>
     <row r="676">
       <c r="A676" s="2"/>
@@ -19221,6 +19916,7 @@
       <c r="X676" s="2"/>
       <c r="Y676" s="2"/>
       <c r="Z676" s="2"/>
+      <c r="AA676" s="2"/>
     </row>
     <row r="677">
       <c r="A677" s="2"/>
@@ -19249,6 +19945,7 @@
       <c r="X677" s="2"/>
       <c r="Y677" s="2"/>
       <c r="Z677" s="2"/>
+      <c r="AA677" s="2"/>
     </row>
     <row r="678">
       <c r="A678" s="2"/>
@@ -19277,6 +19974,7 @@
       <c r="X678" s="2"/>
       <c r="Y678" s="2"/>
       <c r="Z678" s="2"/>
+      <c r="AA678" s="2"/>
     </row>
     <row r="679">
       <c r="A679" s="2"/>
@@ -19305,6 +20003,7 @@
       <c r="X679" s="2"/>
       <c r="Y679" s="2"/>
       <c r="Z679" s="2"/>
+      <c r="AA679" s="2"/>
     </row>
     <row r="680">
       <c r="A680" s="2"/>
@@ -19333,6 +20032,7 @@
       <c r="X680" s="2"/>
       <c r="Y680" s="2"/>
       <c r="Z680" s="2"/>
+      <c r="AA680" s="2"/>
     </row>
     <row r="681">
       <c r="A681" s="2"/>
@@ -19361,6 +20061,7 @@
       <c r="X681" s="2"/>
       <c r="Y681" s="2"/>
       <c r="Z681" s="2"/>
+      <c r="AA681" s="2"/>
     </row>
     <row r="682">
       <c r="A682" s="2"/>
@@ -19389,6 +20090,7 @@
       <c r="X682" s="2"/>
       <c r="Y682" s="2"/>
       <c r="Z682" s="2"/>
+      <c r="AA682" s="2"/>
     </row>
     <row r="683">
       <c r="A683" s="2"/>
@@ -19417,6 +20119,7 @@
       <c r="X683" s="2"/>
       <c r="Y683" s="2"/>
       <c r="Z683" s="2"/>
+      <c r="AA683" s="2"/>
     </row>
     <row r="684">
       <c r="A684" s="2"/>
@@ -19445,6 +20148,7 @@
       <c r="X684" s="2"/>
       <c r="Y684" s="2"/>
       <c r="Z684" s="2"/>
+      <c r="AA684" s="2"/>
     </row>
     <row r="685">
       <c r="A685" s="2"/>
@@ -19473,6 +20177,7 @@
       <c r="X685" s="2"/>
       <c r="Y685" s="2"/>
       <c r="Z685" s="2"/>
+      <c r="AA685" s="2"/>
     </row>
     <row r="686">
       <c r="A686" s="2"/>
@@ -19501,6 +20206,7 @@
       <c r="X686" s="2"/>
       <c r="Y686" s="2"/>
       <c r="Z686" s="2"/>
+      <c r="AA686" s="2"/>
     </row>
     <row r="687">
       <c r="A687" s="2"/>
@@ -19529,6 +20235,7 @@
       <c r="X687" s="2"/>
       <c r="Y687" s="2"/>
       <c r="Z687" s="2"/>
+      <c r="AA687" s="2"/>
     </row>
     <row r="688">
       <c r="A688" s="2"/>
@@ -19557,6 +20264,7 @@
       <c r="X688" s="2"/>
       <c r="Y688" s="2"/>
       <c r="Z688" s="2"/>
+      <c r="AA688" s="2"/>
     </row>
     <row r="689">
       <c r="A689" s="2"/>
@@ -19585,6 +20293,7 @@
       <c r="X689" s="2"/>
       <c r="Y689" s="2"/>
       <c r="Z689" s="2"/>
+      <c r="AA689" s="2"/>
     </row>
     <row r="690">
       <c r="A690" s="2"/>
@@ -19613,6 +20322,7 @@
       <c r="X690" s="2"/>
       <c r="Y690" s="2"/>
       <c r="Z690" s="2"/>
+      <c r="AA690" s="2"/>
     </row>
     <row r="691">
       <c r="A691" s="2"/>
@@ -19641,6 +20351,7 @@
       <c r="X691" s="2"/>
       <c r="Y691" s="2"/>
       <c r="Z691" s="2"/>
+      <c r="AA691" s="2"/>
     </row>
     <row r="692">
       <c r="A692" s="2"/>
@@ -19669,6 +20380,7 @@
       <c r="X692" s="2"/>
       <c r="Y692" s="2"/>
       <c r="Z692" s="2"/>
+      <c r="AA692" s="2"/>
     </row>
     <row r="693">
       <c r="A693" s="2"/>
@@ -19697,6 +20409,7 @@
       <c r="X693" s="2"/>
       <c r="Y693" s="2"/>
       <c r="Z693" s="2"/>
+      <c r="AA693" s="2"/>
     </row>
     <row r="694">
       <c r="A694" s="2"/>
@@ -19725,6 +20438,7 @@
       <c r="X694" s="2"/>
       <c r="Y694" s="2"/>
       <c r="Z694" s="2"/>
+      <c r="AA694" s="2"/>
     </row>
     <row r="695">
       <c r="A695" s="2"/>
@@ -19753,6 +20467,7 @@
       <c r="X695" s="2"/>
       <c r="Y695" s="2"/>
       <c r="Z695" s="2"/>
+      <c r="AA695" s="2"/>
     </row>
     <row r="696">
       <c r="A696" s="2"/>
@@ -19781,6 +20496,7 @@
       <c r="X696" s="2"/>
       <c r="Y696" s="2"/>
       <c r="Z696" s="2"/>
+      <c r="AA696" s="2"/>
     </row>
     <row r="697">
       <c r="A697" s="2"/>
@@ -19809,6 +20525,7 @@
       <c r="X697" s="2"/>
       <c r="Y697" s="2"/>
       <c r="Z697" s="2"/>
+      <c r="AA697" s="2"/>
     </row>
     <row r="698">
       <c r="A698" s="2"/>
@@ -19837,6 +20554,7 @@
       <c r="X698" s="2"/>
       <c r="Y698" s="2"/>
       <c r="Z698" s="2"/>
+      <c r="AA698" s="2"/>
     </row>
     <row r="699">
       <c r="A699" s="2"/>
@@ -19865,6 +20583,7 @@
       <c r="X699" s="2"/>
       <c r="Y699" s="2"/>
       <c r="Z699" s="2"/>
+      <c r="AA699" s="2"/>
     </row>
     <row r="700">
       <c r="A700" s="2"/>
@@ -19893,6 +20612,7 @@
       <c r="X700" s="2"/>
       <c r="Y700" s="2"/>
       <c r="Z700" s="2"/>
+      <c r="AA700" s="2"/>
     </row>
     <row r="701">
       <c r="A701" s="2"/>
@@ -19921,6 +20641,7 @@
       <c r="X701" s="2"/>
       <c r="Y701" s="2"/>
       <c r="Z701" s="2"/>
+      <c r="AA701" s="2"/>
     </row>
     <row r="702">
       <c r="A702" s="2"/>
@@ -19949,6 +20670,7 @@
       <c r="X702" s="2"/>
       <c r="Y702" s="2"/>
       <c r="Z702" s="2"/>
+      <c r="AA702" s="2"/>
     </row>
     <row r="703">
       <c r="A703" s="2"/>
@@ -19977,6 +20699,7 @@
       <c r="X703" s="2"/>
       <c r="Y703" s="2"/>
       <c r="Z703" s="2"/>
+      <c r="AA703" s="2"/>
     </row>
     <row r="704">
       <c r="A704" s="2"/>
@@ -20005,6 +20728,7 @@
       <c r="X704" s="2"/>
       <c r="Y704" s="2"/>
       <c r="Z704" s="2"/>
+      <c r="AA704" s="2"/>
     </row>
     <row r="705">
       <c r="A705" s="2"/>
@@ -20033,6 +20757,7 @@
       <c r="X705" s="2"/>
       <c r="Y705" s="2"/>
       <c r="Z705" s="2"/>
+      <c r="AA705" s="2"/>
     </row>
     <row r="706">
       <c r="A706" s="2"/>
@@ -20061,6 +20786,7 @@
       <c r="X706" s="2"/>
       <c r="Y706" s="2"/>
       <c r="Z706" s="2"/>
+      <c r="AA706" s="2"/>
     </row>
     <row r="707">
       <c r="A707" s="2"/>
@@ -20089,6 +20815,7 @@
       <c r="X707" s="2"/>
       <c r="Y707" s="2"/>
       <c r="Z707" s="2"/>
+      <c r="AA707" s="2"/>
     </row>
     <row r="708">
       <c r="A708" s="2"/>
@@ -20117,6 +20844,7 @@
       <c r="X708" s="2"/>
       <c r="Y708" s="2"/>
       <c r="Z708" s="2"/>
+      <c r="AA708" s="2"/>
     </row>
     <row r="709">
       <c r="A709" s="2"/>
@@ -20145,6 +20873,7 @@
       <c r="X709" s="2"/>
       <c r="Y709" s="2"/>
       <c r="Z709" s="2"/>
+      <c r="AA709" s="2"/>
     </row>
     <row r="710">
       <c r="A710" s="2"/>
@@ -20173,6 +20902,7 @@
       <c r="X710" s="2"/>
       <c r="Y710" s="2"/>
       <c r="Z710" s="2"/>
+      <c r="AA710" s="2"/>
     </row>
     <row r="711">
       <c r="A711" s="2"/>
@@ -20201,6 +20931,7 @@
       <c r="X711" s="2"/>
       <c r="Y711" s="2"/>
       <c r="Z711" s="2"/>
+      <c r="AA711" s="2"/>
     </row>
     <row r="712">
       <c r="A712" s="2"/>
@@ -20229,6 +20960,7 @@
       <c r="X712" s="2"/>
       <c r="Y712" s="2"/>
       <c r="Z712" s="2"/>
+      <c r="AA712" s="2"/>
     </row>
     <row r="713">
       <c r="A713" s="2"/>
@@ -20257,6 +20989,7 @@
       <c r="X713" s="2"/>
       <c r="Y713" s="2"/>
       <c r="Z713" s="2"/>
+      <c r="AA713" s="2"/>
     </row>
     <row r="714">
       <c r="A714" s="2"/>
@@ -20285,6 +21018,7 @@
       <c r="X714" s="2"/>
       <c r="Y714" s="2"/>
       <c r="Z714" s="2"/>
+      <c r="AA714" s="2"/>
     </row>
     <row r="715">
       <c r="A715" s="2"/>
@@ -20313,6 +21047,7 @@
       <c r="X715" s="2"/>
       <c r="Y715" s="2"/>
       <c r="Z715" s="2"/>
+      <c r="AA715" s="2"/>
     </row>
     <row r="716">
       <c r="A716" s="2"/>
@@ -20341,6 +21076,7 @@
       <c r="X716" s="2"/>
       <c r="Y716" s="2"/>
       <c r="Z716" s="2"/>
+      <c r="AA716" s="2"/>
     </row>
     <row r="717">
       <c r="A717" s="2"/>
@@ -20369,6 +21105,7 @@
       <c r="X717" s="2"/>
       <c r="Y717" s="2"/>
       <c r="Z717" s="2"/>
+      <c r="AA717" s="2"/>
     </row>
     <row r="718">
       <c r="A718" s="2"/>
@@ -20397,6 +21134,7 @@
       <c r="X718" s="2"/>
       <c r="Y718" s="2"/>
       <c r="Z718" s="2"/>
+      <c r="AA718" s="2"/>
     </row>
     <row r="719">
       <c r="A719" s="2"/>
@@ -20425,6 +21163,7 @@
       <c r="X719" s="2"/>
       <c r="Y719" s="2"/>
       <c r="Z719" s="2"/>
+      <c r="AA719" s="2"/>
     </row>
     <row r="720">
       <c r="A720" s="2"/>
@@ -20453,6 +21192,7 @@
       <c r="X720" s="2"/>
       <c r="Y720" s="2"/>
       <c r="Z720" s="2"/>
+      <c r="AA720" s="2"/>
     </row>
     <row r="721">
       <c r="A721" s="2"/>
@@ -20481,6 +21221,7 @@
       <c r="X721" s="2"/>
       <c r="Y721" s="2"/>
       <c r="Z721" s="2"/>
+      <c r="AA721" s="2"/>
     </row>
     <row r="722">
       <c r="A722" s="2"/>
@@ -20509,6 +21250,7 @@
       <c r="X722" s="2"/>
       <c r="Y722" s="2"/>
       <c r="Z722" s="2"/>
+      <c r="AA722" s="2"/>
     </row>
     <row r="723">
       <c r="A723" s="2"/>
@@ -20537,6 +21279,7 @@
       <c r="X723" s="2"/>
       <c r="Y723" s="2"/>
       <c r="Z723" s="2"/>
+      <c r="AA723" s="2"/>
     </row>
     <row r="724">
       <c r="A724" s="2"/>
@@ -20565,6 +21308,7 @@
       <c r="X724" s="2"/>
       <c r="Y724" s="2"/>
       <c r="Z724" s="2"/>
+      <c r="AA724" s="2"/>
     </row>
     <row r="725">
       <c r="A725" s="2"/>
@@ -20593,6 +21337,7 @@
       <c r="X725" s="2"/>
       <c r="Y725" s="2"/>
       <c r="Z725" s="2"/>
+      <c r="AA725" s="2"/>
     </row>
     <row r="726">
       <c r="A726" s="2"/>
@@ -20621,6 +21366,7 @@
       <c r="X726" s="2"/>
       <c r="Y726" s="2"/>
       <c r="Z726" s="2"/>
+      <c r="AA726" s="2"/>
     </row>
     <row r="727">
       <c r="A727" s="2"/>
@@ -20649,6 +21395,7 @@
       <c r="X727" s="2"/>
       <c r="Y727" s="2"/>
       <c r="Z727" s="2"/>
+      <c r="AA727" s="2"/>
     </row>
     <row r="728">
       <c r="A728" s="2"/>
@@ -20677,6 +21424,7 @@
       <c r="X728" s="2"/>
       <c r="Y728" s="2"/>
       <c r="Z728" s="2"/>
+      <c r="AA728" s="2"/>
     </row>
     <row r="729">
       <c r="A729" s="2"/>
@@ -20705,6 +21453,7 @@
       <c r="X729" s="2"/>
       <c r="Y729" s="2"/>
       <c r="Z729" s="2"/>
+      <c r="AA729" s="2"/>
     </row>
     <row r="730">
       <c r="A730" s="2"/>
@@ -20733,6 +21482,7 @@
       <c r="X730" s="2"/>
       <c r="Y730" s="2"/>
       <c r="Z730" s="2"/>
+      <c r="AA730" s="2"/>
     </row>
     <row r="731">
       <c r="A731" s="2"/>
@@ -20761,6 +21511,7 @@
       <c r="X731" s="2"/>
       <c r="Y731" s="2"/>
       <c r="Z731" s="2"/>
+      <c r="AA731" s="2"/>
     </row>
     <row r="732">
       <c r="A732" s="2"/>
@@ -20789,6 +21540,7 @@
       <c r="X732" s="2"/>
       <c r="Y732" s="2"/>
       <c r="Z732" s="2"/>
+      <c r="AA732" s="2"/>
     </row>
     <row r="733">
       <c r="A733" s="2"/>
@@ -20817,6 +21569,7 @@
       <c r="X733" s="2"/>
       <c r="Y733" s="2"/>
       <c r="Z733" s="2"/>
+      <c r="AA733" s="2"/>
     </row>
     <row r="734">
       <c r="A734" s="2"/>
@@ -20845,6 +21598,7 @@
       <c r="X734" s="2"/>
       <c r="Y734" s="2"/>
       <c r="Z734" s="2"/>
+      <c r="AA734" s="2"/>
     </row>
     <row r="735">
       <c r="A735" s="2"/>
@@ -20873,6 +21627,7 @@
       <c r="X735" s="2"/>
       <c r="Y735" s="2"/>
       <c r="Z735" s="2"/>
+      <c r="AA735" s="2"/>
     </row>
     <row r="736">
       <c r="A736" s="2"/>
@@ -20901,6 +21656,7 @@
       <c r="X736" s="2"/>
       <c r="Y736" s="2"/>
       <c r="Z736" s="2"/>
+      <c r="AA736" s="2"/>
     </row>
     <row r="737">
       <c r="A737" s="2"/>
@@ -20929,6 +21685,7 @@
       <c r="X737" s="2"/>
       <c r="Y737" s="2"/>
       <c r="Z737" s="2"/>
+      <c r="AA737" s="2"/>
     </row>
     <row r="738">
       <c r="A738" s="2"/>
@@ -20957,6 +21714,7 @@
       <c r="X738" s="2"/>
       <c r="Y738" s="2"/>
       <c r="Z738" s="2"/>
+      <c r="AA738" s="2"/>
     </row>
     <row r="739">
       <c r="A739" s="2"/>
@@ -20985,6 +21743,7 @@
       <c r="X739" s="2"/>
       <c r="Y739" s="2"/>
       <c r="Z739" s="2"/>
+      <c r="AA739" s="2"/>
     </row>
     <row r="740">
       <c r="A740" s="2"/>
@@ -21013,6 +21772,7 @@
       <c r="X740" s="2"/>
       <c r="Y740" s="2"/>
       <c r="Z740" s="2"/>
+      <c r="AA740" s="2"/>
     </row>
     <row r="741">
       <c r="A741" s="2"/>
@@ -21041,6 +21801,7 @@
       <c r="X741" s="2"/>
       <c r="Y741" s="2"/>
       <c r="Z741" s="2"/>
+      <c r="AA741" s="2"/>
     </row>
     <row r="742">
       <c r="A742" s="2"/>
@@ -21069,6 +21830,7 @@
       <c r="X742" s="2"/>
       <c r="Y742" s="2"/>
       <c r="Z742" s="2"/>
+      <c r="AA742" s="2"/>
     </row>
     <row r="743">
       <c r="A743" s="2"/>
@@ -21097,6 +21859,7 @@
       <c r="X743" s="2"/>
       <c r="Y743" s="2"/>
       <c r="Z743" s="2"/>
+      <c r="AA743" s="2"/>
     </row>
     <row r="744">
       <c r="A744" s="2"/>
@@ -21125,6 +21888,7 @@
       <c r="X744" s="2"/>
       <c r="Y744" s="2"/>
       <c r="Z744" s="2"/>
+      <c r="AA744" s="2"/>
     </row>
     <row r="745">
       <c r="A745" s="2"/>
@@ -21153,6 +21917,7 @@
       <c r="X745" s="2"/>
       <c r="Y745" s="2"/>
       <c r="Z745" s="2"/>
+      <c r="AA745" s="2"/>
     </row>
     <row r="746">
       <c r="A746" s="2"/>
@@ -21181,6 +21946,7 @@
       <c r="X746" s="2"/>
       <c r="Y746" s="2"/>
       <c r="Z746" s="2"/>
+      <c r="AA746" s="2"/>
     </row>
     <row r="747">
       <c r="A747" s="2"/>
@@ -21209,6 +21975,7 @@
       <c r="X747" s="2"/>
       <c r="Y747" s="2"/>
       <c r="Z747" s="2"/>
+      <c r="AA747" s="2"/>
     </row>
     <row r="748">
       <c r="A748" s="2"/>
@@ -21237,6 +22004,7 @@
       <c r="X748" s="2"/>
       <c r="Y748" s="2"/>
       <c r="Z748" s="2"/>
+      <c r="AA748" s="2"/>
     </row>
     <row r="749">
       <c r="A749" s="2"/>
@@ -21265,6 +22033,7 @@
       <c r="X749" s="2"/>
       <c r="Y749" s="2"/>
       <c r="Z749" s="2"/>
+      <c r="AA749" s="2"/>
     </row>
     <row r="750">
       <c r="A750" s="2"/>
@@ -21293,6 +22062,7 @@
       <c r="X750" s="2"/>
       <c r="Y750" s="2"/>
       <c r="Z750" s="2"/>
+      <c r="AA750" s="2"/>
     </row>
     <row r="751">
       <c r="A751" s="2"/>
@@ -21321,6 +22091,7 @@
       <c r="X751" s="2"/>
       <c r="Y751" s="2"/>
       <c r="Z751" s="2"/>
+      <c r="AA751" s="2"/>
     </row>
     <row r="752">
       <c r="A752" s="2"/>
@@ -21349,6 +22120,7 @@
       <c r="X752" s="2"/>
       <c r="Y752" s="2"/>
       <c r="Z752" s="2"/>
+      <c r="AA752" s="2"/>
     </row>
     <row r="753">
       <c r="A753" s="2"/>
@@ -21377,6 +22149,7 @@
       <c r="X753" s="2"/>
       <c r="Y753" s="2"/>
       <c r="Z753" s="2"/>
+      <c r="AA753" s="2"/>
     </row>
     <row r="754">
       <c r="A754" s="2"/>
@@ -21405,6 +22178,7 @@
       <c r="X754" s="2"/>
       <c r="Y754" s="2"/>
       <c r="Z754" s="2"/>
+      <c r="AA754" s="2"/>
     </row>
     <row r="755">
       <c r="A755" s="2"/>
@@ -21433,6 +22207,7 @@
       <c r="X755" s="2"/>
       <c r="Y755" s="2"/>
       <c r="Z755" s="2"/>
+      <c r="AA755" s="2"/>
     </row>
     <row r="756">
       <c r="A756" s="2"/>
@@ -21461,6 +22236,7 @@
       <c r="X756" s="2"/>
       <c r="Y756" s="2"/>
       <c r="Z756" s="2"/>
+      <c r="AA756" s="2"/>
     </row>
     <row r="757">
       <c r="A757" s="2"/>
@@ -21489,6 +22265,7 @@
       <c r="X757" s="2"/>
       <c r="Y757" s="2"/>
       <c r="Z757" s="2"/>
+      <c r="AA757" s="2"/>
     </row>
     <row r="758">
       <c r="A758" s="2"/>
@@ -21517,6 +22294,7 @@
       <c r="X758" s="2"/>
       <c r="Y758" s="2"/>
       <c r="Z758" s="2"/>
+      <c r="AA758" s="2"/>
     </row>
     <row r="759">
       <c r="A759" s="2"/>
@@ -21545,6 +22323,7 @@
       <c r="X759" s="2"/>
       <c r="Y759" s="2"/>
       <c r="Z759" s="2"/>
+      <c r="AA759" s="2"/>
     </row>
     <row r="760">
       <c r="A760" s="2"/>
@@ -21573,6 +22352,7 @@
       <c r="X760" s="2"/>
       <c r="Y760" s="2"/>
       <c r="Z760" s="2"/>
+      <c r="AA760" s="2"/>
     </row>
     <row r="761">
       <c r="A761" s="2"/>
@@ -21601,6 +22381,7 @@
       <c r="X761" s="2"/>
       <c r="Y761" s="2"/>
       <c r="Z761" s="2"/>
+      <c r="AA761" s="2"/>
     </row>
     <row r="762">
       <c r="A762" s="2"/>
@@ -21629,6 +22410,7 @@
       <c r="X762" s="2"/>
       <c r="Y762" s="2"/>
       <c r="Z762" s="2"/>
+      <c r="AA762" s="2"/>
     </row>
     <row r="763">
       <c r="A763" s="2"/>
@@ -21657,6 +22439,7 @@
       <c r="X763" s="2"/>
       <c r="Y763" s="2"/>
       <c r="Z763" s="2"/>
+      <c r="AA763" s="2"/>
     </row>
     <row r="764">
       <c r="A764" s="2"/>
@@ -21685,6 +22468,7 @@
       <c r="X764" s="2"/>
       <c r="Y764" s="2"/>
       <c r="Z764" s="2"/>
+      <c r="AA764" s="2"/>
     </row>
     <row r="765">
       <c r="A765" s="2"/>
@@ -21713,6 +22497,7 @@
       <c r="X765" s="2"/>
       <c r="Y765" s="2"/>
       <c r="Z765" s="2"/>
+      <c r="AA765" s="2"/>
     </row>
     <row r="766">
       <c r="A766" s="2"/>
@@ -21741,6 +22526,7 @@
       <c r="X766" s="2"/>
       <c r="Y766" s="2"/>
       <c r="Z766" s="2"/>
+      <c r="AA766" s="2"/>
     </row>
     <row r="767">
       <c r="A767" s="2"/>
@@ -21769,6 +22555,7 @@
       <c r="X767" s="2"/>
       <c r="Y767" s="2"/>
       <c r="Z767" s="2"/>
+      <c r="AA767" s="2"/>
     </row>
     <row r="768">
       <c r="A768" s="2"/>
@@ -21797,6 +22584,7 @@
       <c r="X768" s="2"/>
       <c r="Y768" s="2"/>
       <c r="Z768" s="2"/>
+      <c r="AA768" s="2"/>
     </row>
     <row r="769">
       <c r="A769" s="2"/>
@@ -21825,6 +22613,7 @@
       <c r="X769" s="2"/>
       <c r="Y769" s="2"/>
       <c r="Z769" s="2"/>
+      <c r="AA769" s="2"/>
     </row>
     <row r="770">
       <c r="A770" s="2"/>
@@ -21853,6 +22642,7 @@
       <c r="X770" s="2"/>
       <c r="Y770" s="2"/>
       <c r="Z770" s="2"/>
+      <c r="AA770" s="2"/>
     </row>
     <row r="771">
       <c r="A771" s="2"/>
@@ -21881,6 +22671,7 @@
       <c r="X771" s="2"/>
       <c r="Y771" s="2"/>
       <c r="Z771" s="2"/>
+      <c r="AA771" s="2"/>
     </row>
     <row r="772">
       <c r="A772" s="2"/>
@@ -21909,6 +22700,7 @@
       <c r="X772" s="2"/>
       <c r="Y772" s="2"/>
       <c r="Z772" s="2"/>
+      <c r="AA772" s="2"/>
     </row>
     <row r="773">
       <c r="A773" s="2"/>
@@ -21937,6 +22729,7 @@
       <c r="X773" s="2"/>
       <c r="Y773" s="2"/>
       <c r="Z773" s="2"/>
+      <c r="AA773" s="2"/>
     </row>
     <row r="774">
       <c r="A774" s="2"/>
@@ -21965,6 +22758,7 @@
       <c r="X774" s="2"/>
       <c r="Y774" s="2"/>
       <c r="Z774" s="2"/>
+      <c r="AA774" s="2"/>
     </row>
     <row r="775">
       <c r="A775" s="2"/>
@@ -21993,6 +22787,7 @@
       <c r="X775" s="2"/>
       <c r="Y775" s="2"/>
       <c r="Z775" s="2"/>
+      <c r="AA775" s="2"/>
     </row>
     <row r="776">
       <c r="A776" s="2"/>
@@ -22021,6 +22816,7 @@
       <c r="X776" s="2"/>
       <c r="Y776" s="2"/>
       <c r="Z776" s="2"/>
+      <c r="AA776" s="2"/>
     </row>
     <row r="777">
       <c r="A777" s="2"/>
@@ -22049,6 +22845,7 @@
       <c r="X777" s="2"/>
       <c r="Y777" s="2"/>
       <c r="Z777" s="2"/>
+      <c r="AA777" s="2"/>
     </row>
     <row r="778">
       <c r="A778" s="2"/>
@@ -22077,6 +22874,7 @@
       <c r="X778" s="2"/>
       <c r="Y778" s="2"/>
       <c r="Z778" s="2"/>
+      <c r="AA778" s="2"/>
     </row>
     <row r="779">
       <c r="A779" s="2"/>
@@ -22105,6 +22903,7 @@
       <c r="X779" s="2"/>
       <c r="Y779" s="2"/>
       <c r="Z779" s="2"/>
+      <c r="AA779" s="2"/>
     </row>
     <row r="780">
       <c r="A780" s="2"/>
@@ -22133,6 +22932,7 @@
       <c r="X780" s="2"/>
       <c r="Y780" s="2"/>
       <c r="Z780" s="2"/>
+      <c r="AA780" s="2"/>
     </row>
     <row r="781">
       <c r="A781" s="2"/>
@@ -22161,6 +22961,7 @@
       <c r="X781" s="2"/>
       <c r="Y781" s="2"/>
       <c r="Z781" s="2"/>
+      <c r="AA781" s="2"/>
     </row>
     <row r="782">
       <c r="A782" s="2"/>
@@ -22189,6 +22990,7 @@
       <c r="X782" s="2"/>
       <c r="Y782" s="2"/>
       <c r="Z782" s="2"/>
+      <c r="AA782" s="2"/>
     </row>
     <row r="783">
       <c r="A783" s="2"/>
@@ -22217,6 +23019,7 @@
       <c r="X783" s="2"/>
       <c r="Y783" s="2"/>
       <c r="Z783" s="2"/>
+      <c r="AA783" s="2"/>
     </row>
     <row r="784">
       <c r="A784" s="2"/>
@@ -22245,6 +23048,7 @@
       <c r="X784" s="2"/>
       <c r="Y784" s="2"/>
       <c r="Z784" s="2"/>
+      <c r="AA784" s="2"/>
     </row>
     <row r="785">
       <c r="A785" s="2"/>
@@ -22273,6 +23077,7 @@
       <c r="X785" s="2"/>
       <c r="Y785" s="2"/>
       <c r="Z785" s="2"/>
+      <c r="AA785" s="2"/>
     </row>
     <row r="786">
       <c r="A786" s="2"/>
@@ -22301,6 +23106,7 @@
       <c r="X786" s="2"/>
       <c r="Y786" s="2"/>
       <c r="Z786" s="2"/>
+      <c r="AA786" s="2"/>
     </row>
     <row r="787">
       <c r="A787" s="2"/>
@@ -22329,6 +23135,7 @@
       <c r="X787" s="2"/>
       <c r="Y787" s="2"/>
       <c r="Z787" s="2"/>
+      <c r="AA787" s="2"/>
     </row>
     <row r="788">
       <c r="A788" s="2"/>
@@ -22357,6 +23164,7 @@
       <c r="X788" s="2"/>
       <c r="Y788" s="2"/>
       <c r="Z788" s="2"/>
+      <c r="AA788" s="2"/>
     </row>
     <row r="789">
       <c r="A789" s="2"/>
@@ -22385,6 +23193,7 @@
       <c r="X789" s="2"/>
       <c r="Y789" s="2"/>
       <c r="Z789" s="2"/>
+      <c r="AA789" s="2"/>
     </row>
     <row r="790">
       <c r="A790" s="2"/>
@@ -22413,6 +23222,7 @@
       <c r="X790" s="2"/>
       <c r="Y790" s="2"/>
       <c r="Z790" s="2"/>
+      <c r="AA790" s="2"/>
     </row>
     <row r="791">
       <c r="A791" s="2"/>
@@ -22441,6 +23251,7 @@
       <c r="X791" s="2"/>
       <c r="Y791" s="2"/>
       <c r="Z791" s="2"/>
+      <c r="AA791" s="2"/>
     </row>
     <row r="792">
       <c r="A792" s="2"/>
@@ -22469,6 +23280,7 @@
       <c r="X792" s="2"/>
       <c r="Y792" s="2"/>
       <c r="Z792" s="2"/>
+      <c r="AA792" s="2"/>
     </row>
     <row r="793">
       <c r="A793" s="2"/>
@@ -22497,6 +23309,7 @@
       <c r="X793" s="2"/>
       <c r="Y793" s="2"/>
       <c r="Z793" s="2"/>
+      <c r="AA793" s="2"/>
     </row>
     <row r="794">
       <c r="A794" s="2"/>
@@ -22525,6 +23338,7 @@
       <c r="X794" s="2"/>
       <c r="Y794" s="2"/>
       <c r="Z794" s="2"/>
+      <c r="AA794" s="2"/>
     </row>
     <row r="795">
       <c r="A795" s="2"/>
@@ -22553,6 +23367,7 @@
       <c r="X795" s="2"/>
       <c r="Y795" s="2"/>
       <c r="Z795" s="2"/>
+      <c r="AA795" s="2"/>
     </row>
     <row r="796">
       <c r="A796" s="2"/>
@@ -22581,6 +23396,7 @@
       <c r="X796" s="2"/>
       <c r="Y796" s="2"/>
       <c r="Z796" s="2"/>
+      <c r="AA796" s="2"/>
     </row>
     <row r="797">
       <c r="A797" s="2"/>
@@ -22609,6 +23425,7 @@
       <c r="X797" s="2"/>
       <c r="Y797" s="2"/>
       <c r="Z797" s="2"/>
+      <c r="AA797" s="2"/>
     </row>
     <row r="798">
       <c r="A798" s="2"/>
@@ -22637,6 +23454,7 @@
       <c r="X798" s="2"/>
       <c r="Y798" s="2"/>
       <c r="Z798" s="2"/>
+      <c r="AA798" s="2"/>
     </row>
     <row r="799">
       <c r="A799" s="2"/>
@@ -22665,6 +23483,7 @@
       <c r="X799" s="2"/>
       <c r="Y799" s="2"/>
       <c r="Z799" s="2"/>
+      <c r="AA799" s="2"/>
     </row>
     <row r="800">
       <c r="A800" s="2"/>
@@ -22693,6 +23512,7 @@
       <c r="X800" s="2"/>
       <c r="Y800" s="2"/>
       <c r="Z800" s="2"/>
+      <c r="AA800" s="2"/>
     </row>
     <row r="801">
       <c r="A801" s="2"/>
@@ -22721,6 +23541,7 @@
       <c r="X801" s="2"/>
       <c r="Y801" s="2"/>
       <c r="Z801" s="2"/>
+      <c r="AA801" s="2"/>
     </row>
     <row r="802">
       <c r="A802" s="2"/>
@@ -22749,6 +23570,7 @@
       <c r="X802" s="2"/>
       <c r="Y802" s="2"/>
       <c r="Z802" s="2"/>
+      <c r="AA802" s="2"/>
     </row>
     <row r="803">
       <c r="A803" s="2"/>
@@ -22777,6 +23599,7 @@
       <c r="X803" s="2"/>
       <c r="Y803" s="2"/>
       <c r="Z803" s="2"/>
+      <c r="AA803" s="2"/>
     </row>
     <row r="804">
       <c r="A804" s="2"/>
@@ -22805,6 +23628,7 @@
       <c r="X804" s="2"/>
       <c r="Y804" s="2"/>
       <c r="Z804" s="2"/>
+      <c r="AA804" s="2"/>
     </row>
     <row r="805">
       <c r="A805" s="2"/>
@@ -22833,6 +23657,7 @@
       <c r="X805" s="2"/>
       <c r="Y805" s="2"/>
       <c r="Z805" s="2"/>
+      <c r="AA805" s="2"/>
     </row>
     <row r="806">
       <c r="A806" s="2"/>
@@ -22861,6 +23686,7 @@
       <c r="X806" s="2"/>
       <c r="Y806" s="2"/>
       <c r="Z806" s="2"/>
+      <c r="AA806" s="2"/>
     </row>
     <row r="807">
       <c r="A807" s="2"/>
@@ -22889,6 +23715,7 @@
       <c r="X807" s="2"/>
       <c r="Y807" s="2"/>
       <c r="Z807" s="2"/>
+      <c r="AA807" s="2"/>
     </row>
     <row r="808">
       <c r="A808" s="2"/>
@@ -22917,6 +23744,7 @@
       <c r="X808" s="2"/>
       <c r="Y808" s="2"/>
       <c r="Z808" s="2"/>
+      <c r="AA808" s="2"/>
     </row>
     <row r="809">
       <c r="A809" s="2"/>
@@ -22945,6 +23773,7 @@
       <c r="X809" s="2"/>
       <c r="Y809" s="2"/>
       <c r="Z809" s="2"/>
+      <c r="AA809" s="2"/>
     </row>
     <row r="810">
       <c r="A810" s="2"/>
@@ -22973,6 +23802,7 @@
       <c r="X810" s="2"/>
       <c r="Y810" s="2"/>
       <c r="Z810" s="2"/>
+      <c r="AA810" s="2"/>
     </row>
     <row r="811">
       <c r="A811" s="2"/>
@@ -23001,6 +23831,7 @@
       <c r="X811" s="2"/>
       <c r="Y811" s="2"/>
       <c r="Z811" s="2"/>
+      <c r="AA811" s="2"/>
     </row>
     <row r="812">
       <c r="A812" s="2"/>
@@ -23029,6 +23860,7 @@
       <c r="X812" s="2"/>
       <c r="Y812" s="2"/>
       <c r="Z812" s="2"/>
+      <c r="AA812" s="2"/>
     </row>
     <row r="813">
       <c r="A813" s="2"/>
@@ -23057,6 +23889,7 @@
       <c r="X813" s="2"/>
       <c r="Y813" s="2"/>
       <c r="Z813" s="2"/>
+      <c r="AA813" s="2"/>
     </row>
     <row r="814">
       <c r="A814" s="2"/>
@@ -23085,6 +23918,7 @@
       <c r="X814" s="2"/>
       <c r="Y814" s="2"/>
       <c r="Z814" s="2"/>
+      <c r="AA814" s="2"/>
     </row>
     <row r="815">
       <c r="A815" s="2"/>
@@ -23113,6 +23947,7 @@
       <c r="X815" s="2"/>
       <c r="Y815" s="2"/>
       <c r="Z815" s="2"/>
+      <c r="AA815" s="2"/>
     </row>
     <row r="816">
       <c r="A816" s="2"/>
@@ -23141,6 +23976,7 @@
       <c r="X816" s="2"/>
       <c r="Y816" s="2"/>
       <c r="Z816" s="2"/>
+      <c r="AA816" s="2"/>
     </row>
     <row r="817">
       <c r="A817" s="2"/>
@@ -23169,6 +24005,7 @@
       <c r="X817" s="2"/>
       <c r="Y817" s="2"/>
       <c r="Z817" s="2"/>
+      <c r="AA817" s="2"/>
     </row>
     <row r="818">
       <c r="A818" s="2"/>
@@ -23197,6 +24034,7 @@
       <c r="X818" s="2"/>
       <c r="Y818" s="2"/>
       <c r="Z818" s="2"/>
+      <c r="AA818" s="2"/>
     </row>
     <row r="819">
       <c r="A819" s="2"/>
@@ -23225,6 +24063,7 @@
       <c r="X819" s="2"/>
       <c r="Y819" s="2"/>
       <c r="Z819" s="2"/>
+      <c r="AA819" s="2"/>
     </row>
     <row r="820">
       <c r="A820" s="2"/>
@@ -23253,6 +24092,7 @@
       <c r="X820" s="2"/>
       <c r="Y820" s="2"/>
       <c r="Z820" s="2"/>
+      <c r="AA820" s="2"/>
     </row>
     <row r="821">
       <c r="A821" s="2"/>
@@ -23281,6 +24121,7 @@
       <c r="X821" s="2"/>
       <c r="Y821" s="2"/>
       <c r="Z821" s="2"/>
+      <c r="AA821" s="2"/>
     </row>
     <row r="822">
       <c r="A822" s="2"/>
@@ -23309,6 +24150,7 @@
       <c r="X822" s="2"/>
       <c r="Y822" s="2"/>
       <c r="Z822" s="2"/>
+      <c r="AA822" s="2"/>
     </row>
     <row r="823">
       <c r="A823" s="2"/>
@@ -23337,6 +24179,7 @@
       <c r="X823" s="2"/>
       <c r="Y823" s="2"/>
       <c r="Z823" s="2"/>
+      <c r="AA823" s="2"/>
     </row>
     <row r="824">
       <c r="A824" s="2"/>
@@ -23365,6 +24208,7 @@
       <c r="X824" s="2"/>
       <c r="Y824" s="2"/>
       <c r="Z824" s="2"/>
+      <c r="AA824" s="2"/>
     </row>
     <row r="825">
       <c r="A825" s="2"/>
@@ -23393,6 +24237,7 @@
       <c r="X825" s="2"/>
       <c r="Y825" s="2"/>
       <c r="Z825" s="2"/>
+      <c r="AA825" s="2"/>
     </row>
     <row r="826">
       <c r="A826" s="2"/>
@@ -23421,6 +24266,7 @@
       <c r="X826" s="2"/>
       <c r="Y826" s="2"/>
       <c r="Z826" s="2"/>
+      <c r="AA826" s="2"/>
     </row>
     <row r="827">
       <c r="A827" s="2"/>
@@ -23449,6 +24295,7 @@
       <c r="X827" s="2"/>
       <c r="Y827" s="2"/>
       <c r="Z827" s="2"/>
+      <c r="AA827" s="2"/>
     </row>
     <row r="828">
       <c r="A828" s="2"/>
@@ -23477,6 +24324,7 @@
       <c r="X828" s="2"/>
       <c r="Y828" s="2"/>
       <c r="Z828" s="2"/>
+      <c r="AA828" s="2"/>
     </row>
     <row r="829">
       <c r="A829" s="2"/>
@@ -23505,6 +24353,7 @@
       <c r="X829" s="2"/>
       <c r="Y829" s="2"/>
       <c r="Z829" s="2"/>
+      <c r="AA829" s="2"/>
     </row>
     <row r="830">
       <c r="A830" s="2"/>
@@ -23533,6 +24382,7 @@
       <c r="X830" s="2"/>
       <c r="Y830" s="2"/>
       <c r="Z830" s="2"/>
+      <c r="AA830" s="2"/>
     </row>
     <row r="831">
       <c r="A831" s="2"/>
@@ -23561,6 +24411,7 @@
       <c r="X831" s="2"/>
       <c r="Y831" s="2"/>
       <c r="Z831" s="2"/>
+      <c r="AA831" s="2"/>
     </row>
     <row r="832">
       <c r="A832" s="2"/>
@@ -23589,6 +24440,7 @@
       <c r="X832" s="2"/>
       <c r="Y832" s="2"/>
       <c r="Z832" s="2"/>
+      <c r="AA832" s="2"/>
     </row>
     <row r="833">
       <c r="A833" s="2"/>
@@ -23617,6 +24469,7 @@
       <c r="X833" s="2"/>
       <c r="Y833" s="2"/>
       <c r="Z833" s="2"/>
+      <c r="AA833" s="2"/>
     </row>
     <row r="834">
       <c r="A834" s="2"/>
@@ -23645,6 +24498,7 @@
       <c r="X834" s="2"/>
       <c r="Y834" s="2"/>
       <c r="Z834" s="2"/>
+      <c r="AA834" s="2"/>
     </row>
     <row r="835">
       <c r="A835" s="2"/>
@@ -23673,6 +24527,7 @@
       <c r="X835" s="2"/>
       <c r="Y835" s="2"/>
       <c r="Z835" s="2"/>
+      <c r="AA835" s="2"/>
     </row>
     <row r="836">
       <c r="A836" s="2"/>
@@ -23701,6 +24556,7 @@
       <c r="X836" s="2"/>
       <c r="Y836" s="2"/>
       <c r="Z836" s="2"/>
+      <c r="AA836" s="2"/>
     </row>
     <row r="837">
       <c r="A837" s="2"/>
@@ -23729,6 +24585,7 @@
       <c r="X837" s="2"/>
       <c r="Y837" s="2"/>
       <c r="Z837" s="2"/>
+      <c r="AA837" s="2"/>
     </row>
     <row r="838">
       <c r="A838" s="2"/>
@@ -23757,6 +24614,7 @@
       <c r="X838" s="2"/>
       <c r="Y838" s="2"/>
       <c r="Z838" s="2"/>
+      <c r="AA838" s="2"/>
     </row>
     <row r="839">
       <c r="A839" s="2"/>
@@ -23785,6 +24643,7 @@
       <c r="X839" s="2"/>
       <c r="Y839" s="2"/>
       <c r="Z839" s="2"/>
+      <c r="AA839" s="2"/>
     </row>
     <row r="840">
       <c r="A840" s="2"/>
@@ -23813,6 +24672,7 @@
       <c r="X840" s="2"/>
       <c r="Y840" s="2"/>
       <c r="Z840" s="2"/>
+      <c r="AA840" s="2"/>
     </row>
     <row r="841">
       <c r="A841" s="2"/>
@@ -23841,6 +24701,7 @@
       <c r="X841" s="2"/>
       <c r="Y841" s="2"/>
       <c r="Z841" s="2"/>
+      <c r="AA841" s="2"/>
     </row>
     <row r="842">
       <c r="A842" s="2"/>
@@ -23869,6 +24730,7 @@
       <c r="X842" s="2"/>
       <c r="Y842" s="2"/>
       <c r="Z842" s="2"/>
+      <c r="AA842" s="2"/>
     </row>
     <row r="843">
       <c r="A843" s="2"/>
@@ -23897,6 +24759,7 @@
       <c r="X843" s="2"/>
       <c r="Y843" s="2"/>
       <c r="Z843" s="2"/>
+      <c r="AA843" s="2"/>
     </row>
     <row r="844">
       <c r="A844" s="2"/>
@@ -23925,6 +24788,7 @@
       <c r="X844" s="2"/>
       <c r="Y844" s="2"/>
       <c r="Z844" s="2"/>
+      <c r="AA844" s="2"/>
     </row>
     <row r="845">
       <c r="A845" s="2"/>
@@ -23953,6 +24817,7 @@
       <c r="X845" s="2"/>
       <c r="Y845" s="2"/>
       <c r="Z845" s="2"/>
+      <c r="AA845" s="2"/>
     </row>
     <row r="846">
       <c r="A846" s="2"/>
@@ -23981,6 +24846,7 @@
       <c r="X846" s="2"/>
       <c r="Y846" s="2"/>
       <c r="Z846" s="2"/>
+      <c r="AA846" s="2"/>
     </row>
     <row r="847">
       <c r="A847" s="2"/>
@@ -24009,6 +24875,7 @@
       <c r="X847" s="2"/>
       <c r="Y847" s="2"/>
       <c r="Z847" s="2"/>
+      <c r="AA847" s="2"/>
     </row>
     <row r="848">
       <c r="A848" s="2"/>
@@ -24037,6 +24904,7 @@
       <c r="X848" s="2"/>
       <c r="Y848" s="2"/>
       <c r="Z848" s="2"/>
+      <c r="AA848" s="2"/>
     </row>
     <row r="849">
       <c r="A849" s="2"/>
@@ -24065,6 +24933,7 @@
       <c r="X849" s="2"/>
       <c r="Y849" s="2"/>
       <c r="Z849" s="2"/>
+      <c r="AA849" s="2"/>
     </row>
     <row r="850">
       <c r="A850" s="2"/>
@@ -24093,6 +24962,7 @@
       <c r="X850" s="2"/>
       <c r="Y850" s="2"/>
       <c r="Z850" s="2"/>
+      <c r="AA850" s="2"/>
     </row>
     <row r="851">
       <c r="A851" s="2"/>
@@ -24121,6 +24991,7 @@
       <c r="X851" s="2"/>
       <c r="Y851" s="2"/>
       <c r="Z851" s="2"/>
+      <c r="AA851" s="2"/>
     </row>
     <row r="852">
       <c r="A852" s="2"/>
@@ -24149,6 +25020,7 @@
       <c r="X852" s="2"/>
       <c r="Y852" s="2"/>
       <c r="Z852" s="2"/>
+      <c r="AA852" s="2"/>
     </row>
     <row r="853">
       <c r="A853" s="2"/>
@@ -24177,6 +25049,7 @@
       <c r="X853" s="2"/>
       <c r="Y853" s="2"/>
       <c r="Z853" s="2"/>
+      <c r="AA853" s="2"/>
     </row>
     <row r="854">
       <c r="A854" s="2"/>
@@ -24205,6 +25078,7 @@
       <c r="X854" s="2"/>
       <c r="Y854" s="2"/>
       <c r="Z854" s="2"/>
+      <c r="AA854" s="2"/>
     </row>
     <row r="855">
       <c r="A855" s="2"/>
@@ -24233,6 +25107,7 @@
       <c r="X855" s="2"/>
       <c r="Y855" s="2"/>
       <c r="Z855" s="2"/>
+      <c r="AA855" s="2"/>
     </row>
     <row r="856">
       <c r="A856" s="2"/>
@@ -24261,6 +25136,7 @@
       <c r="X856" s="2"/>
       <c r="Y856" s="2"/>
       <c r="Z856" s="2"/>
+      <c r="AA856" s="2"/>
     </row>
     <row r="857">
       <c r="A857" s="2"/>
@@ -24289,6 +25165,7 @@
       <c r="X857" s="2"/>
       <c r="Y857" s="2"/>
       <c r="Z857" s="2"/>
+      <c r="AA857" s="2"/>
     </row>
     <row r="858">
       <c r="A858" s="2"/>
@@ -24317,6 +25194,7 @@
       <c r="X858" s="2"/>
       <c r="Y858" s="2"/>
       <c r="Z858" s="2"/>
+      <c r="AA858" s="2"/>
     </row>
     <row r="859">
       <c r="A859" s="2"/>
@@ -24345,6 +25223,7 @@
       <c r="X859" s="2"/>
       <c r="Y859" s="2"/>
       <c r="Z859" s="2"/>
+      <c r="AA859" s="2"/>
     </row>
     <row r="860">
       <c r="A860" s="2"/>
@@ -24373,6 +25252,7 @@
       <c r="X860" s="2"/>
       <c r="Y860" s="2"/>
       <c r="Z860" s="2"/>
+      <c r="AA860" s="2"/>
     </row>
     <row r="861">
       <c r="A861" s="2"/>
@@ -24401,6 +25281,7 @@
       <c r="X861" s="2"/>
       <c r="Y861" s="2"/>
       <c r="Z861" s="2"/>
+      <c r="AA861" s="2"/>
     </row>
     <row r="862">
       <c r="A862" s="2"/>
@@ -24429,6 +25310,7 @@
       <c r="X862" s="2"/>
       <c r="Y862" s="2"/>
       <c r="Z862" s="2"/>
+      <c r="AA862" s="2"/>
     </row>
     <row r="863">
       <c r="A863" s="2"/>
@@ -24457,6 +25339,7 @@
       <c r="X863" s="2"/>
       <c r="Y863" s="2"/>
       <c r="Z863" s="2"/>
+      <c r="AA863" s="2"/>
     </row>
     <row r="864">
       <c r="A864" s="2"/>
@@ -24485,6 +25368,7 @@
       <c r="X864" s="2"/>
       <c r="Y864" s="2"/>
       <c r="Z864" s="2"/>
+      <c r="AA864" s="2"/>
     </row>
     <row r="865">
       <c r="A865" s="2"/>
@@ -24513,6 +25397,7 @@
       <c r="X865" s="2"/>
       <c r="Y865" s="2"/>
       <c r="Z865" s="2"/>
+      <c r="AA865" s="2"/>
     </row>
     <row r="866">
       <c r="A866" s="2"/>
@@ -24541,6 +25426,7 @@
       <c r="X866" s="2"/>
       <c r="Y866" s="2"/>
       <c r="Z866" s="2"/>
+      <c r="AA866" s="2"/>
     </row>
     <row r="867">
       <c r="A867" s="2"/>
@@ -24569,6 +25455,7 @@
       <c r="X867" s="2"/>
       <c r="Y867" s="2"/>
       <c r="Z867" s="2"/>
+      <c r="AA867" s="2"/>
     </row>
     <row r="868">
       <c r="A868" s="2"/>
@@ -24597,6 +25484,7 @@
       <c r="X868" s="2"/>
       <c r="Y868" s="2"/>
       <c r="Z868" s="2"/>
+      <c r="AA868" s="2"/>
     </row>
     <row r="869">
       <c r="A869" s="2"/>
@@ -24625,6 +25513,7 @@
       <c r="X869" s="2"/>
       <c r="Y869" s="2"/>
       <c r="Z869" s="2"/>
+      <c r="AA869" s="2"/>
     </row>
     <row r="870">
       <c r="A870" s="2"/>
@@ -24653,6 +25542,7 @@
       <c r="X870" s="2"/>
       <c r="Y870" s="2"/>
       <c r="Z870" s="2"/>
+      <c r="AA870" s="2"/>
     </row>
     <row r="871">
       <c r="A871" s="2"/>
@@ -24681,6 +25571,7 @@
       <c r="X871" s="2"/>
       <c r="Y871" s="2"/>
       <c r="Z871" s="2"/>
+      <c r="AA871" s="2"/>
     </row>
     <row r="872">
       <c r="A872" s="2"/>
@@ -24709,6 +25600,7 @@
       <c r="X872" s="2"/>
       <c r="Y872" s="2"/>
       <c r="Z872" s="2"/>
+      <c r="AA872" s="2"/>
     </row>
     <row r="873">
       <c r="A873" s="2"/>
@@ -24737,6 +25629,7 @@
       <c r="X873" s="2"/>
       <c r="Y873" s="2"/>
       <c r="Z873" s="2"/>
+      <c r="AA873" s="2"/>
     </row>
     <row r="874">
       <c r="A874" s="2"/>
@@ -24765,6 +25658,7 @@
       <c r="X874" s="2"/>
       <c r="Y874" s="2"/>
       <c r="Z874" s="2"/>
+      <c r="AA874" s="2"/>
     </row>
     <row r="875">
       <c r="A875" s="2"/>
@@ -24793,6 +25687,7 @@
       <c r="X875" s="2"/>
       <c r="Y875" s="2"/>
       <c r="Z875" s="2"/>
+      <c r="AA875" s="2"/>
     </row>
     <row r="876">
       <c r="A876" s="2"/>
@@ -24821,6 +25716,7 @@
       <c r="X876" s="2"/>
       <c r="Y876" s="2"/>
       <c r="Z876" s="2"/>
+      <c r="AA876" s="2"/>
     </row>
     <row r="877">
       <c r="A877" s="2"/>
@@ -24849,6 +25745,7 @@
       <c r="X877" s="2"/>
       <c r="Y877" s="2"/>
       <c r="Z877" s="2"/>
+      <c r="AA877" s="2"/>
     </row>
     <row r="878">
       <c r="A878" s="2"/>
@@ -24877,6 +25774,7 @@
       <c r="X878" s="2"/>
       <c r="Y878" s="2"/>
       <c r="Z878" s="2"/>
+      <c r="AA878" s="2"/>
     </row>
     <row r="879">
       <c r="A879" s="2"/>
@@ -24905,6 +25803,7 @@
       <c r="X879" s="2"/>
       <c r="Y879" s="2"/>
       <c r="Z879" s="2"/>
+      <c r="AA879" s="2"/>
     </row>
     <row r="880">
       <c r="A880" s="2"/>
@@ -24933,6 +25832,7 @@
       <c r="X880" s="2"/>
       <c r="Y880" s="2"/>
       <c r="Z880" s="2"/>
+      <c r="AA880" s="2"/>
     </row>
     <row r="881">
       <c r="A881" s="2"/>
@@ -24961,6 +25861,7 @@
       <c r="X881" s="2"/>
       <c r="Y881" s="2"/>
       <c r="Z881" s="2"/>
+      <c r="AA881" s="2"/>
     </row>
     <row r="882">
       <c r="A882" s="2"/>
@@ -24989,6 +25890,7 @@
       <c r="X882" s="2"/>
       <c r="Y882" s="2"/>
       <c r="Z882" s="2"/>
+      <c r="AA882" s="2"/>
     </row>
     <row r="883">
       <c r="A883" s="2"/>
@@ -25017,6 +25919,7 @@
       <c r="X883" s="2"/>
       <c r="Y883" s="2"/>
       <c r="Z883" s="2"/>
+      <c r="AA883" s="2"/>
     </row>
     <row r="884">
       <c r="A884" s="2"/>
@@ -25045,6 +25948,7 @@
       <c r="X884" s="2"/>
       <c r="Y884" s="2"/>
       <c r="Z884" s="2"/>
+      <c r="AA884" s="2"/>
     </row>
     <row r="885">
       <c r="A885" s="2"/>
@@ -25073,6 +25977,7 @@
       <c r="X885" s="2"/>
       <c r="Y885" s="2"/>
       <c r="Z885" s="2"/>
+      <c r="AA885" s="2"/>
     </row>
     <row r="886">
       <c r="A886" s="2"/>
@@ -25101,6 +26006,7 @@
       <c r="X886" s="2"/>
       <c r="Y886" s="2"/>
       <c r="Z886" s="2"/>
+      <c r="AA886" s="2"/>
     </row>
     <row r="887">
       <c r="A887" s="2"/>
@@ -25129,6 +26035,7 @@
       <c r="X887" s="2"/>
       <c r="Y887" s="2"/>
       <c r="Z887" s="2"/>
+      <c r="AA887" s="2"/>
     </row>
     <row r="888">
       <c r="A888" s="2"/>
@@ -25157,6 +26064,7 @@
       <c r="X888" s="2"/>
       <c r="Y888" s="2"/>
       <c r="Z888" s="2"/>
+      <c r="AA888" s="2"/>
     </row>
     <row r="889">
       <c r="A889" s="2"/>
@@ -25185,6 +26093,7 @@
       <c r="X889" s="2"/>
       <c r="Y889" s="2"/>
       <c r="Z889" s="2"/>
+      <c r="AA889" s="2"/>
     </row>
     <row r="890">
       <c r="A890" s="2"/>
@@ -25213,6 +26122,7 @@
       <c r="X890" s="2"/>
       <c r="Y890" s="2"/>
       <c r="Z890" s="2"/>
+      <c r="AA890" s="2"/>
     </row>
     <row r="891">
       <c r="A891" s="2"/>
@@ -25241,6 +26151,7 @@
       <c r="X891" s="2"/>
       <c r="Y891" s="2"/>
       <c r="Z891" s="2"/>
+      <c r="AA891" s="2"/>
     </row>
     <row r="892">
       <c r="A892" s="2"/>
@@ -25269,6 +26180,7 @@
       <c r="X892" s="2"/>
       <c r="Y892" s="2"/>
       <c r="Z892" s="2"/>
+      <c r="AA892" s="2"/>
     </row>
     <row r="893">
       <c r="A893" s="2"/>
@@ -25297,6 +26209,7 @@
       <c r="X893" s="2"/>
       <c r="Y893" s="2"/>
       <c r="Z893" s="2"/>
+      <c r="AA893" s="2"/>
     </row>
     <row r="894">
       <c r="A894" s="2"/>
@@ -25325,6 +26238,7 @@
       <c r="X894" s="2"/>
       <c r="Y894" s="2"/>
       <c r="Z894" s="2"/>
+      <c r="AA894" s="2"/>
     </row>
     <row r="895">
       <c r="A895" s="2"/>
@@ -25353,6 +26267,7 @@
       <c r="X895" s="2"/>
       <c r="Y895" s="2"/>
       <c r="Z895" s="2"/>
+      <c r="AA895" s="2"/>
     </row>
     <row r="896">
       <c r="A896" s="2"/>
@@ -25381,6 +26296,7 @@
       <c r="X896" s="2"/>
       <c r="Y896" s="2"/>
       <c r="Z896" s="2"/>
+      <c r="AA896" s="2"/>
     </row>
     <row r="897">
       <c r="A897" s="2"/>
@@ -25409,6 +26325,7 @@
       <c r="X897" s="2"/>
       <c r="Y897" s="2"/>
       <c r="Z897" s="2"/>
+      <c r="AA897" s="2"/>
     </row>
     <row r="898">
       <c r="A898" s="2"/>
@@ -25437,6 +26354,7 @@
       <c r="X898" s="2"/>
       <c r="Y898" s="2"/>
       <c r="Z898" s="2"/>
+      <c r="AA898" s="2"/>
     </row>
     <row r="899">
       <c r="A899" s="2"/>
@@ -25465,6 +26383,7 @@
       <c r="X899" s="2"/>
       <c r="Y899" s="2"/>
       <c r="Z899" s="2"/>
+      <c r="AA899" s="2"/>
     </row>
     <row r="900">
       <c r="A900" s="2"/>
@@ -25493,6 +26412,7 @@
       <c r="X900" s="2"/>
       <c r="Y900" s="2"/>
       <c r="Z900" s="2"/>
+      <c r="AA900" s="2"/>
     </row>
     <row r="901">
       <c r="A901" s="2"/>
@@ -25521,6 +26441,7 @@
       <c r="X901" s="2"/>
       <c r="Y901" s="2"/>
       <c r="Z901" s="2"/>
+      <c r="AA901" s="2"/>
     </row>
     <row r="902">
       <c r="A902" s="2"/>
@@ -25549,6 +26470,7 @@
       <c r="X902" s="2"/>
       <c r="Y902" s="2"/>
       <c r="Z902" s="2"/>
+      <c r="AA902" s="2"/>
     </row>
     <row r="903">
       <c r="A903" s="2"/>
@@ -25577,6 +26499,7 @@
       <c r="X903" s="2"/>
       <c r="Y903" s="2"/>
       <c r="Z903" s="2"/>
+      <c r="AA903" s="2"/>
     </row>
     <row r="904">
       <c r="A904" s="2"/>
@@ -25605,6 +26528,7 @@
       <c r="X904" s="2"/>
       <c r="Y904" s="2"/>
       <c r="Z904" s="2"/>
+      <c r="AA904" s="2"/>
     </row>
     <row r="905">
       <c r="A905" s="2"/>
@@ -25633,6 +26557,7 @@
       <c r="X905" s="2"/>
       <c r="Y905" s="2"/>
       <c r="Z905" s="2"/>
+      <c r="AA905" s="2"/>
     </row>
     <row r="906">
       <c r="A906" s="2"/>
@@ -25661,6 +26586,7 @@
       <c r="X906" s="2"/>
       <c r="Y906" s="2"/>
       <c r="Z906" s="2"/>
+      <c r="AA906" s="2"/>
     </row>
     <row r="907">
       <c r="A907" s="2"/>
@@ -25689,6 +26615,7 @@
       <c r="X907" s="2"/>
       <c r="Y907" s="2"/>
       <c r="Z907" s="2"/>
+      <c r="AA907" s="2"/>
     </row>
     <row r="908">
       <c r="A908" s="2"/>
@@ -25717,6 +26644,7 @@
       <c r="X908" s="2"/>
       <c r="Y908" s="2"/>
       <c r="Z908" s="2"/>
+      <c r="AA908" s="2"/>
     </row>
     <row r="909">
       <c r="A909" s="2"/>
@@ -25745,6 +26673,7 @@
       <c r="X909" s="2"/>
       <c r="Y909" s="2"/>
       <c r="Z909" s="2"/>
+      <c r="AA909" s="2"/>
     </row>
     <row r="910">
       <c r="A910" s="2"/>
@@ -25773,6 +26702,7 @@
       <c r="X910" s="2"/>
       <c r="Y910" s="2"/>
       <c r="Z910" s="2"/>
+      <c r="AA910" s="2"/>
     </row>
     <row r="911">
       <c r="A911" s="2"/>
@@ -25801,6 +26731,7 @@
       <c r="X911" s="2"/>
       <c r="Y911" s="2"/>
       <c r="Z911" s="2"/>
+      <c r="AA911" s="2"/>
     </row>
     <row r="912">
       <c r="A912" s="2"/>
@@ -25829,6 +26760,7 @@
       <c r="X912" s="2"/>
       <c r="Y912" s="2"/>
       <c r="Z912" s="2"/>
+      <c r="AA912" s="2"/>
     </row>
     <row r="913">
       <c r="A913" s="2"/>
@@ -25857,6 +26789,7 @@
       <c r="X913" s="2"/>
       <c r="Y913" s="2"/>
       <c r="Z913" s="2"/>
+      <c r="AA913" s="2"/>
     </row>
     <row r="914">
       <c r="A914" s="2"/>
@@ -25885,6 +26818,7 @@
       <c r="X914" s="2"/>
       <c r="Y914" s="2"/>
       <c r="Z914" s="2"/>
+      <c r="AA914" s="2"/>
     </row>
     <row r="915">
       <c r="A915" s="2"/>
@@ -25913,6 +26847,7 @@
       <c r="X915" s="2"/>
       <c r="Y915" s="2"/>
       <c r="Z915" s="2"/>
+      <c r="AA915" s="2"/>
     </row>
     <row r="916">
       <c r="A916" s="2"/>
@@ -25941,6 +26876,7 @@
       <c r="X916" s="2"/>
       <c r="Y916" s="2"/>
       <c r="Z916" s="2"/>
+      <c r="AA916" s="2"/>
     </row>
     <row r="917">
       <c r="A917" s="2"/>
@@ -25969,6 +26905,7 @@
       <c r="X917" s="2"/>
       <c r="Y917" s="2"/>
       <c r="Z917" s="2"/>
+      <c r="AA917" s="2"/>
     </row>
     <row r="918">
       <c r="A918" s="2"/>
@@ -25997,6 +26934,7 @@
       <c r="X918" s="2"/>
       <c r="Y918" s="2"/>
       <c r="Z918" s="2"/>
+      <c r="AA918" s="2"/>
     </row>
     <row r="919">
       <c r="A919" s="2"/>
@@ -26025,6 +26963,7 @@
       <c r="X919" s="2"/>
       <c r="Y919" s="2"/>
       <c r="Z919" s="2"/>
+      <c r="AA919" s="2"/>
     </row>
     <row r="920">
       <c r="A920" s="2"/>
@@ -26053,6 +26992,7 @@
       <c r="X920" s="2"/>
       <c r="Y920" s="2"/>
       <c r="Z920" s="2"/>
+      <c r="AA920" s="2"/>
     </row>
     <row r="921">
       <c r="A921" s="2"/>
@@ -26081,6 +27021,7 @@
       <c r="X921" s="2"/>
       <c r="Y921" s="2"/>
       <c r="Z921" s="2"/>
+      <c r="AA921" s="2"/>
     </row>
     <row r="922">
       <c r="A922" s="2"/>
@@ -26109,6 +27050,7 @@
       <c r="X922" s="2"/>
       <c r="Y922" s="2"/>
       <c r="Z922" s="2"/>
+      <c r="AA922" s="2"/>
     </row>
     <row r="923">
       <c r="A923" s="2"/>
@@ -26137,6 +27079,7 @@
       <c r="X923" s="2"/>
       <c r="Y923" s="2"/>
       <c r="Z923" s="2"/>
+      <c r="AA923" s="2"/>
     </row>
     <row r="924">
       <c r="A924" s="2"/>
@@ -26165,6 +27108,7 @@
       <c r="X924" s="2"/>
       <c r="Y924" s="2"/>
       <c r="Z924" s="2"/>
+      <c r="AA924" s="2"/>
     </row>
     <row r="925">
       <c r="A925" s="2"/>
@@ -26193,6 +27137,7 @@
       <c r="X925" s="2"/>
       <c r="Y925" s="2"/>
       <c r="Z925" s="2"/>
+      <c r="AA925" s="2"/>
     </row>
     <row r="926">
       <c r="A926" s="2"/>
@@ -26221,6 +27166,7 @@
       <c r="X926" s="2"/>
       <c r="Y926" s="2"/>
       <c r="Z926" s="2"/>
+      <c r="AA926" s="2"/>
     </row>
     <row r="927">
       <c r="A927" s="2"/>
@@ -26249,6 +27195,7 @@
       <c r="X927" s="2"/>
       <c r="Y927" s="2"/>
       <c r="Z927" s="2"/>
+      <c r="AA927" s="2"/>
     </row>
     <row r="928">
       <c r="A928" s="2"/>
@@ -26277,6 +27224,7 @@
       <c r="X928" s="2"/>
       <c r="Y928" s="2"/>
       <c r="Z928" s="2"/>
+      <c r="AA928" s="2"/>
     </row>
     <row r="929">
       <c r="A929" s="2"/>
@@ -26305,6 +27253,7 @@
       <c r="X929" s="2"/>
       <c r="Y929" s="2"/>
       <c r="Z929" s="2"/>
+      <c r="AA929" s="2"/>
     </row>
     <row r="930">
       <c r="A930" s="2"/>
@@ -26333,6 +27282,7 @@
       <c r="X930" s="2"/>
       <c r="Y930" s="2"/>
       <c r="Z930" s="2"/>
+      <c r="AA930" s="2"/>
     </row>
     <row r="931">
       <c r="A931" s="2"/>
@@ -26361,6 +27311,7 @@
       <c r="X931" s="2"/>
       <c r="Y931" s="2"/>
       <c r="Z931" s="2"/>
+      <c r="AA931" s="2"/>
     </row>
     <row r="932">
       <c r="A932" s="2"/>
@@ -26389,6 +27340,7 @@
       <c r="X932" s="2"/>
       <c r="Y932" s="2"/>
       <c r="Z932" s="2"/>
+      <c r="AA932" s="2"/>
     </row>
     <row r="933">
       <c r="A933" s="2"/>
@@ -26417,6 +27369,7 @@
       <c r="X933" s="2"/>
       <c r="Y933" s="2"/>
       <c r="Z933" s="2"/>
+      <c r="AA933" s="2"/>
     </row>
     <row r="934">
       <c r="A934" s="2"/>
@@ -26445,6 +27398,7 @@
       <c r="X934" s="2"/>
       <c r="Y934" s="2"/>
       <c r="Z934" s="2"/>
+      <c r="AA934" s="2"/>
     </row>
     <row r="935">
       <c r="A935" s="2"/>
@@ -26473,6 +27427,7 @@
       <c r="X935" s="2"/>
       <c r="Y935" s="2"/>
       <c r="Z935" s="2"/>
+      <c r="AA935" s="2"/>
     </row>
     <row r="936">
       <c r="A936" s="2"/>
@@ -26501,6 +27456,7 @@
       <c r="X936" s="2"/>
       <c r="Y936" s="2"/>
       <c r="Z936" s="2"/>
+      <c r="AA936" s="2"/>
     </row>
     <row r="937">
       <c r="A937" s="2"/>
@@ -26529,6 +27485,7 @@
       <c r="X937" s="2"/>
       <c r="Y937" s="2"/>
       <c r="Z937" s="2"/>
+      <c r="AA937" s="2"/>
     </row>
     <row r="938">
       <c r="A938" s="2"/>
@@ -26557,6 +27514,7 @@
       <c r="X938" s="2"/>
       <c r="Y938" s="2"/>
       <c r="Z938" s="2"/>
+      <c r="AA938" s="2"/>
     </row>
     <row r="939">
       <c r="A939" s="2"/>
@@ -26585,6 +27543,7 @@
       <c r="X939" s="2"/>
       <c r="Y939" s="2"/>
       <c r="Z939" s="2"/>
+      <c r="AA939" s="2"/>
     </row>
     <row r="940">
       <c r="A940" s="2"/>
@@ -26613,6 +27572,7 @@
       <c r="X940" s="2"/>
       <c r="Y940" s="2"/>
       <c r="Z940" s="2"/>
+      <c r="AA940" s="2"/>
     </row>
     <row r="941">
       <c r="A941" s="2"/>
@@ -26641,6 +27601,7 @@
       <c r="X941" s="2"/>
       <c r="Y941" s="2"/>
       <c r="Z941" s="2"/>
+      <c r="AA941" s="2"/>
     </row>
     <row r="942">
       <c r="A942" s="2"/>
@@ -26669,6 +27630,7 @@
       <c r="X942" s="2"/>
       <c r="Y942" s="2"/>
       <c r="Z942" s="2"/>
+      <c r="AA942" s="2"/>
     </row>
     <row r="943">
       <c r="A943" s="2"/>
@@ -26697,6 +27659,7 @@
       <c r="X943" s="2"/>
       <c r="Y943" s="2"/>
       <c r="Z943" s="2"/>
+      <c r="AA943" s="2"/>
     </row>
     <row r="944">
       <c r="A944" s="2"/>
@@ -26725,6 +27688,7 @@
       <c r="X944" s="2"/>
       <c r="Y944" s="2"/>
       <c r="Z944" s="2"/>
+      <c r="AA944" s="2"/>
     </row>
     <row r="945">
       <c r="A945" s="2"/>
@@ -26753,6 +27717,7 @@
       <c r="X945" s="2"/>
       <c r="Y945" s="2"/>
       <c r="Z945" s="2"/>
+      <c r="AA945" s="2"/>
     </row>
     <row r="946">
       <c r="A946" s="2"/>
@@ -26781,6 +27746,7 @@
       <c r="X946" s="2"/>
       <c r="Y946" s="2"/>
       <c r="Z946" s="2"/>
+      <c r="AA946" s="2"/>
     </row>
     <row r="947">
       <c r="A947" s="2"/>
@@ -26809,6 +27775,7 @@
       <c r="X947" s="2"/>
       <c r="Y947" s="2"/>
       <c r="Z947" s="2"/>
+      <c r="AA947" s="2"/>
     </row>
     <row r="948">
       <c r="A948" s="2"/>
@@ -26837,6 +27804,7 @@
       <c r="X948" s="2"/>
       <c r="Y948" s="2"/>
       <c r="Z948" s="2"/>
+      <c r="AA948" s="2"/>
     </row>
     <row r="949">
       <c r="A949" s="2"/>
@@ -26865,6 +27833,7 @@
       <c r="X949" s="2"/>
       <c r="Y949" s="2"/>
       <c r="Z949" s="2"/>
+      <c r="AA949" s="2"/>
     </row>
     <row r="950">
       <c r="A950" s="2"/>
@@ -26893,6 +27862,7 @@
       <c r="X950" s="2"/>
       <c r="Y950" s="2"/>
       <c r="Z950" s="2"/>
+      <c r="AA950" s="2"/>
     </row>
     <row r="951">
       <c r="A951" s="2"/>
@@ -26921,6 +27891,7 @@
       <c r="X951" s="2"/>
       <c r="Y951" s="2"/>
       <c r="Z951" s="2"/>
+      <c r="AA951" s="2"/>
     </row>
     <row r="952">
       <c r="A952" s="2"/>
@@ -26949,6 +27920,7 @@
       <c r="X952" s="2"/>
       <c r="Y952" s="2"/>
       <c r="Z952" s="2"/>
+      <c r="AA952" s="2"/>
     </row>
     <row r="953">
       <c r="A953" s="2"/>
@@ -26977,6 +27949,7 @@
       <c r="X953" s="2"/>
       <c r="Y953" s="2"/>
       <c r="Z953" s="2"/>
+      <c r="AA953" s="2"/>
     </row>
     <row r="954">
       <c r="A954" s="2"/>
@@ -27005,6 +27978,7 @@
       <c r="X954" s="2"/>
       <c r="Y954" s="2"/>
       <c r="Z954" s="2"/>
+      <c r="AA954" s="2"/>
     </row>
     <row r="955">
       <c r="A955" s="2"/>
@@ -27033,6 +28007,7 @@
       <c r="X955" s="2"/>
       <c r="Y955" s="2"/>
       <c r="Z955" s="2"/>
+      <c r="AA955" s="2"/>
     </row>
     <row r="956">
       <c r="A956" s="2"/>
@@ -27061,6 +28036,7 @@
       <c r="X956" s="2"/>
       <c r="Y956" s="2"/>
       <c r="Z956" s="2"/>
+      <c r="AA956" s="2"/>
     </row>
     <row r="957">
       <c r="A957" s="2"/>
@@ -27089,6 +28065,7 @@
       <c r="X957" s="2"/>
       <c r="Y957" s="2"/>
       <c r="Z957" s="2"/>
+      <c r="AA957" s="2"/>
     </row>
     <row r="958">
       <c r="A958" s="2"/>
@@ -27117,6 +28094,7 @@
       <c r="X958" s="2"/>
       <c r="Y958" s="2"/>
       <c r="Z958" s="2"/>
+      <c r="AA958" s="2"/>
     </row>
     <row r="959">
       <c r="A959" s="2"/>
@@ -27145,6 +28123,7 @@
       <c r="X959" s="2"/>
       <c r="Y959" s="2"/>
       <c r="Z959" s="2"/>
+      <c r="AA959" s="2"/>
     </row>
     <row r="960">
       <c r="A960" s="2"/>
@@ -27173,6 +28152,7 @@
       <c r="X960" s="2"/>
       <c r="Y960" s="2"/>
       <c r="Z960" s="2"/>
+      <c r="AA960" s="2"/>
     </row>
     <row r="961">
       <c r="A961" s="2"/>
@@ -27201,6 +28181,7 @@
       <c r="X961" s="2"/>
       <c r="Y961" s="2"/>
       <c r="Z961" s="2"/>
+      <c r="AA961" s="2"/>
     </row>
     <row r="962">
       <c r="A962" s="2"/>
@@ -27229,6 +28210,7 @@
       <c r="X962" s="2"/>
       <c r="Y962" s="2"/>
       <c r="Z962" s="2"/>
+      <c r="AA962" s="2"/>
     </row>
     <row r="963">
       <c r="A963" s="2"/>
@@ -27257,6 +28239,7 @@
       <c r="X963" s="2"/>
       <c r="Y963" s="2"/>
       <c r="Z963" s="2"/>
+      <c r="AA963" s="2"/>
     </row>
     <row r="964">
       <c r="A964" s="2"/>
@@ -27285,6 +28268,7 @@
       <c r="X964" s="2"/>
       <c r="Y964" s="2"/>
       <c r="Z964" s="2"/>
+      <c r="AA964" s="2"/>
     </row>
     <row r="965">
       <c r="A965" s="2"/>
@@ -27313,6 +28297,7 @@
       <c r="X965" s="2"/>
       <c r="Y965" s="2"/>
       <c r="Z965" s="2"/>
+      <c r="AA965" s="2"/>
     </row>
     <row r="966">
       <c r="A966" s="2"/>
@@ -27341,6 +28326,7 @@
       <c r="X966" s="2"/>
       <c r="Y966" s="2"/>
       <c r="Z966" s="2"/>
+      <c r="AA966" s="2"/>
     </row>
     <row r="967">
       <c r="A967" s="2"/>
@@ -27369,6 +28355,7 @@
       <c r="X967" s="2"/>
       <c r="Y967" s="2"/>
       <c r="Z967" s="2"/>
+      <c r="AA967" s="2"/>
     </row>
     <row r="968">
       <c r="A968" s="2"/>
@@ -27397,6 +28384,7 @@
       <c r="X968" s="2"/>
       <c r="Y968" s="2"/>
       <c r="Z968" s="2"/>
+      <c r="AA968" s="2"/>
     </row>
     <row r="969">
       <c r="A969" s="2"/>
@@ -27425,6 +28413,7 @@
       <c r="X969" s="2"/>
       <c r="Y969" s="2"/>
       <c r="Z969" s="2"/>
+      <c r="AA969" s="2"/>
     </row>
     <row r="970">
       <c r="A970" s="2"/>
@@ -27453,6 +28442,7 @@
       <c r="X970" s="2"/>
       <c r="Y970" s="2"/>
       <c r="Z970" s="2"/>
+      <c r="AA970" s="2"/>
     </row>
     <row r="971">
       <c r="A971" s="2"/>
@@ -27481,6 +28471,7 @@
       <c r="X971" s="2"/>
       <c r="Y971" s="2"/>
       <c r="Z971" s="2"/>
+      <c r="AA971" s="2"/>
     </row>
     <row r="972">
       <c r="A972" s="2"/>
@@ -27509,6 +28500,7 @@
       <c r="X972" s="2"/>
       <c r="Y972" s="2"/>
       <c r="Z972" s="2"/>
+      <c r="AA972" s="2"/>
     </row>
     <row r="973">
       <c r="A973" s="2"/>
@@ -27537,6 +28529,7 @@
       <c r="X973" s="2"/>
       <c r="Y973" s="2"/>
       <c r="Z973" s="2"/>
+      <c r="AA973" s="2"/>
     </row>
     <row r="974">
       <c r="A974" s="2"/>
@@ -27565,6 +28558,7 @@
       <c r="X974" s="2"/>
       <c r="Y974" s="2"/>
       <c r="Z974" s="2"/>
+      <c r="AA974" s="2"/>
     </row>
     <row r="975">
       <c r="A975" s="2"/>
@@ -27593,6 +28587,7 @@
       <c r="X975" s="2"/>
       <c r="Y975" s="2"/>
       <c r="Z975" s="2"/>
+      <c r="AA975" s="2"/>
     </row>
     <row r="976">
       <c r="A976" s="2"/>
@@ -27621,6 +28616,7 @@
       <c r="X976" s="2"/>
       <c r="Y976" s="2"/>
       <c r="Z976" s="2"/>
+      <c r="AA976" s="2"/>
     </row>
     <row r="977">
       <c r="A977" s="2"/>
@@ -27649,6 +28645,7 @@
       <c r="X977" s="2"/>
       <c r="Y977" s="2"/>
       <c r="Z977" s="2"/>
+      <c r="AA977" s="2"/>
     </row>
     <row r="978">
       <c r="A978" s="2"/>
@@ -27677,6 +28674,7 @@
       <c r="X978" s="2"/>
       <c r="Y978" s="2"/>
       <c r="Z978" s="2"/>
+      <c r="AA978" s="2"/>
     </row>
     <row r="979">
       <c r="A979" s="2"/>
@@ -27705,6 +28703,7 @@
       <c r="X979" s="2"/>
       <c r="Y979" s="2"/>
       <c r="Z979" s="2"/>
+      <c r="AA979" s="2"/>
     </row>
     <row r="980">
       <c r="A980" s="2"/>
@@ -27733,6 +28732,7 @@
       <c r="X980" s="2"/>
       <c r="Y980" s="2"/>
       <c r="Z980" s="2"/>
+      <c r="AA980" s="2"/>
     </row>
     <row r="981">
       <c r="A981" s="2"/>
@@ -27761,6 +28761,7 @@
       <c r="X981" s="2"/>
       <c r="Y981" s="2"/>
       <c r="Z981" s="2"/>
+      <c r="AA981" s="2"/>
     </row>
     <row r="982">
       <c r="A982" s="2"/>
@@ -27789,6 +28790,7 @@
       <c r="X982" s="2"/>
       <c r="Y982" s="2"/>
       <c r="Z982" s="2"/>
+      <c r="AA982" s="2"/>
     </row>
     <row r="983">
       <c r="A983" s="2"/>
@@ -27817,6 +28819,7 @@
       <c r="X983" s="2"/>
       <c r="Y983" s="2"/>
       <c r="Z983" s="2"/>
+      <c r="AA983" s="2"/>
     </row>
     <row r="984">
       <c r="A984" s="2"/>
@@ -27845,6 +28848,7 @@
       <c r="X984" s="2"/>
       <c r="Y984" s="2"/>
       <c r="Z984" s="2"/>
+      <c r="AA984" s="2"/>
     </row>
     <row r="985">
       <c r="A985" s="2"/>
@@ -27873,6 +28877,7 @@
       <c r="X985" s="2"/>
       <c r="Y985" s="2"/>
       <c r="Z985" s="2"/>
+      <c r="AA985" s="2"/>
     </row>
     <row r="986">
       <c r="A986" s="2"/>
@@ -27901,6 +28906,7 @@
       <c r="X986" s="2"/>
       <c r="Y986" s="2"/>
       <c r="Z986" s="2"/>
+      <c r="AA986" s="2"/>
     </row>
     <row r="987">
       <c r="A987" s="2"/>
@@ -27929,6 +28935,7 @@
       <c r="X987" s="2"/>
       <c r="Y987" s="2"/>
       <c r="Z987" s="2"/>
+      <c r="AA987" s="2"/>
     </row>
     <row r="988">
       <c r="A988" s="2"/>
@@ -27957,6 +28964,7 @@
       <c r="X988" s="2"/>
       <c r="Y988" s="2"/>
       <c r="Z988" s="2"/>
+      <c r="AA988" s="2"/>
     </row>
     <row r="989">
       <c r="A989" s="2"/>
@@ -27985,6 +28993,7 @@
       <c r="X989" s="2"/>
       <c r="Y989" s="2"/>
       <c r="Z989" s="2"/>
+      <c r="AA989" s="2"/>
     </row>
     <row r="990">
       <c r="A990" s="2"/>
@@ -28013,6 +29022,7 @@
       <c r="X990" s="2"/>
       <c r="Y990" s="2"/>
       <c r="Z990" s="2"/>
+      <c r="AA990" s="2"/>
     </row>
     <row r="991">
       <c r="A991" s="2"/>
@@ -28041,6 +29051,7 @@
       <c r="X991" s="2"/>
       <c r="Y991" s="2"/>
       <c r="Z991" s="2"/>
+      <c r="AA991" s="2"/>
     </row>
     <row r="992">
       <c r="A992" s="2"/>
@@ -28069,6 +29080,7 @@
       <c r="X992" s="2"/>
       <c r="Y992" s="2"/>
       <c r="Z992" s="2"/>
+      <c r="AA992" s="2"/>
     </row>
     <row r="993">
       <c r="A993" s="2"/>
@@ -28097,6 +29109,7 @@
       <c r="X993" s="2"/>
       <c r="Y993" s="2"/>
       <c r="Z993" s="2"/>
+      <c r="AA993" s="2"/>
     </row>
     <row r="994">
       <c r="A994" s="2"/>
@@ -28125,6 +29138,7 @@
       <c r="X994" s="2"/>
       <c r="Y994" s="2"/>
       <c r="Z994" s="2"/>
+      <c r="AA994" s="2"/>
     </row>
     <row r="995">
       <c r="A995" s="2"/>
@@ -28153,6 +29167,7 @@
       <c r="X995" s="2"/>
       <c r="Y995" s="2"/>
       <c r="Z995" s="2"/>
+      <c r="AA995" s="2"/>
     </row>
     <row r="996">
       <c r="A996" s="2"/>
@@ -28181,6 +29196,7 @@
       <c r="X996" s="2"/>
       <c r="Y996" s="2"/>
       <c r="Z996" s="2"/>
+      <c r="AA996" s="2"/>
     </row>
     <row r="997">
       <c r="A997" s="2"/>
@@ -28209,6 +29225,7 @@
       <c r="X997" s="2"/>
       <c r="Y997" s="2"/>
       <c r="Z997" s="2"/>
+      <c r="AA997" s="2"/>
     </row>
     <row r="998">
       <c r="A998" s="2"/>
@@ -28237,6 +29254,7 @@
       <c r="X998" s="2"/>
       <c r="Y998" s="2"/>
       <c r="Z998" s="2"/>
+      <c r="AA998" s="2"/>
     </row>
     <row r="999">
       <c r="A999" s="2"/>
@@ -28265,6 +29283,7 @@
       <c r="X999" s="2"/>
       <c r="Y999" s="2"/>
       <c r="Z999" s="2"/>
+      <c r="AA999" s="2"/>
     </row>
     <row r="1000">
       <c r="A1000" s="2"/>
@@ -28293,6 +29312,7 @@
       <c r="X1000" s="2"/>
       <c r="Y1000" s="2"/>
       <c r="Z1000" s="2"/>
+      <c r="AA1000" s="2"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
